--- a/template/实物ID箱签.xlsx
+++ b/template/实物ID箱签.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="8775"/>
+    <workbookView windowWidth="16980" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="不含车间信息" sheetId="6" r:id="rId1"/>
@@ -12,115 +12,82 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">不含车间信息!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
-    <t>订单编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>序号</t>
   </si>
   <si>
     <t>变电站或馈线
 名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>杨莹</t>
+  </si>
+  <si>
+    <t>电话：010-52613399</t>
+  </si>
+  <si>
+    <t>传真：010-52613472</t>
+  </si>
+  <si>
+    <t>收货地址及收货公司</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>电话</t>
   </si>
   <si>
     <t>产品名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货单位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>物流公司</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A型标签</t>
+  </si>
+  <si>
+    <t>B型标签</t>
   </si>
   <si>
     <t>物流单号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>王杰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话：010-52613399</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>传真：010-52613472</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB181000122</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>A型标签</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B型标签</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>C型标签</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>D型标签</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>箱数/总箱数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>发货地址</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号一栏的数值需要与交接单的序号一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了注明由库房填写的部分，其余都是有供应商填写完整</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>库房填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,9 +96,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -139,50 +208,99 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +310,192 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,78 +509,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -284,74 +523,28 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -369,124 +562,399 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 14" xfId="1"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 14" xfId="49"/>
+    <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -771,3099 +1239,3016 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F982"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.475" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.0083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.825" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1" spans="1:4">
+      <c r="A5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="21" t="s">
-        <v>1</v>
+      <c r="B11" s="18"/>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
       </c>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="D11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16" s="3"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="3"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="3"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="3"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="3"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="3"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="3"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="3"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="3"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="3"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="3"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="3"/>
+      <c r="C27" s="19"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="3"/>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="3"/>
+      <c r="C29" s="19"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="3"/>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="3"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="3"/>
+      <c r="C32" s="19"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="3"/>
+      <c r="C33" s="19"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="3"/>
+      <c r="C34" s="19"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="3"/>
+      <c r="C35" s="19"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="3"/>
+      <c r="C36" s="19"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="3"/>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="3"/>
+      <c r="C38" s="19"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="3"/>
+      <c r="C39" s="19"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="3"/>
+      <c r="C40" s="19"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="3"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="3"/>
+      <c r="C42" s="19"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="3"/>
+      <c r="C43" s="19"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="3"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="3"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="3"/>
+      <c r="C46" s="19"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="3"/>
+      <c r="C47" s="19"/>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="3"/>
+      <c r="C48" s="19"/>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="3"/>
+      <c r="C49" s="19"/>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="3"/>
+      <c r="C50" s="19"/>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="3"/>
+      <c r="C51" s="19"/>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="3"/>
+      <c r="C52" s="19"/>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="3"/>
+      <c r="C53" s="19"/>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="3"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="3"/>
+      <c r="C55" s="19"/>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="3"/>
+      <c r="C56" s="19"/>
     </row>
     <row r="57" spans="3:3">
-      <c r="C57" s="3"/>
+      <c r="C57" s="19"/>
     </row>
     <row r="58" spans="3:3">
-      <c r="C58" s="3"/>
+      <c r="C58" s="19"/>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="3"/>
+      <c r="C59" s="19"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="3"/>
+      <c r="C60" s="19"/>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="3"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="3"/>
+      <c r="C62" s="19"/>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="3"/>
+      <c r="C63" s="19"/>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="3"/>
+      <c r="C64" s="19"/>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="3"/>
+      <c r="C65" s="19"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="3"/>
+      <c r="C66" s="19"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="3"/>
+      <c r="C67" s="19"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="3"/>
+      <c r="C68" s="19"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="3"/>
+      <c r="C69" s="19"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="3"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="3"/>
+      <c r="C71" s="19"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="3"/>
+      <c r="C72" s="19"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="3"/>
+      <c r="C73" s="19"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="3"/>
+      <c r="C74" s="19"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="3"/>
+      <c r="C75" s="19"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="3"/>
+      <c r="C76" s="19"/>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="3"/>
+      <c r="C77" s="19"/>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="3"/>
+      <c r="C78" s="19"/>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="3"/>
+      <c r="C79" s="19"/>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="3"/>
+      <c r="C80" s="19"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="3"/>
+      <c r="C81" s="19"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="3"/>
+      <c r="C82" s="19"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="3"/>
+      <c r="C83" s="19"/>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="3"/>
+      <c r="C84" s="19"/>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="3"/>
+      <c r="C85" s="19"/>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="3"/>
+      <c r="C86" s="19"/>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="3"/>
+      <c r="C87" s="19"/>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="3"/>
+      <c r="C88" s="19"/>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="3"/>
+      <c r="C89" s="19"/>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="3"/>
+      <c r="C90" s="19"/>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="3"/>
+      <c r="C91" s="19"/>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="3"/>
+      <c r="C92" s="19"/>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="3"/>
+      <c r="C93" s="19"/>
     </row>
     <row r="94" spans="3:3">
-      <c r="C94" s="3"/>
+      <c r="C94" s="19"/>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="3"/>
+      <c r="C95" s="19"/>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="3"/>
+      <c r="C96" s="19"/>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="3"/>
+      <c r="C97" s="19"/>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="3"/>
+      <c r="C98" s="19"/>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="3"/>
+      <c r="C99" s="19"/>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="3"/>
+      <c r="C100" s="19"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="3"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="3"/>
+      <c r="C102" s="19"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="3"/>
+      <c r="C103" s="19"/>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="3"/>
+      <c r="C104" s="19"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="3"/>
+      <c r="C105" s="19"/>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="3"/>
+      <c r="C106" s="19"/>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="3"/>
+      <c r="C107" s="19"/>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="3"/>
+      <c r="C108" s="19"/>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="3"/>
+      <c r="C109" s="19"/>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="3"/>
+      <c r="C110" s="19"/>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="3"/>
+      <c r="C111" s="19"/>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="3"/>
+      <c r="C112" s="19"/>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="3"/>
+      <c r="C113" s="19"/>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="3"/>
+      <c r="C114" s="19"/>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="3"/>
+      <c r="C115" s="19"/>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="3"/>
+      <c r="C116" s="19"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="3"/>
+      <c r="C117" s="19"/>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="3"/>
+      <c r="C118" s="19"/>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="3"/>
+      <c r="C119" s="19"/>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="3"/>
+      <c r="C120" s="19"/>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="3"/>
+      <c r="C121" s="19"/>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="3"/>
+      <c r="C122" s="19"/>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="3"/>
+      <c r="C123" s="19"/>
     </row>
     <row r="124" spans="3:3">
-      <c r="C124" s="3"/>
+      <c r="C124" s="19"/>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="3"/>
+      <c r="C125" s="19"/>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="3"/>
+      <c r="C126" s="19"/>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="3"/>
+      <c r="C127" s="19"/>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="3"/>
+      <c r="C128" s="19"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="3"/>
+      <c r="C129" s="19"/>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="3"/>
+      <c r="C130" s="19"/>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="3"/>
+      <c r="C131" s="19"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="3"/>
+      <c r="C132" s="19"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="3"/>
+      <c r="C133" s="19"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="3"/>
+      <c r="C134" s="19"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="3"/>
+      <c r="C135" s="19"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="3"/>
+      <c r="C136" s="19"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="3"/>
+      <c r="C137" s="19"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="3"/>
+      <c r="C138" s="19"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="3"/>
+      <c r="C139" s="19"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="3"/>
+      <c r="C140" s="19"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="3"/>
+      <c r="C141" s="19"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="3"/>
+      <c r="C142" s="19"/>
     </row>
     <row r="143" spans="3:3">
-      <c r="C143" s="3"/>
+      <c r="C143" s="19"/>
     </row>
     <row r="144" spans="3:3">
-      <c r="C144" s="3"/>
+      <c r="C144" s="19"/>
     </row>
     <row r="145" spans="3:3">
-      <c r="C145" s="3"/>
+      <c r="C145" s="19"/>
     </row>
     <row r="146" spans="3:3">
-      <c r="C146" s="3"/>
+      <c r="C146" s="19"/>
     </row>
     <row r="147" spans="3:3">
-      <c r="C147" s="3"/>
+      <c r="C147" s="19"/>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="3"/>
+      <c r="C148" s="19"/>
     </row>
     <row r="149" spans="3:3">
-      <c r="C149" s="3"/>
+      <c r="C149" s="19"/>
     </row>
     <row r="150" spans="3:3">
-      <c r="C150" s="3"/>
+      <c r="C150" s="19"/>
     </row>
     <row r="151" spans="3:3">
-      <c r="C151" s="3"/>
+      <c r="C151" s="19"/>
     </row>
     <row r="152" spans="3:3">
-      <c r="C152" s="3"/>
+      <c r="C152" s="19"/>
     </row>
     <row r="153" spans="3:3">
-      <c r="C153" s="3"/>
+      <c r="C153" s="19"/>
     </row>
     <row r="154" spans="3:3">
-      <c r="C154" s="3"/>
+      <c r="C154" s="19"/>
     </row>
     <row r="155" spans="3:3">
-      <c r="C155" s="3"/>
+      <c r="C155" s="19"/>
     </row>
     <row r="156" spans="3:3">
-      <c r="C156" s="3"/>
+      <c r="C156" s="19"/>
     </row>
     <row r="157" spans="3:3">
-      <c r="C157" s="3"/>
+      <c r="C157" s="19"/>
     </row>
     <row r="158" spans="3:3">
-      <c r="C158" s="3"/>
+      <c r="C158" s="19"/>
     </row>
     <row r="159" spans="3:3">
-      <c r="C159" s="3"/>
+      <c r="C159" s="19"/>
     </row>
     <row r="160" spans="3:3">
-      <c r="C160" s="3"/>
+      <c r="C160" s="19"/>
     </row>
     <row r="161" spans="3:3">
-      <c r="C161" s="3"/>
+      <c r="C161" s="19"/>
     </row>
     <row r="162" spans="3:3">
-      <c r="C162" s="3"/>
+      <c r="C162" s="19"/>
     </row>
     <row r="163" spans="3:3">
-      <c r="C163" s="3"/>
+      <c r="C163" s="19"/>
     </row>
     <row r="164" spans="3:3">
-      <c r="C164" s="3"/>
+      <c r="C164" s="19"/>
     </row>
     <row r="165" spans="3:3">
-      <c r="C165" s="3"/>
+      <c r="C165" s="19"/>
     </row>
     <row r="166" spans="3:3">
-      <c r="C166" s="3"/>
+      <c r="C166" s="19"/>
     </row>
     <row r="167" spans="3:3">
-      <c r="C167" s="3"/>
+      <c r="C167" s="19"/>
     </row>
     <row r="168" spans="3:3">
-      <c r="C168" s="3"/>
+      <c r="C168" s="19"/>
     </row>
     <row r="169" spans="3:3">
-      <c r="C169" s="3"/>
+      <c r="C169" s="19"/>
     </row>
     <row r="170" spans="3:3">
-      <c r="C170" s="3"/>
+      <c r="C170" s="19"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="3"/>
+      <c r="C171" s="19"/>
     </row>
     <row r="172" spans="3:3">
-      <c r="C172" s="3"/>
+      <c r="C172" s="19"/>
     </row>
     <row r="173" spans="3:3">
-      <c r="C173" s="3"/>
+      <c r="C173" s="19"/>
     </row>
     <row r="174" spans="3:3">
-      <c r="C174" s="3"/>
+      <c r="C174" s="19"/>
     </row>
     <row r="175" spans="3:3">
-      <c r="C175" s="3"/>
+      <c r="C175" s="19"/>
     </row>
     <row r="176" spans="3:3">
-      <c r="C176" s="3"/>
+      <c r="C176" s="19"/>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177" s="3"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="3:3">
-      <c r="C178" s="3"/>
+      <c r="C178" s="19"/>
     </row>
     <row r="179" spans="3:3">
-      <c r="C179" s="3"/>
+      <c r="C179" s="19"/>
     </row>
     <row r="180" spans="3:3">
-      <c r="C180" s="3"/>
+      <c r="C180" s="19"/>
     </row>
     <row r="181" spans="3:3">
-      <c r="C181" s="3"/>
+      <c r="C181" s="19"/>
     </row>
     <row r="182" spans="3:3">
-      <c r="C182" s="3"/>
+      <c r="C182" s="19"/>
     </row>
     <row r="183" spans="3:3">
-      <c r="C183" s="3"/>
+      <c r="C183" s="19"/>
     </row>
     <row r="184" spans="3:3">
-      <c r="C184" s="3"/>
+      <c r="C184" s="19"/>
     </row>
     <row r="185" spans="3:3">
-      <c r="C185" s="3"/>
+      <c r="C185" s="19"/>
     </row>
     <row r="186" spans="3:3">
-      <c r="C186" s="3"/>
+      <c r="C186" s="19"/>
     </row>
     <row r="187" spans="3:3">
-      <c r="C187" s="3"/>
+      <c r="C187" s="19"/>
     </row>
     <row r="188" spans="3:3">
-      <c r="C188" s="3"/>
+      <c r="C188" s="19"/>
     </row>
     <row r="189" spans="3:3">
-      <c r="C189" s="3"/>
+      <c r="C189" s="19"/>
     </row>
     <row r="190" spans="3:3">
-      <c r="C190" s="3"/>
+      <c r="C190" s="19"/>
     </row>
     <row r="191" spans="3:3">
-      <c r="C191" s="3"/>
+      <c r="C191" s="19"/>
     </row>
     <row r="192" spans="3:3">
-      <c r="C192" s="3"/>
+      <c r="C192" s="19"/>
     </row>
     <row r="193" spans="3:3">
-      <c r="C193" s="3"/>
+      <c r="C193" s="19"/>
     </row>
     <row r="194" spans="3:3">
-      <c r="C194" s="3"/>
+      <c r="C194" s="19"/>
     </row>
     <row r="195" spans="3:3">
-      <c r="C195" s="3"/>
+      <c r="C195" s="19"/>
     </row>
     <row r="196" spans="3:3">
-      <c r="C196" s="3"/>
+      <c r="C196" s="19"/>
     </row>
     <row r="197" spans="3:3">
-      <c r="C197" s="3"/>
+      <c r="C197" s="19"/>
     </row>
     <row r="198" spans="3:3">
-      <c r="C198" s="3"/>
+      <c r="C198" s="19"/>
     </row>
     <row r="199" spans="3:3">
-      <c r="C199" s="3"/>
+      <c r="C199" s="19"/>
     </row>
     <row r="200" spans="3:3">
-      <c r="C200" s="3"/>
+      <c r="C200" s="19"/>
     </row>
     <row r="201" spans="3:3">
-      <c r="C201" s="3"/>
+      <c r="C201" s="19"/>
     </row>
     <row r="202" spans="3:3">
-      <c r="C202" s="3"/>
+      <c r="C202" s="19"/>
     </row>
     <row r="203" spans="3:3">
-      <c r="C203" s="3"/>
+      <c r="C203" s="19"/>
     </row>
     <row r="204" spans="3:3">
-      <c r="C204" s="3"/>
+      <c r="C204" s="19"/>
     </row>
     <row r="205" spans="3:3">
-      <c r="C205" s="3"/>
+      <c r="C205" s="19"/>
     </row>
     <row r="206" spans="3:3">
-      <c r="C206" s="3"/>
+      <c r="C206" s="19"/>
     </row>
     <row r="207" spans="3:3">
-      <c r="C207" s="3"/>
+      <c r="C207" s="19"/>
     </row>
     <row r="208" spans="3:3">
-      <c r="C208" s="3"/>
+      <c r="C208" s="19"/>
     </row>
     <row r="209" spans="3:3">
-      <c r="C209" s="3"/>
+      <c r="C209" s="19"/>
     </row>
     <row r="210" spans="3:3">
-      <c r="C210" s="3"/>
+      <c r="C210" s="19"/>
     </row>
     <row r="211" spans="3:3">
-      <c r="C211" s="3"/>
+      <c r="C211" s="19"/>
     </row>
     <row r="212" spans="3:3">
-      <c r="C212" s="3"/>
+      <c r="C212" s="19"/>
     </row>
     <row r="213" spans="3:3">
-      <c r="C213" s="3"/>
+      <c r="C213" s="19"/>
     </row>
     <row r="214" spans="3:3">
-      <c r="C214" s="3"/>
+      <c r="C214" s="19"/>
     </row>
     <row r="215" spans="3:3">
-      <c r="C215" s="3"/>
+      <c r="C215" s="19"/>
     </row>
     <row r="216" spans="3:3">
-      <c r="C216" s="3"/>
+      <c r="C216" s="19"/>
     </row>
     <row r="217" spans="3:3">
-      <c r="C217" s="3"/>
+      <c r="C217" s="19"/>
     </row>
     <row r="218" spans="3:3">
-      <c r="C218" s="3"/>
+      <c r="C218" s="19"/>
     </row>
     <row r="219" spans="3:3">
-      <c r="C219" s="3"/>
+      <c r="C219" s="19"/>
     </row>
     <row r="220" spans="3:3">
-      <c r="C220" s="3"/>
+      <c r="C220" s="19"/>
     </row>
     <row r="221" spans="3:3">
-      <c r="C221" s="3"/>
+      <c r="C221" s="19"/>
     </row>
     <row r="222" spans="3:3">
-      <c r="C222" s="3"/>
+      <c r="C222" s="19"/>
     </row>
     <row r="223" spans="3:3">
-      <c r="C223" s="3"/>
+      <c r="C223" s="19"/>
     </row>
     <row r="224" spans="3:3">
-      <c r="C224" s="3"/>
+      <c r="C224" s="19"/>
     </row>
     <row r="225" spans="3:3">
-      <c r="C225" s="3"/>
+      <c r="C225" s="19"/>
     </row>
     <row r="226" spans="3:3">
-      <c r="C226" s="3"/>
+      <c r="C226" s="19"/>
     </row>
     <row r="227" spans="3:3">
-      <c r="C227" s="3"/>
+      <c r="C227" s="19"/>
     </row>
     <row r="228" spans="3:3">
-      <c r="C228" s="3"/>
+      <c r="C228" s="19"/>
     </row>
     <row r="229" spans="3:3">
-      <c r="C229" s="3"/>
+      <c r="C229" s="19"/>
     </row>
     <row r="230" spans="3:3">
-      <c r="C230" s="3"/>
+      <c r="C230" s="19"/>
     </row>
     <row r="231" spans="3:3">
-      <c r="C231" s="3"/>
+      <c r="C231" s="19"/>
     </row>
     <row r="232" spans="3:3">
-      <c r="C232" s="3"/>
+      <c r="C232" s="19"/>
     </row>
     <row r="233" spans="3:3">
-      <c r="C233" s="3"/>
+      <c r="C233" s="19"/>
     </row>
     <row r="234" spans="3:3">
-      <c r="C234" s="3"/>
+      <c r="C234" s="19"/>
     </row>
     <row r="235" spans="3:3">
-      <c r="C235" s="3"/>
+      <c r="C235" s="19"/>
     </row>
     <row r="236" spans="3:3">
-      <c r="C236" s="3"/>
+      <c r="C236" s="19"/>
     </row>
     <row r="237" spans="3:3">
-      <c r="C237" s="3"/>
+      <c r="C237" s="19"/>
     </row>
     <row r="238" spans="3:3">
-      <c r="C238" s="3"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="3:3">
-      <c r="C239" s="3"/>
+      <c r="C239" s="19"/>
     </row>
     <row r="240" spans="3:3">
-      <c r="C240" s="3"/>
+      <c r="C240" s="19"/>
     </row>
     <row r="241" spans="3:3">
-      <c r="C241" s="3"/>
+      <c r="C241" s="19"/>
     </row>
     <row r="242" spans="3:3">
-      <c r="C242" s="3"/>
+      <c r="C242" s="19"/>
     </row>
     <row r="243" spans="3:3">
-      <c r="C243" s="3"/>
+      <c r="C243" s="19"/>
     </row>
     <row r="244" spans="3:3">
-      <c r="C244" s="3"/>
+      <c r="C244" s="19"/>
     </row>
     <row r="245" spans="3:3">
-      <c r="C245" s="3"/>
+      <c r="C245" s="19"/>
     </row>
     <row r="246" spans="3:3">
-      <c r="C246" s="3"/>
+      <c r="C246" s="19"/>
     </row>
     <row r="247" spans="3:3">
-      <c r="C247" s="3"/>
+      <c r="C247" s="19"/>
     </row>
     <row r="248" spans="3:3">
-      <c r="C248" s="3"/>
+      <c r="C248" s="19"/>
     </row>
     <row r="249" spans="3:3">
-      <c r="C249" s="3"/>
+      <c r="C249" s="19"/>
     </row>
     <row r="250" spans="3:3">
-      <c r="C250" s="3"/>
+      <c r="C250" s="19"/>
     </row>
     <row r="251" spans="3:3">
-      <c r="C251" s="3"/>
+      <c r="C251" s="19"/>
     </row>
     <row r="252" spans="3:3">
-      <c r="C252" s="3"/>
+      <c r="C252" s="19"/>
     </row>
     <row r="253" spans="3:3">
-      <c r="C253" s="3"/>
+      <c r="C253" s="19"/>
     </row>
     <row r="254" spans="3:3">
-      <c r="C254" s="3"/>
+      <c r="C254" s="19"/>
     </row>
     <row r="255" spans="3:3">
-      <c r="C255" s="3"/>
+      <c r="C255" s="19"/>
     </row>
     <row r="256" spans="3:3">
-      <c r="C256" s="3"/>
+      <c r="C256" s="19"/>
     </row>
     <row r="257" spans="3:3">
-      <c r="C257" s="3"/>
+      <c r="C257" s="19"/>
     </row>
     <row r="258" spans="3:3">
-      <c r="C258" s="3"/>
+      <c r="C258" s="19"/>
     </row>
     <row r="259" spans="3:3">
-      <c r="C259" s="3"/>
+      <c r="C259" s="19"/>
     </row>
     <row r="260" spans="3:3">
-      <c r="C260" s="3"/>
+      <c r="C260" s="19"/>
     </row>
     <row r="261" spans="3:3">
-      <c r="C261" s="3"/>
+      <c r="C261" s="19"/>
     </row>
     <row r="262" spans="3:3">
-      <c r="C262" s="3"/>
+      <c r="C262" s="19"/>
     </row>
     <row r="263" spans="3:3">
-      <c r="C263" s="3"/>
+      <c r="C263" s="19"/>
     </row>
     <row r="264" spans="3:3">
-      <c r="C264" s="3"/>
+      <c r="C264" s="19"/>
     </row>
     <row r="265" spans="3:3">
-      <c r="C265" s="3"/>
+      <c r="C265" s="19"/>
     </row>
     <row r="266" spans="3:3">
-      <c r="C266" s="3"/>
+      <c r="C266" s="19"/>
     </row>
     <row r="267" spans="3:3">
-      <c r="C267" s="3"/>
+      <c r="C267" s="19"/>
     </row>
     <row r="268" spans="3:3">
-      <c r="C268" s="3"/>
+      <c r="C268" s="19"/>
     </row>
     <row r="269" spans="3:3">
-      <c r="C269" s="3"/>
+      <c r="C269" s="19"/>
     </row>
     <row r="270" spans="3:3">
-      <c r="C270" s="3"/>
+      <c r="C270" s="19"/>
     </row>
     <row r="271" spans="3:3">
-      <c r="C271" s="3"/>
+      <c r="C271" s="19"/>
     </row>
     <row r="272" spans="3:3">
-      <c r="C272" s="3"/>
+      <c r="C272" s="19"/>
     </row>
     <row r="273" spans="3:3">
-      <c r="C273" s="3"/>
+      <c r="C273" s="19"/>
     </row>
     <row r="274" spans="3:3">
-      <c r="C274" s="3"/>
+      <c r="C274" s="19"/>
     </row>
     <row r="275" spans="3:3">
-      <c r="C275" s="3"/>
+      <c r="C275" s="19"/>
     </row>
     <row r="276" spans="3:3">
-      <c r="C276" s="3"/>
+      <c r="C276" s="19"/>
     </row>
     <row r="277" spans="3:3">
-      <c r="C277" s="3"/>
+      <c r="C277" s="19"/>
     </row>
     <row r="278" spans="3:3">
-      <c r="C278" s="3"/>
+      <c r="C278" s="19"/>
     </row>
     <row r="279" spans="3:3">
-      <c r="C279" s="3"/>
+      <c r="C279" s="19"/>
     </row>
     <row r="280" spans="3:3">
-      <c r="C280" s="3"/>
+      <c r="C280" s="19"/>
     </row>
     <row r="281" spans="3:3">
-      <c r="C281" s="3"/>
+      <c r="C281" s="19"/>
     </row>
     <row r="282" spans="3:3">
-      <c r="C282" s="3"/>
+      <c r="C282" s="19"/>
     </row>
     <row r="283" spans="3:3">
-      <c r="C283" s="3"/>
+      <c r="C283" s="19"/>
     </row>
     <row r="284" spans="3:3">
-      <c r="C284" s="3"/>
+      <c r="C284" s="19"/>
     </row>
     <row r="285" spans="3:3">
-      <c r="C285" s="3"/>
+      <c r="C285" s="19"/>
     </row>
     <row r="286" spans="3:3">
-      <c r="C286" s="3"/>
+      <c r="C286" s="19"/>
     </row>
     <row r="287" spans="3:3">
-      <c r="C287" s="3"/>
+      <c r="C287" s="19"/>
     </row>
     <row r="288" spans="3:3">
-      <c r="C288" s="3"/>
+      <c r="C288" s="19"/>
     </row>
     <row r="289" spans="3:3">
-      <c r="C289" s="3"/>
+      <c r="C289" s="19"/>
     </row>
     <row r="290" spans="3:3">
-      <c r="C290" s="3"/>
+      <c r="C290" s="19"/>
     </row>
     <row r="291" spans="3:3">
-      <c r="C291" s="3"/>
+      <c r="C291" s="19"/>
     </row>
     <row r="292" spans="3:3">
-      <c r="C292" s="3"/>
+      <c r="C292" s="19"/>
     </row>
     <row r="293" spans="3:3">
-      <c r="C293" s="3"/>
+      <c r="C293" s="19"/>
     </row>
     <row r="294" spans="3:3">
-      <c r="C294" s="3"/>
+      <c r="C294" s="19"/>
     </row>
     <row r="295" spans="3:3">
-      <c r="C295" s="3"/>
+      <c r="C295" s="19"/>
     </row>
     <row r="296" spans="3:3">
-      <c r="C296" s="3"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297" spans="3:3">
-      <c r="C297" s="3"/>
+      <c r="C297" s="19"/>
     </row>
     <row r="298" spans="3:3">
-      <c r="C298" s="3"/>
+      <c r="C298" s="19"/>
     </row>
     <row r="299" spans="3:3">
-      <c r="C299" s="3"/>
+      <c r="C299" s="19"/>
     </row>
     <row r="300" spans="3:3">
-      <c r="C300" s="3"/>
+      <c r="C300" s="19"/>
     </row>
     <row r="301" spans="3:3">
-      <c r="C301" s="3"/>
+      <c r="C301" s="19"/>
     </row>
     <row r="302" spans="3:3">
-      <c r="C302" s="3"/>
+      <c r="C302" s="19"/>
     </row>
     <row r="303" spans="3:3">
-      <c r="C303" s="3"/>
+      <c r="C303" s="19"/>
     </row>
     <row r="304" spans="3:3">
-      <c r="C304" s="3"/>
+      <c r="C304" s="19"/>
     </row>
     <row r="305" spans="3:3">
-      <c r="C305" s="3"/>
+      <c r="C305" s="19"/>
     </row>
     <row r="306" spans="3:3">
-      <c r="C306" s="3"/>
+      <c r="C306" s="19"/>
     </row>
     <row r="307" spans="3:3">
-      <c r="C307" s="3"/>
+      <c r="C307" s="19"/>
     </row>
     <row r="308" spans="3:3">
-      <c r="C308" s="3"/>
+      <c r="C308" s="19"/>
     </row>
     <row r="309" spans="3:3">
-      <c r="C309" s="3"/>
+      <c r="C309" s="19"/>
     </row>
     <row r="310" spans="3:3">
-      <c r="C310" s="3"/>
+      <c r="C310" s="19"/>
     </row>
     <row r="311" spans="3:3">
-      <c r="C311" s="3"/>
+      <c r="C311" s="19"/>
     </row>
     <row r="312" spans="3:3">
-      <c r="C312" s="3"/>
+      <c r="C312" s="19"/>
     </row>
     <row r="313" spans="3:3">
-      <c r="C313" s="3"/>
+      <c r="C313" s="19"/>
     </row>
     <row r="314" spans="3:3">
-      <c r="C314" s="3"/>
+      <c r="C314" s="19"/>
     </row>
     <row r="315" spans="3:3">
-      <c r="C315" s="3"/>
+      <c r="C315" s="19"/>
     </row>
     <row r="316" spans="3:3">
-      <c r="C316" s="3"/>
+      <c r="C316" s="19"/>
     </row>
     <row r="317" spans="3:3">
-      <c r="C317" s="3"/>
+      <c r="C317" s="19"/>
     </row>
     <row r="318" spans="3:3">
-      <c r="C318" s="3"/>
+      <c r="C318" s="19"/>
     </row>
     <row r="319" spans="3:3">
-      <c r="C319" s="3"/>
+      <c r="C319" s="19"/>
     </row>
     <row r="320" spans="3:3">
-      <c r="C320" s="3"/>
+      <c r="C320" s="19"/>
     </row>
     <row r="321" spans="3:3">
-      <c r="C321" s="3"/>
+      <c r="C321" s="19"/>
     </row>
     <row r="322" spans="3:3">
-      <c r="C322" s="3"/>
+      <c r="C322" s="19"/>
     </row>
     <row r="323" spans="3:3">
-      <c r="C323" s="3"/>
+      <c r="C323" s="19"/>
     </row>
     <row r="324" spans="3:3">
-      <c r="C324" s="3"/>
+      <c r="C324" s="19"/>
     </row>
     <row r="325" spans="3:3">
-      <c r="C325" s="3"/>
+      <c r="C325" s="19"/>
     </row>
     <row r="326" spans="3:3">
-      <c r="C326" s="3"/>
+      <c r="C326" s="19"/>
     </row>
     <row r="327" spans="3:3">
-      <c r="C327" s="3"/>
+      <c r="C327" s="19"/>
     </row>
     <row r="328" spans="3:3">
-      <c r="C328" s="3"/>
+      <c r="C328" s="19"/>
     </row>
     <row r="329" spans="3:3">
-      <c r="C329" s="3"/>
+      <c r="C329" s="19"/>
     </row>
     <row r="330" spans="3:3">
-      <c r="C330" s="3"/>
+      <c r="C330" s="19"/>
     </row>
     <row r="331" spans="3:3">
-      <c r="C331" s="3"/>
+      <c r="C331" s="19"/>
     </row>
     <row r="332" spans="3:3">
-      <c r="C332" s="3"/>
+      <c r="C332" s="19"/>
     </row>
     <row r="333" spans="3:3">
-      <c r="C333" s="3"/>
+      <c r="C333" s="19"/>
     </row>
     <row r="334" spans="3:3">
-      <c r="C334" s="3"/>
+      <c r="C334" s="19"/>
     </row>
     <row r="335" spans="3:3">
-      <c r="C335" s="3"/>
+      <c r="C335" s="19"/>
     </row>
     <row r="336" spans="3:3">
-      <c r="C336" s="3"/>
+      <c r="C336" s="19"/>
     </row>
     <row r="337" spans="3:3">
-      <c r="C337" s="3"/>
+      <c r="C337" s="19"/>
     </row>
     <row r="338" spans="3:3">
-      <c r="C338" s="3"/>
+      <c r="C338" s="19"/>
     </row>
     <row r="339" spans="3:3">
-      <c r="C339" s="3"/>
+      <c r="C339" s="19"/>
     </row>
     <row r="340" spans="3:3">
-      <c r="C340" s="3"/>
+      <c r="C340" s="19"/>
     </row>
     <row r="341" spans="3:3">
-      <c r="C341" s="3"/>
+      <c r="C341" s="19"/>
     </row>
     <row r="342" spans="3:3">
-      <c r="C342" s="3"/>
+      <c r="C342" s="19"/>
     </row>
     <row r="343" spans="3:3">
-      <c r="C343" s="3"/>
+      <c r="C343" s="19"/>
     </row>
     <row r="344" spans="3:3">
-      <c r="C344" s="3"/>
+      <c r="C344" s="19"/>
     </row>
     <row r="345" spans="3:3">
-      <c r="C345" s="3"/>
+      <c r="C345" s="19"/>
     </row>
     <row r="346" spans="3:3">
-      <c r="C346" s="3"/>
+      <c r="C346" s="19"/>
     </row>
     <row r="347" spans="3:3">
-      <c r="C347" s="3"/>
+      <c r="C347" s="19"/>
     </row>
     <row r="348" spans="3:3">
-      <c r="C348" s="3"/>
+      <c r="C348" s="19"/>
     </row>
     <row r="349" spans="3:3">
-      <c r="C349" s="3"/>
+      <c r="C349" s="19"/>
     </row>
     <row r="350" spans="3:3">
-      <c r="C350" s="3"/>
+      <c r="C350" s="19"/>
     </row>
     <row r="351" spans="3:3">
-      <c r="C351" s="3"/>
+      <c r="C351" s="19"/>
     </row>
     <row r="352" spans="3:3">
-      <c r="C352" s="3"/>
+      <c r="C352" s="19"/>
     </row>
     <row r="353" spans="3:3">
-      <c r="C353" s="3"/>
+      <c r="C353" s="19"/>
     </row>
     <row r="354" spans="3:3">
-      <c r="C354" s="3"/>
+      <c r="C354" s="19"/>
     </row>
     <row r="355" spans="3:3">
-      <c r="C355" s="3"/>
+      <c r="C355" s="19"/>
     </row>
     <row r="356" spans="3:3">
-      <c r="C356" s="3"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357" spans="3:3">
-      <c r="C357" s="3"/>
+      <c r="C357" s="19"/>
     </row>
     <row r="358" spans="3:3">
-      <c r="C358" s="3"/>
+      <c r="C358" s="19"/>
     </row>
     <row r="359" spans="3:3">
-      <c r="C359" s="3"/>
+      <c r="C359" s="19"/>
     </row>
     <row r="360" spans="3:3">
-      <c r="C360" s="3"/>
+      <c r="C360" s="19"/>
     </row>
     <row r="361" spans="3:3">
-      <c r="C361" s="3"/>
+      <c r="C361" s="19"/>
     </row>
     <row r="362" spans="3:3">
-      <c r="C362" s="3"/>
+      <c r="C362" s="19"/>
     </row>
     <row r="363" spans="3:3">
-      <c r="C363" s="3"/>
+      <c r="C363" s="19"/>
     </row>
     <row r="364" spans="3:3">
-      <c r="C364" s="3"/>
+      <c r="C364" s="19"/>
     </row>
     <row r="365" spans="3:3">
-      <c r="C365" s="3"/>
+      <c r="C365" s="19"/>
     </row>
     <row r="366" spans="3:3">
-      <c r="C366" s="3"/>
+      <c r="C366" s="19"/>
     </row>
     <row r="367" spans="3:3">
-      <c r="C367" s="3"/>
+      <c r="C367" s="19"/>
     </row>
     <row r="368" spans="3:3">
-      <c r="C368" s="3"/>
+      <c r="C368" s="19"/>
     </row>
     <row r="369" spans="3:3">
-      <c r="C369" s="3"/>
+      <c r="C369" s="19"/>
     </row>
     <row r="370" spans="3:3">
-      <c r="C370" s="3"/>
+      <c r="C370" s="19"/>
     </row>
     <row r="371" spans="3:3">
-      <c r="C371" s="3"/>
+      <c r="C371" s="19"/>
     </row>
     <row r="372" spans="3:3">
-      <c r="C372" s="3"/>
+      <c r="C372" s="19"/>
     </row>
     <row r="373" spans="3:3">
-      <c r="C373" s="3"/>
+      <c r="C373" s="19"/>
     </row>
     <row r="374" spans="3:3">
-      <c r="C374" s="3"/>
+      <c r="C374" s="19"/>
     </row>
     <row r="375" spans="3:3">
-      <c r="C375" s="3"/>
+      <c r="C375" s="19"/>
     </row>
     <row r="376" spans="3:3">
-      <c r="C376" s="3"/>
+      <c r="C376" s="19"/>
     </row>
     <row r="377" spans="3:3">
-      <c r="C377" s="3"/>
+      <c r="C377" s="19"/>
     </row>
     <row r="378" spans="3:3">
-      <c r="C378" s="3"/>
+      <c r="C378" s="19"/>
     </row>
     <row r="379" spans="3:3">
-      <c r="C379" s="3"/>
+      <c r="C379" s="19"/>
     </row>
     <row r="380" spans="3:3">
-      <c r="C380" s="3"/>
+      <c r="C380" s="19"/>
     </row>
     <row r="381" spans="3:3">
-      <c r="C381" s="3"/>
+      <c r="C381" s="19"/>
     </row>
     <row r="382" spans="3:3">
-      <c r="C382" s="3"/>
+      <c r="C382" s="19"/>
     </row>
     <row r="383" spans="3:3">
-      <c r="C383" s="3"/>
+      <c r="C383" s="19"/>
     </row>
     <row r="384" spans="3:3">
-      <c r="C384" s="3"/>
+      <c r="C384" s="19"/>
     </row>
     <row r="385" spans="3:3">
-      <c r="C385" s="3"/>
+      <c r="C385" s="19"/>
     </row>
     <row r="386" spans="3:3">
-      <c r="C386" s="3"/>
+      <c r="C386" s="19"/>
     </row>
     <row r="387" spans="3:3">
-      <c r="C387" s="3"/>
+      <c r="C387" s="19"/>
     </row>
     <row r="388" spans="3:3">
-      <c r="C388" s="3"/>
+      <c r="C388" s="19"/>
     </row>
     <row r="389" spans="3:3">
-      <c r="C389" s="3"/>
+      <c r="C389" s="19"/>
     </row>
     <row r="390" spans="3:3">
-      <c r="C390" s="3"/>
+      <c r="C390" s="19"/>
     </row>
     <row r="391" spans="3:3">
-      <c r="C391" s="3"/>
+      <c r="C391" s="19"/>
     </row>
     <row r="392" spans="3:3">
-      <c r="C392" s="3"/>
+      <c r="C392" s="19"/>
     </row>
     <row r="393" spans="3:3">
-      <c r="C393" s="3"/>
+      <c r="C393" s="19"/>
     </row>
     <row r="394" spans="3:3">
-      <c r="C394" s="3"/>
+      <c r="C394" s="19"/>
     </row>
     <row r="395" spans="3:3">
-      <c r="C395" s="3"/>
+      <c r="C395" s="19"/>
     </row>
     <row r="396" spans="3:3">
-      <c r="C396" s="3"/>
+      <c r="C396" s="19"/>
     </row>
     <row r="397" spans="3:3">
-      <c r="C397" s="3"/>
+      <c r="C397" s="19"/>
     </row>
     <row r="398" spans="3:3">
-      <c r="C398" s="3"/>
+      <c r="C398" s="19"/>
     </row>
     <row r="399" spans="3:3">
-      <c r="C399" s="3"/>
+      <c r="C399" s="19"/>
     </row>
     <row r="400" spans="3:3">
-      <c r="C400" s="3"/>
+      <c r="C400" s="19"/>
     </row>
     <row r="401" spans="3:3">
-      <c r="C401" s="3"/>
+      <c r="C401" s="19"/>
     </row>
     <row r="402" spans="3:3">
-      <c r="C402" s="3"/>
+      <c r="C402" s="19"/>
     </row>
     <row r="403" spans="3:3">
-      <c r="C403" s="3"/>
+      <c r="C403" s="19"/>
     </row>
     <row r="404" spans="3:3">
-      <c r="C404" s="3"/>
+      <c r="C404" s="19"/>
     </row>
     <row r="405" spans="3:3">
-      <c r="C405" s="3"/>
+      <c r="C405" s="19"/>
     </row>
     <row r="406" spans="3:3">
-      <c r="C406" s="3"/>
+      <c r="C406" s="19"/>
     </row>
     <row r="407" spans="3:3">
-      <c r="C407" s="3"/>
+      <c r="C407" s="19"/>
     </row>
     <row r="408" spans="3:3">
-      <c r="C408" s="3"/>
+      <c r="C408" s="19"/>
     </row>
     <row r="409" spans="3:3">
-      <c r="C409" s="3"/>
+      <c r="C409" s="19"/>
     </row>
     <row r="410" spans="3:3">
-      <c r="C410" s="3"/>
+      <c r="C410" s="19"/>
     </row>
     <row r="411" spans="3:3">
-      <c r="C411" s="3"/>
+      <c r="C411" s="19"/>
     </row>
     <row r="412" spans="3:3">
-      <c r="C412" s="3"/>
+      <c r="C412" s="19"/>
     </row>
     <row r="413" spans="3:3">
-      <c r="C413" s="3"/>
+      <c r="C413" s="19"/>
     </row>
     <row r="414" spans="3:3">
-      <c r="C414" s="3"/>
+      <c r="C414" s="19"/>
     </row>
     <row r="415" spans="3:3">
-      <c r="C415" s="3"/>
+      <c r="C415" s="19"/>
     </row>
     <row r="416" spans="3:3">
-      <c r="C416" s="3"/>
+      <c r="C416" s="19"/>
     </row>
     <row r="417" spans="3:3">
-      <c r="C417" s="3"/>
+      <c r="C417" s="19"/>
     </row>
     <row r="418" spans="3:3">
-      <c r="C418" s="3"/>
+      <c r="C418" s="19"/>
     </row>
     <row r="419" spans="3:3">
-      <c r="C419" s="3"/>
+      <c r="C419" s="19"/>
     </row>
     <row r="420" spans="3:3">
-      <c r="C420" s="3"/>
+      <c r="C420" s="19"/>
     </row>
     <row r="421" spans="3:3">
-      <c r="C421" s="3"/>
+      <c r="C421" s="19"/>
     </row>
     <row r="422" spans="3:3">
-      <c r="C422" s="3"/>
+      <c r="C422" s="19"/>
     </row>
     <row r="423" spans="3:3">
-      <c r="C423" s="3"/>
+      <c r="C423" s="19"/>
     </row>
     <row r="424" spans="3:3">
-      <c r="C424" s="3"/>
+      <c r="C424" s="19"/>
     </row>
     <row r="425" spans="3:3">
-      <c r="C425" s="3"/>
+      <c r="C425" s="19"/>
     </row>
     <row r="426" spans="3:3">
-      <c r="C426" s="3"/>
+      <c r="C426" s="19"/>
     </row>
     <row r="427" spans="3:3">
-      <c r="C427" s="3"/>
+      <c r="C427" s="19"/>
     </row>
     <row r="428" spans="3:3">
-      <c r="C428" s="3"/>
+      <c r="C428" s="19"/>
     </row>
     <row r="429" spans="3:3">
-      <c r="C429" s="3"/>
+      <c r="C429" s="19"/>
     </row>
     <row r="430" spans="3:3">
-      <c r="C430" s="3"/>
+      <c r="C430" s="19"/>
     </row>
     <row r="431" spans="3:3">
-      <c r="C431" s="3"/>
+      <c r="C431" s="19"/>
     </row>
     <row r="432" spans="3:3">
-      <c r="C432" s="3"/>
+      <c r="C432" s="19"/>
     </row>
     <row r="433" spans="3:3">
-      <c r="C433" s="3"/>
+      <c r="C433" s="19"/>
     </row>
     <row r="434" spans="3:3">
-      <c r="C434" s="3"/>
+      <c r="C434" s="19"/>
     </row>
     <row r="435" spans="3:3">
-      <c r="C435" s="3"/>
+      <c r="C435" s="19"/>
     </row>
     <row r="436" spans="3:3">
-      <c r="C436" s="3"/>
+      <c r="C436" s="19"/>
     </row>
     <row r="437" spans="3:3">
-      <c r="C437" s="3"/>
+      <c r="C437" s="19"/>
     </row>
     <row r="438" spans="3:3">
-      <c r="C438" s="3"/>
+      <c r="C438" s="19"/>
     </row>
     <row r="439" spans="3:3">
-      <c r="C439" s="3"/>
+      <c r="C439" s="19"/>
     </row>
     <row r="440" spans="3:3">
-      <c r="C440" s="3"/>
+      <c r="C440" s="19"/>
     </row>
     <row r="441" spans="3:3">
-      <c r="C441" s="3"/>
+      <c r="C441" s="19"/>
     </row>
     <row r="442" spans="3:3">
-      <c r="C442" s="3"/>
+      <c r="C442" s="19"/>
     </row>
     <row r="443" spans="3:3">
-      <c r="C443" s="3"/>
+      <c r="C443" s="19"/>
     </row>
     <row r="444" spans="3:3">
-      <c r="C444" s="3"/>
+      <c r="C444" s="19"/>
     </row>
     <row r="445" spans="3:3">
-      <c r="C445" s="3"/>
+      <c r="C445" s="19"/>
     </row>
     <row r="446" spans="3:3">
-      <c r="C446" s="3"/>
+      <c r="C446" s="19"/>
     </row>
     <row r="447" spans="3:3">
-      <c r="C447" s="3"/>
+      <c r="C447" s="19"/>
     </row>
     <row r="448" spans="3:3">
-      <c r="C448" s="3"/>
+      <c r="C448" s="19"/>
     </row>
     <row r="449" spans="3:3">
-      <c r="C449" s="3"/>
+      <c r="C449" s="19"/>
     </row>
     <row r="450" spans="3:3">
-      <c r="C450" s="3"/>
+      <c r="C450" s="19"/>
     </row>
     <row r="451" spans="3:3">
-      <c r="C451" s="3"/>
+      <c r="C451" s="19"/>
     </row>
     <row r="452" spans="3:3">
-      <c r="C452" s="3"/>
+      <c r="C452" s="19"/>
     </row>
     <row r="453" spans="3:3">
-      <c r="C453" s="3"/>
+      <c r="C453" s="19"/>
     </row>
     <row r="454" spans="3:3">
-      <c r="C454" s="3"/>
+      <c r="C454" s="19"/>
     </row>
     <row r="455" spans="3:3">
-      <c r="C455" s="3"/>
+      <c r="C455" s="19"/>
     </row>
     <row r="456" spans="3:3">
-      <c r="C456" s="3"/>
+      <c r="C456" s="19"/>
     </row>
     <row r="457" spans="3:3">
-      <c r="C457" s="3"/>
+      <c r="C457" s="19"/>
     </row>
     <row r="458" spans="3:3">
-      <c r="C458" s="3"/>
+      <c r="C458" s="19"/>
     </row>
     <row r="459" spans="3:3">
-      <c r="C459" s="3"/>
+      <c r="C459" s="19"/>
     </row>
     <row r="460" spans="3:3">
-      <c r="C460" s="3"/>
+      <c r="C460" s="19"/>
     </row>
     <row r="461" spans="3:3">
-      <c r="C461" s="3"/>
+      <c r="C461" s="19"/>
     </row>
     <row r="462" spans="3:3">
-      <c r="C462" s="3"/>
+      <c r="C462" s="19"/>
     </row>
     <row r="463" spans="3:3">
-      <c r="C463" s="3"/>
+      <c r="C463" s="19"/>
     </row>
     <row r="464" spans="3:3">
-      <c r="C464" s="3"/>
+      <c r="C464" s="19"/>
     </row>
     <row r="465" spans="3:3">
-      <c r="C465" s="3"/>
+      <c r="C465" s="19"/>
     </row>
     <row r="466" spans="3:3">
-      <c r="C466" s="3"/>
+      <c r="C466" s="19"/>
     </row>
     <row r="467" spans="3:3">
-      <c r="C467" s="3"/>
+      <c r="C467" s="19"/>
     </row>
     <row r="468" spans="3:3">
-      <c r="C468" s="3"/>
+      <c r="C468" s="19"/>
     </row>
     <row r="469" spans="3:3">
-      <c r="C469" s="3"/>
+      <c r="C469" s="19"/>
     </row>
     <row r="470" spans="3:3">
-      <c r="C470" s="3"/>
+      <c r="C470" s="19"/>
     </row>
     <row r="471" spans="3:3">
-      <c r="C471" s="3"/>
+      <c r="C471" s="19"/>
     </row>
     <row r="472" spans="3:3">
-      <c r="C472" s="3"/>
+      <c r="C472" s="19"/>
     </row>
     <row r="473" spans="3:3">
-      <c r="C473" s="3"/>
+      <c r="C473" s="19"/>
     </row>
     <row r="474" spans="3:3">
-      <c r="C474" s="3"/>
+      <c r="C474" s="19"/>
     </row>
     <row r="475" spans="3:3">
-      <c r="C475" s="3"/>
+      <c r="C475" s="19"/>
     </row>
     <row r="476" spans="3:3">
-      <c r="C476" s="3"/>
+      <c r="C476" s="19"/>
     </row>
     <row r="477" spans="3:3">
-      <c r="C477" s="3"/>
+      <c r="C477" s="19"/>
     </row>
     <row r="478" spans="3:3">
-      <c r="C478" s="3"/>
+      <c r="C478" s="19"/>
     </row>
     <row r="479" spans="3:3">
-      <c r="C479" s="3"/>
+      <c r="C479" s="19"/>
     </row>
     <row r="480" spans="3:3">
-      <c r="C480" s="3"/>
+      <c r="C480" s="19"/>
     </row>
     <row r="481" spans="3:3">
-      <c r="C481" s="3"/>
+      <c r="C481" s="19"/>
     </row>
     <row r="482" spans="3:3">
-      <c r="C482" s="3"/>
+      <c r="C482" s="19"/>
     </row>
     <row r="483" spans="3:3">
-      <c r="C483" s="3"/>
+      <c r="C483" s="19"/>
     </row>
     <row r="484" spans="3:3">
-      <c r="C484" s="3"/>
+      <c r="C484" s="19"/>
     </row>
     <row r="485" spans="3:3">
-      <c r="C485" s="3"/>
+      <c r="C485" s="19"/>
     </row>
     <row r="486" spans="3:3">
-      <c r="C486" s="3"/>
+      <c r="C486" s="19"/>
     </row>
     <row r="487" spans="3:3">
-      <c r="C487" s="3"/>
+      <c r="C487" s="19"/>
     </row>
     <row r="488" spans="3:3">
-      <c r="C488" s="3"/>
+      <c r="C488" s="19"/>
     </row>
     <row r="489" spans="3:3">
-      <c r="C489" s="3"/>
+      <c r="C489" s="19"/>
     </row>
     <row r="490" spans="3:3">
-      <c r="C490" s="3"/>
+      <c r="C490" s="19"/>
     </row>
     <row r="491" spans="3:3">
-      <c r="C491" s="3"/>
+      <c r="C491" s="19"/>
     </row>
     <row r="492" spans="3:3">
-      <c r="C492" s="3"/>
+      <c r="C492" s="19"/>
     </row>
     <row r="493" spans="3:3">
-      <c r="C493" s="3"/>
+      <c r="C493" s="19"/>
     </row>
     <row r="494" spans="3:3">
-      <c r="C494" s="3"/>
+      <c r="C494" s="19"/>
     </row>
     <row r="495" spans="3:3">
-      <c r="C495" s="3"/>
+      <c r="C495" s="19"/>
     </row>
     <row r="496" spans="3:3">
-      <c r="C496" s="3"/>
+      <c r="C496" s="19"/>
     </row>
     <row r="497" spans="3:3">
-      <c r="C497" s="3"/>
+      <c r="C497" s="19"/>
     </row>
     <row r="498" spans="3:3">
-      <c r="C498" s="3"/>
+      <c r="C498" s="19"/>
     </row>
     <row r="499" spans="3:3">
-      <c r="C499" s="3"/>
+      <c r="C499" s="19"/>
     </row>
     <row r="500" spans="3:3">
-      <c r="C500" s="3"/>
+      <c r="C500" s="19"/>
     </row>
     <row r="501" spans="3:3">
-      <c r="C501" s="3"/>
+      <c r="C501" s="19"/>
     </row>
     <row r="502" spans="3:3">
-      <c r="C502" s="3"/>
+      <c r="C502" s="19"/>
     </row>
     <row r="503" spans="3:3">
-      <c r="C503" s="3"/>
+      <c r="C503" s="19"/>
     </row>
     <row r="504" spans="3:3">
-      <c r="C504" s="3"/>
+      <c r="C504" s="19"/>
     </row>
     <row r="505" spans="3:3">
-      <c r="C505" s="3"/>
+      <c r="C505" s="19"/>
     </row>
     <row r="506" spans="3:3">
-      <c r="C506" s="3"/>
+      <c r="C506" s="19"/>
     </row>
     <row r="507" spans="3:3">
-      <c r="C507" s="3"/>
+      <c r="C507" s="19"/>
     </row>
     <row r="508" spans="3:3">
-      <c r="C508" s="3"/>
+      <c r="C508" s="19"/>
     </row>
     <row r="509" spans="3:3">
-      <c r="C509" s="3"/>
+      <c r="C509" s="19"/>
     </row>
     <row r="510" spans="3:3">
-      <c r="C510" s="3"/>
+      <c r="C510" s="19"/>
     </row>
     <row r="511" spans="3:3">
-      <c r="C511" s="3"/>
+      <c r="C511" s="19"/>
     </row>
     <row r="512" spans="3:3">
-      <c r="C512" s="3"/>
+      <c r="C512" s="19"/>
     </row>
     <row r="513" spans="3:3">
-      <c r="C513" s="3"/>
+      <c r="C513" s="19"/>
     </row>
     <row r="514" spans="3:3">
-      <c r="C514" s="3"/>
+      <c r="C514" s="19"/>
     </row>
     <row r="515" spans="3:3">
-      <c r="C515" s="3"/>
+      <c r="C515" s="19"/>
     </row>
     <row r="516" spans="3:3">
-      <c r="C516" s="3"/>
+      <c r="C516" s="19"/>
     </row>
     <row r="517" spans="3:3">
-      <c r="C517" s="3"/>
+      <c r="C517" s="19"/>
     </row>
     <row r="518" spans="3:3">
-      <c r="C518" s="3"/>
+      <c r="C518" s="19"/>
     </row>
     <row r="519" spans="3:3">
-      <c r="C519" s="3"/>
+      <c r="C519" s="19"/>
     </row>
     <row r="520" spans="3:3">
-      <c r="C520" s="3"/>
+      <c r="C520" s="19"/>
     </row>
     <row r="521" spans="3:3">
-      <c r="C521" s="3"/>
+      <c r="C521" s="19"/>
     </row>
     <row r="522" spans="3:3">
-      <c r="C522" s="3"/>
+      <c r="C522" s="19"/>
     </row>
     <row r="523" spans="3:3">
-      <c r="C523" s="3"/>
+      <c r="C523" s="19"/>
     </row>
     <row r="524" spans="3:3">
-      <c r="C524" s="3"/>
+      <c r="C524" s="19"/>
     </row>
     <row r="525" spans="3:3">
-      <c r="C525" s="3"/>
+      <c r="C525" s="19"/>
     </row>
     <row r="526" spans="3:3">
-      <c r="C526" s="3"/>
+      <c r="C526" s="19"/>
     </row>
     <row r="527" spans="3:3">
-      <c r="C527" s="3"/>
+      <c r="C527" s="19"/>
     </row>
     <row r="528" spans="3:3">
-      <c r="C528" s="3"/>
+      <c r="C528" s="19"/>
     </row>
     <row r="529" spans="3:3">
-      <c r="C529" s="3"/>
+      <c r="C529" s="19"/>
     </row>
     <row r="530" spans="3:3">
-      <c r="C530" s="3"/>
+      <c r="C530" s="19"/>
     </row>
     <row r="531" spans="3:3">
-      <c r="C531" s="3"/>
+      <c r="C531" s="19"/>
     </row>
     <row r="532" spans="3:3">
-      <c r="C532" s="3"/>
+      <c r="C532" s="19"/>
     </row>
     <row r="533" spans="3:3">
-      <c r="C533" s="3"/>
+      <c r="C533" s="19"/>
     </row>
     <row r="534" spans="3:3">
-      <c r="C534" s="3"/>
+      <c r="C534" s="19"/>
     </row>
     <row r="535" spans="3:3">
-      <c r="C535" s="3"/>
+      <c r="C535" s="19"/>
     </row>
     <row r="536" spans="3:3">
-      <c r="C536" s="3"/>
+      <c r="C536" s="19"/>
     </row>
     <row r="537" spans="3:3">
-      <c r="C537" s="3"/>
+      <c r="C537" s="19"/>
     </row>
     <row r="538" spans="3:3">
-      <c r="C538" s="3"/>
+      <c r="C538" s="19"/>
     </row>
     <row r="539" spans="3:3">
-      <c r="C539" s="3"/>
+      <c r="C539" s="19"/>
     </row>
     <row r="540" spans="3:3">
-      <c r="C540" s="3"/>
+      <c r="C540" s="19"/>
     </row>
     <row r="541" spans="3:3">
-      <c r="C541" s="3"/>
+      <c r="C541" s="19"/>
     </row>
     <row r="542" spans="3:3">
-      <c r="C542" s="3"/>
+      <c r="C542" s="19"/>
     </row>
     <row r="543" spans="3:3">
-      <c r="C543" s="3"/>
+      <c r="C543" s="19"/>
     </row>
     <row r="544" spans="3:3">
-      <c r="C544" s="3"/>
+      <c r="C544" s="19"/>
     </row>
     <row r="545" spans="3:3">
-      <c r="C545" s="3"/>
+      <c r="C545" s="19"/>
     </row>
     <row r="546" spans="3:3">
-      <c r="C546" s="3"/>
+      <c r="C546" s="19"/>
     </row>
     <row r="547" spans="3:3">
-      <c r="C547" s="3"/>
+      <c r="C547" s="19"/>
     </row>
     <row r="548" spans="3:3">
-      <c r="C548" s="3"/>
+      <c r="C548" s="19"/>
     </row>
     <row r="549" spans="3:3">
-      <c r="C549" s="3"/>
+      <c r="C549" s="19"/>
     </row>
     <row r="550" spans="3:3">
-      <c r="C550" s="3"/>
+      <c r="C550" s="19"/>
     </row>
     <row r="551" spans="3:3">
-      <c r="C551" s="3"/>
+      <c r="C551" s="19"/>
     </row>
     <row r="552" spans="3:3">
-      <c r="C552" s="3"/>
+      <c r="C552" s="19"/>
     </row>
     <row r="553" spans="3:3">
-      <c r="C553" s="3"/>
+      <c r="C553" s="19"/>
     </row>
     <row r="554" spans="3:3">
-      <c r="C554" s="3"/>
+      <c r="C554" s="19"/>
     </row>
     <row r="555" spans="3:3">
-      <c r="C555" s="3"/>
+      <c r="C555" s="19"/>
     </row>
     <row r="556" spans="3:3">
-      <c r="C556" s="3"/>
+      <c r="C556" s="19"/>
     </row>
     <row r="557" spans="3:3">
-      <c r="C557" s="3"/>
+      <c r="C557" s="19"/>
     </row>
     <row r="558" spans="3:3">
-      <c r="C558" s="3"/>
+      <c r="C558" s="19"/>
     </row>
     <row r="559" spans="3:3">
-      <c r="C559" s="3"/>
+      <c r="C559" s="19"/>
     </row>
     <row r="560" spans="3:3">
-      <c r="C560" s="3"/>
+      <c r="C560" s="19"/>
     </row>
     <row r="561" spans="3:3">
-      <c r="C561" s="3"/>
+      <c r="C561" s="19"/>
     </row>
     <row r="562" spans="3:3">
-      <c r="C562" s="3"/>
+      <c r="C562" s="19"/>
     </row>
     <row r="563" spans="3:3">
-      <c r="C563" s="3"/>
+      <c r="C563" s="20"/>
     </row>
     <row r="564" spans="3:3">
-      <c r="C564" s="3"/>
+      <c r="C564" s="20"/>
     </row>
     <row r="565" spans="3:3">
-      <c r="C565" s="3"/>
+      <c r="C565" s="21"/>
     </row>
     <row r="566" spans="3:3">
-      <c r="C566" s="3"/>
+      <c r="C566" s="21"/>
     </row>
     <row r="567" spans="3:3">
-      <c r="C567" s="3"/>
+      <c r="C567" s="21"/>
     </row>
     <row r="568" spans="3:3">
-      <c r="C568" s="3"/>
+      <c r="C568" s="21"/>
     </row>
     <row r="569" spans="3:3">
-      <c r="C569" s="3"/>
+      <c r="C569" s="21"/>
     </row>
     <row r="570" spans="3:3">
-      <c r="C570" s="3"/>
+      <c r="C570" s="21"/>
     </row>
     <row r="571" spans="3:3">
-      <c r="C571" s="3"/>
+      <c r="C571" s="21"/>
     </row>
     <row r="572" spans="3:3">
-      <c r="C572" s="3"/>
+      <c r="C572" s="21"/>
     </row>
     <row r="573" spans="3:3">
-      <c r="C573" s="3"/>
+      <c r="C573" s="21"/>
     </row>
     <row r="574" spans="3:3">
-      <c r="C574" s="3"/>
+      <c r="C574" s="21"/>
     </row>
     <row r="575" spans="3:3">
-      <c r="C575" s="3"/>
+      <c r="C575" s="21"/>
     </row>
     <row r="576" spans="3:3">
-      <c r="C576" s="3"/>
+      <c r="C576" s="21"/>
     </row>
     <row r="577" spans="3:3">
-      <c r="C577" s="3"/>
+      <c r="C577" s="21"/>
     </row>
     <row r="578" spans="3:3">
-      <c r="C578" s="3"/>
+      <c r="C578" s="21"/>
     </row>
     <row r="579" spans="3:3">
-      <c r="C579" s="4"/>
+      <c r="C579" s="21"/>
     </row>
     <row r="580" spans="3:3">
-      <c r="C580" s="4"/>
+      <c r="C580" s="21"/>
     </row>
     <row r="581" spans="3:3">
-      <c r="C581" s="5"/>
+      <c r="C581" s="21"/>
     </row>
     <row r="582" spans="3:3">
-      <c r="C582" s="5"/>
+      <c r="C582" s="21"/>
     </row>
     <row r="583" spans="3:3">
-      <c r="C583" s="5"/>
+      <c r="C583" s="21"/>
     </row>
     <row r="584" spans="3:3">
-      <c r="C584" s="5"/>
+      <c r="C584" s="21"/>
     </row>
     <row r="585" spans="3:3">
-      <c r="C585" s="5"/>
+      <c r="C585" s="21"/>
     </row>
     <row r="586" spans="3:3">
-      <c r="C586" s="5"/>
+      <c r="C586" s="21"/>
     </row>
     <row r="587" spans="3:3">
-      <c r="C587" s="5"/>
+      <c r="C587" s="21"/>
     </row>
     <row r="588" spans="3:3">
-      <c r="C588" s="5"/>
+      <c r="C588" s="21"/>
     </row>
     <row r="589" spans="3:3">
-      <c r="C589" s="5"/>
+      <c r="C589" s="21"/>
     </row>
     <row r="590" spans="3:3">
-      <c r="C590" s="5"/>
+      <c r="C590" s="21"/>
     </row>
     <row r="591" spans="3:3">
-      <c r="C591" s="5"/>
+      <c r="C591" s="21"/>
     </row>
     <row r="592" spans="3:3">
-      <c r="C592" s="5"/>
+      <c r="C592" s="21"/>
     </row>
     <row r="593" spans="3:3">
-      <c r="C593" s="5"/>
+      <c r="C593" s="21"/>
     </row>
     <row r="594" spans="3:3">
-      <c r="C594" s="5"/>
+      <c r="C594" s="21"/>
     </row>
     <row r="595" spans="3:3">
-      <c r="C595" s="5"/>
+      <c r="C595" s="21"/>
     </row>
     <row r="596" spans="3:3">
-      <c r="C596" s="5"/>
+      <c r="C596" s="21"/>
     </row>
     <row r="597" spans="3:3">
-      <c r="C597" s="5"/>
+      <c r="C597" s="21"/>
     </row>
     <row r="598" spans="3:3">
-      <c r="C598" s="5"/>
+      <c r="C598" s="21"/>
     </row>
     <row r="599" spans="3:3">
-      <c r="C599" s="5"/>
+      <c r="C599" s="21"/>
     </row>
     <row r="600" spans="3:3">
-      <c r="C600" s="5"/>
+      <c r="C600" s="21"/>
     </row>
     <row r="601" spans="3:3">
-      <c r="C601" s="5"/>
+      <c r="C601" s="21"/>
     </row>
     <row r="602" spans="3:3">
-      <c r="C602" s="5"/>
+      <c r="C602" s="21"/>
     </row>
     <row r="603" spans="3:3">
-      <c r="C603" s="5"/>
+      <c r="C603" s="21"/>
     </row>
     <row r="604" spans="3:3">
-      <c r="C604" s="5"/>
+      <c r="C604" s="21"/>
     </row>
     <row r="605" spans="3:3">
-      <c r="C605" s="5"/>
+      <c r="C605" s="21"/>
     </row>
     <row r="606" spans="3:3">
-      <c r="C606" s="5"/>
+      <c r="C606" s="21"/>
     </row>
     <row r="607" spans="3:3">
-      <c r="C607" s="5"/>
+      <c r="C607" s="21"/>
     </row>
     <row r="608" spans="3:3">
-      <c r="C608" s="5"/>
+      <c r="C608" s="21"/>
     </row>
     <row r="609" spans="3:3">
-      <c r="C609" s="5"/>
+      <c r="C609" s="21"/>
     </row>
     <row r="610" spans="3:3">
-      <c r="C610" s="5"/>
+      <c r="C610" s="21"/>
     </row>
     <row r="611" spans="3:3">
-      <c r="C611" s="5"/>
+      <c r="C611" s="21"/>
     </row>
     <row r="612" spans="3:3">
-      <c r="C612" s="5"/>
+      <c r="C612" s="21"/>
     </row>
     <row r="613" spans="3:3">
-      <c r="C613" s="5"/>
+      <c r="C613" s="21"/>
     </row>
     <row r="614" spans="3:3">
-      <c r="C614" s="5"/>
+      <c r="C614" s="21"/>
     </row>
     <row r="615" spans="3:3">
-      <c r="C615" s="5"/>
+      <c r="C615" s="21"/>
     </row>
     <row r="616" spans="3:3">
-      <c r="C616" s="5"/>
+      <c r="C616" s="21"/>
     </row>
     <row r="617" spans="3:3">
-      <c r="C617" s="5"/>
+      <c r="C617" s="21"/>
     </row>
     <row r="618" spans="3:3">
-      <c r="C618" s="5"/>
+      <c r="C618" s="21"/>
     </row>
     <row r="619" spans="3:3">
-      <c r="C619" s="5"/>
+      <c r="C619" s="21"/>
     </row>
     <row r="620" spans="3:3">
-      <c r="C620" s="5"/>
+      <c r="C620" s="21"/>
     </row>
     <row r="621" spans="3:3">
-      <c r="C621" s="5"/>
+      <c r="C621" s="21"/>
     </row>
     <row r="622" spans="3:3">
-      <c r="C622" s="5"/>
+      <c r="C622" s="21"/>
     </row>
     <row r="623" spans="3:3">
-      <c r="C623" s="5"/>
+      <c r="C623" s="21"/>
     </row>
     <row r="624" spans="3:3">
-      <c r="C624" s="5"/>
+      <c r="C624" s="21"/>
     </row>
     <row r="625" spans="3:3">
-      <c r="C625" s="5"/>
+      <c r="C625" s="21"/>
     </row>
     <row r="626" spans="3:3">
-      <c r="C626" s="5"/>
+      <c r="C626" s="21"/>
     </row>
     <row r="627" spans="3:3">
-      <c r="C627" s="5"/>
+      <c r="C627" s="21"/>
     </row>
     <row r="628" spans="3:3">
-      <c r="C628" s="5"/>
+      <c r="C628" s="21"/>
     </row>
     <row r="629" spans="3:3">
-      <c r="C629" s="5"/>
+      <c r="C629" s="21"/>
     </row>
     <row r="630" spans="3:3">
-      <c r="C630" s="5"/>
+      <c r="C630" s="21"/>
     </row>
     <row r="631" spans="3:3">
-      <c r="C631" s="5"/>
+      <c r="C631" s="21"/>
     </row>
     <row r="632" spans="3:3">
-      <c r="C632" s="5"/>
+      <c r="C632" s="21"/>
     </row>
     <row r="633" spans="3:3">
-      <c r="C633" s="5"/>
+      <c r="C633" s="21"/>
     </row>
     <row r="634" spans="3:3">
-      <c r="C634" s="5"/>
+      <c r="C634" s="21"/>
     </row>
     <row r="635" spans="3:3">
-      <c r="C635" s="5"/>
+      <c r="C635" s="21"/>
     </row>
     <row r="636" spans="3:3">
-      <c r="C636" s="5"/>
+      <c r="C636" s="21"/>
     </row>
     <row r="637" spans="3:3">
-      <c r="C637" s="5"/>
+      <c r="C637" s="21"/>
     </row>
     <row r="638" spans="3:3">
-      <c r="C638" s="5"/>
+      <c r="C638" s="21"/>
     </row>
     <row r="639" spans="3:3">
-      <c r="C639" s="5"/>
+      <c r="C639" s="21"/>
     </row>
     <row r="640" spans="3:3">
-      <c r="C640" s="5"/>
+      <c r="C640" s="21"/>
     </row>
     <row r="641" spans="3:3">
-      <c r="C641" s="5"/>
+      <c r="C641" s="21"/>
     </row>
     <row r="642" spans="3:3">
-      <c r="C642" s="5"/>
+      <c r="C642" s="21"/>
     </row>
     <row r="643" spans="3:3">
-      <c r="C643" s="5"/>
+      <c r="C643" s="21"/>
     </row>
     <row r="644" spans="3:3">
-      <c r="C644" s="5"/>
+      <c r="C644" s="21"/>
     </row>
     <row r="645" spans="3:3">
-      <c r="C645" s="5"/>
+      <c r="C645" s="21"/>
     </row>
     <row r="646" spans="3:3">
-      <c r="C646" s="5"/>
+      <c r="C646" s="21"/>
     </row>
     <row r="647" spans="3:3">
-      <c r="C647" s="5"/>
+      <c r="C647" s="21"/>
     </row>
     <row r="648" spans="3:3">
-      <c r="C648" s="5"/>
+      <c r="C648" s="21"/>
     </row>
     <row r="649" spans="3:3">
-      <c r="C649" s="5"/>
+      <c r="C649" s="21"/>
     </row>
     <row r="650" spans="3:3">
-      <c r="C650" s="5"/>
+      <c r="C650" s="21"/>
     </row>
     <row r="651" spans="3:3">
-      <c r="C651" s="5"/>
+      <c r="C651" s="21"/>
     </row>
     <row r="652" spans="3:3">
-      <c r="C652" s="5"/>
+      <c r="C652" s="21"/>
     </row>
     <row r="653" spans="3:3">
-      <c r="C653" s="5"/>
+      <c r="C653" s="21"/>
     </row>
     <row r="654" spans="3:3">
-      <c r="C654" s="5"/>
+      <c r="C654" s="21"/>
     </row>
     <row r="655" spans="3:3">
-      <c r="C655" s="5"/>
+      <c r="C655" s="21"/>
     </row>
     <row r="656" spans="3:3">
-      <c r="C656" s="5"/>
+      <c r="C656" s="21"/>
     </row>
     <row r="657" spans="3:3">
-      <c r="C657" s="5"/>
+      <c r="C657" s="21"/>
     </row>
     <row r="658" spans="3:3">
-      <c r="C658" s="5"/>
+      <c r="C658" s="21"/>
     </row>
     <row r="659" spans="3:3">
-      <c r="C659" s="5"/>
+      <c r="C659" s="21"/>
     </row>
     <row r="660" spans="3:3">
-      <c r="C660" s="5"/>
+      <c r="C660" s="21"/>
     </row>
     <row r="661" spans="3:3">
-      <c r="C661" s="5"/>
+      <c r="C661" s="21"/>
     </row>
     <row r="662" spans="3:3">
-      <c r="C662" s="5"/>
+      <c r="C662" s="21"/>
     </row>
     <row r="663" spans="3:3">
-      <c r="C663" s="5"/>
+      <c r="C663" s="21"/>
     </row>
     <row r="664" spans="3:3">
-      <c r="C664" s="5"/>
+      <c r="C664" s="21"/>
     </row>
     <row r="665" spans="3:3">
-      <c r="C665" s="5"/>
+      <c r="C665" s="21"/>
     </row>
     <row r="666" spans="3:3">
-      <c r="C666" s="5"/>
+      <c r="C666" s="21"/>
     </row>
     <row r="667" spans="3:3">
-      <c r="C667" s="5"/>
+      <c r="C667" s="21"/>
     </row>
     <row r="668" spans="3:3">
-      <c r="C668" s="5"/>
+      <c r="C668" s="21"/>
     </row>
     <row r="669" spans="3:3">
-      <c r="C669" s="5"/>
+      <c r="C669" s="21"/>
     </row>
     <row r="670" spans="3:3">
-      <c r="C670" s="5"/>
+      <c r="C670" s="21"/>
     </row>
     <row r="671" spans="3:3">
-      <c r="C671" s="5"/>
+      <c r="C671" s="21"/>
     </row>
     <row r="672" spans="3:3">
-      <c r="C672" s="5"/>
+      <c r="C672" s="21"/>
     </row>
     <row r="673" spans="3:3">
-      <c r="C673" s="5"/>
+      <c r="C673" s="21"/>
     </row>
     <row r="674" spans="3:3">
-      <c r="C674" s="5"/>
+      <c r="C674" s="21"/>
     </row>
     <row r="675" spans="3:3">
-      <c r="C675" s="5"/>
+      <c r="C675" s="21"/>
     </row>
     <row r="676" spans="3:3">
-      <c r="C676" s="5"/>
+      <c r="C676" s="21"/>
     </row>
     <row r="677" spans="3:3">
-      <c r="C677" s="5"/>
+      <c r="C677" s="21"/>
     </row>
     <row r="678" spans="3:3">
-      <c r="C678" s="5"/>
+      <c r="C678" s="21"/>
     </row>
     <row r="679" spans="3:3">
-      <c r="C679" s="5"/>
+      <c r="C679" s="21"/>
     </row>
     <row r="680" spans="3:3">
-      <c r="C680" s="5"/>
+      <c r="C680" s="21"/>
     </row>
     <row r="681" spans="3:3">
-      <c r="C681" s="5"/>
+      <c r="C681" s="21"/>
     </row>
     <row r="682" spans="3:3">
-      <c r="C682" s="5"/>
+      <c r="C682" s="21"/>
     </row>
     <row r="683" spans="3:3">
-      <c r="C683" s="5"/>
+      <c r="C683" s="21"/>
     </row>
     <row r="684" spans="3:3">
-      <c r="C684" s="5"/>
+      <c r="C684" s="21"/>
     </row>
     <row r="685" spans="3:3">
-      <c r="C685" s="5"/>
+      <c r="C685" s="21"/>
     </row>
     <row r="686" spans="3:3">
-      <c r="C686" s="5"/>
+      <c r="C686" s="21"/>
     </row>
     <row r="687" spans="3:3">
-      <c r="C687" s="5"/>
+      <c r="C687" s="21"/>
     </row>
     <row r="688" spans="3:3">
-      <c r="C688" s="5"/>
+      <c r="C688" s="21"/>
     </row>
     <row r="689" spans="3:3">
-      <c r="C689" s="5"/>
+      <c r="C689" s="21"/>
     </row>
     <row r="690" spans="3:3">
-      <c r="C690" s="5"/>
+      <c r="C690" s="21"/>
     </row>
     <row r="691" spans="3:3">
-      <c r="C691" s="5"/>
+      <c r="C691" s="21"/>
     </row>
     <row r="692" spans="3:3">
-      <c r="C692" s="5"/>
+      <c r="C692" s="21"/>
     </row>
     <row r="693" spans="3:3">
-      <c r="C693" s="5"/>
+      <c r="C693" s="21"/>
     </row>
     <row r="694" spans="3:3">
-      <c r="C694" s="5"/>
+      <c r="C694" s="21"/>
     </row>
     <row r="695" spans="3:3">
-      <c r="C695" s="5"/>
+      <c r="C695" s="21"/>
     </row>
     <row r="696" spans="3:3">
-      <c r="C696" s="5"/>
+      <c r="C696" s="21"/>
     </row>
     <row r="697" spans="3:3">
-      <c r="C697" s="5"/>
+      <c r="C697" s="21"/>
     </row>
     <row r="698" spans="3:3">
-      <c r="C698" s="5"/>
+      <c r="C698" s="21"/>
     </row>
     <row r="699" spans="3:3">
-      <c r="C699" s="5"/>
+      <c r="C699" s="21"/>
     </row>
     <row r="700" spans="3:3">
-      <c r="C700" s="5"/>
+      <c r="C700" s="21"/>
     </row>
     <row r="701" spans="3:3">
-      <c r="C701" s="5"/>
+      <c r="C701" s="21"/>
     </row>
     <row r="702" spans="3:3">
-      <c r="C702" s="5"/>
+      <c r="C702" s="21"/>
     </row>
     <row r="703" spans="3:3">
-      <c r="C703" s="5"/>
+      <c r="C703" s="21"/>
     </row>
     <row r="704" spans="3:3">
-      <c r="C704" s="5"/>
+      <c r="C704" s="21"/>
     </row>
     <row r="705" spans="3:3">
-      <c r="C705" s="5"/>
+      <c r="C705" s="21"/>
     </row>
     <row r="706" spans="3:3">
-      <c r="C706" s="5"/>
+      <c r="C706" s="21"/>
     </row>
     <row r="707" spans="3:3">
-      <c r="C707" s="5"/>
+      <c r="C707" s="21"/>
     </row>
     <row r="708" spans="3:3">
-      <c r="C708" s="5"/>
+      <c r="C708" s="21"/>
     </row>
     <row r="709" spans="3:3">
-      <c r="C709" s="5"/>
+      <c r="C709" s="21"/>
     </row>
     <row r="710" spans="3:3">
-      <c r="C710" s="5"/>
+      <c r="C710" s="21"/>
     </row>
     <row r="711" spans="3:3">
-      <c r="C711" s="5"/>
+      <c r="C711" s="21"/>
     </row>
     <row r="712" spans="3:3">
-      <c r="C712" s="5"/>
+      <c r="C712" s="21"/>
     </row>
     <row r="713" spans="3:3">
-      <c r="C713" s="5"/>
+      <c r="C713" s="21"/>
     </row>
     <row r="714" spans="3:3">
-      <c r="C714" s="5"/>
+      <c r="C714" s="21"/>
     </row>
     <row r="715" spans="3:3">
-      <c r="C715" s="5"/>
+      <c r="C715" s="21"/>
     </row>
     <row r="716" spans="3:3">
-      <c r="C716" s="5"/>
+      <c r="C716" s="21"/>
     </row>
     <row r="717" spans="3:3">
-      <c r="C717" s="5"/>
+      <c r="C717" s="21"/>
     </row>
     <row r="718" spans="3:3">
-      <c r="C718" s="5"/>
+      <c r="C718" s="21"/>
     </row>
     <row r="719" spans="3:3">
-      <c r="C719" s="5"/>
+      <c r="C719" s="21"/>
     </row>
     <row r="720" spans="3:3">
-      <c r="C720" s="5"/>
+      <c r="C720" s="21"/>
     </row>
     <row r="721" spans="3:3">
-      <c r="C721" s="5"/>
+      <c r="C721" s="21"/>
     </row>
     <row r="722" spans="3:3">
-      <c r="C722" s="5"/>
+      <c r="C722" s="21"/>
     </row>
     <row r="723" spans="3:3">
-      <c r="C723" s="5"/>
+      <c r="C723" s="21"/>
     </row>
     <row r="724" spans="3:3">
-      <c r="C724" s="5"/>
+      <c r="C724" s="21"/>
     </row>
     <row r="725" spans="3:3">
-      <c r="C725" s="5"/>
+      <c r="C725" s="21"/>
     </row>
     <row r="726" spans="3:3">
-      <c r="C726" s="5"/>
+      <c r="C726" s="21"/>
     </row>
     <row r="727" spans="3:3">
-      <c r="C727" s="5"/>
+      <c r="C727" s="21"/>
     </row>
     <row r="728" spans="3:3">
-      <c r="C728" s="5"/>
+      <c r="C728" s="21"/>
     </row>
     <row r="729" spans="3:3">
-      <c r="C729" s="5"/>
+      <c r="C729" s="21"/>
     </row>
     <row r="730" spans="3:3">
-      <c r="C730" s="5"/>
+      <c r="C730" s="21"/>
     </row>
     <row r="731" spans="3:3">
-      <c r="C731" s="5"/>
+      <c r="C731" s="21"/>
     </row>
     <row r="732" spans="3:3">
-      <c r="C732" s="5"/>
+      <c r="C732" s="21"/>
     </row>
     <row r="733" spans="3:3">
-      <c r="C733" s="5"/>
+      <c r="C733" s="21"/>
     </row>
     <row r="734" spans="3:3">
-      <c r="C734" s="5"/>
+      <c r="C734" s="21"/>
     </row>
     <row r="735" spans="3:3">
-      <c r="C735" s="5"/>
+      <c r="C735" s="21"/>
     </row>
     <row r="736" spans="3:3">
-      <c r="C736" s="5"/>
+      <c r="C736" s="21"/>
     </row>
     <row r="737" spans="3:3">
-      <c r="C737" s="5"/>
+      <c r="C737" s="21"/>
     </row>
     <row r="738" spans="3:3">
-      <c r="C738" s="5"/>
+      <c r="C738" s="21"/>
     </row>
     <row r="739" spans="3:3">
-      <c r="C739" s="5"/>
+      <c r="C739" s="21"/>
     </row>
     <row r="740" spans="3:3">
-      <c r="C740" s="5"/>
+      <c r="C740" s="21"/>
     </row>
     <row r="741" spans="3:3">
-      <c r="C741" s="5"/>
+      <c r="C741" s="21"/>
     </row>
     <row r="742" spans="3:3">
-      <c r="C742" s="5"/>
+      <c r="C742" s="21"/>
     </row>
     <row r="743" spans="3:3">
-      <c r="C743" s="5"/>
+      <c r="C743" s="21"/>
     </row>
     <row r="744" spans="3:3">
-      <c r="C744" s="5"/>
+      <c r="C744" s="21"/>
     </row>
     <row r="745" spans="3:3">
-      <c r="C745" s="5"/>
+      <c r="C745" s="21"/>
     </row>
     <row r="746" spans="3:3">
-      <c r="C746" s="5"/>
+      <c r="C746" s="21"/>
     </row>
     <row r="747" spans="3:3">
-      <c r="C747" s="5"/>
+      <c r="C747" s="21"/>
     </row>
     <row r="748" spans="3:3">
-      <c r="C748" s="5"/>
+      <c r="C748" s="21"/>
     </row>
     <row r="749" spans="3:3">
-      <c r="C749" s="5"/>
+      <c r="C749" s="21"/>
     </row>
     <row r="750" spans="3:3">
-      <c r="C750" s="5"/>
+      <c r="C750" s="21"/>
     </row>
     <row r="751" spans="3:3">
-      <c r="C751" s="5"/>
+      <c r="C751" s="21"/>
     </row>
     <row r="752" spans="3:3">
-      <c r="C752" s="5"/>
+      <c r="C752" s="21"/>
     </row>
     <row r="753" spans="3:3">
-      <c r="C753" s="5"/>
+      <c r="C753" s="21"/>
     </row>
     <row r="754" spans="3:3">
-      <c r="C754" s="5"/>
+      <c r="C754" s="21"/>
     </row>
     <row r="755" spans="3:3">
-      <c r="C755" s="5"/>
+      <c r="C755" s="21"/>
     </row>
     <row r="756" spans="3:3">
-      <c r="C756" s="5"/>
+      <c r="C756" s="21"/>
     </row>
     <row r="757" spans="3:3">
-      <c r="C757" s="5"/>
+      <c r="C757" s="21"/>
     </row>
     <row r="758" spans="3:3">
-      <c r="C758" s="5"/>
+      <c r="C758" s="21"/>
     </row>
     <row r="759" spans="3:3">
-      <c r="C759" s="5"/>
+      <c r="C759" s="21"/>
     </row>
     <row r="760" spans="3:3">
-      <c r="C760" s="5"/>
+      <c r="C760" s="21"/>
     </row>
     <row r="761" spans="3:3">
-      <c r="C761" s="5"/>
+      <c r="C761" s="21"/>
     </row>
     <row r="762" spans="3:3">
-      <c r="C762" s="5"/>
+      <c r="C762" s="21"/>
     </row>
     <row r="763" spans="3:3">
-      <c r="C763" s="5"/>
+      <c r="C763" s="21"/>
     </row>
     <row r="764" spans="3:3">
-      <c r="C764" s="5"/>
+      <c r="C764" s="21"/>
     </row>
     <row r="765" spans="3:3">
-      <c r="C765" s="5"/>
+      <c r="C765" s="21"/>
     </row>
     <row r="766" spans="3:3">
-      <c r="C766" s="5"/>
+      <c r="C766" s="21"/>
     </row>
     <row r="767" spans="3:3">
-      <c r="C767" s="5"/>
+      <c r="C767" s="21"/>
     </row>
     <row r="768" spans="3:3">
-      <c r="C768" s="5"/>
+      <c r="C768" s="21"/>
     </row>
     <row r="769" spans="3:3">
-      <c r="C769" s="5"/>
+      <c r="C769" s="21"/>
     </row>
     <row r="770" spans="3:3">
-      <c r="C770" s="5"/>
+      <c r="C770" s="21"/>
     </row>
     <row r="771" spans="3:3">
-      <c r="C771" s="5"/>
+      <c r="C771" s="21"/>
     </row>
     <row r="772" spans="3:3">
-      <c r="C772" s="5"/>
+      <c r="C772" s="21"/>
     </row>
     <row r="773" spans="3:3">
-      <c r="C773" s="5"/>
+      <c r="C773" s="21"/>
     </row>
     <row r="774" spans="3:3">
-      <c r="C774" s="5"/>
+      <c r="C774" s="21"/>
     </row>
     <row r="775" spans="3:3">
-      <c r="C775" s="5"/>
+      <c r="C775" s="21"/>
     </row>
     <row r="776" spans="3:3">
-      <c r="C776" s="5"/>
+      <c r="C776" s="21"/>
     </row>
     <row r="777" spans="3:3">
-      <c r="C777" s="5"/>
+      <c r="C777" s="21"/>
     </row>
     <row r="778" spans="3:3">
-      <c r="C778" s="5"/>
+      <c r="C778" s="21"/>
     </row>
     <row r="779" spans="3:3">
-      <c r="C779" s="5"/>
+      <c r="C779" s="21"/>
     </row>
     <row r="780" spans="3:3">
-      <c r="C780" s="5"/>
+      <c r="C780" s="21"/>
     </row>
     <row r="781" spans="3:3">
-      <c r="C781" s="5"/>
+      <c r="C781" s="21"/>
     </row>
     <row r="782" spans="3:3">
-      <c r="C782" s="5"/>
+      <c r="C782" s="21"/>
     </row>
     <row r="783" spans="3:3">
-      <c r="C783" s="5"/>
+      <c r="C783" s="21"/>
     </row>
     <row r="784" spans="3:3">
-      <c r="C784" s="5"/>
+      <c r="C784" s="21"/>
     </row>
     <row r="785" spans="3:3">
-      <c r="C785" s="5"/>
+      <c r="C785" s="21"/>
     </row>
     <row r="786" spans="3:3">
-      <c r="C786" s="5"/>
+      <c r="C786" s="21"/>
     </row>
     <row r="787" spans="3:3">
-      <c r="C787" s="5"/>
+      <c r="C787" s="21"/>
     </row>
     <row r="788" spans="3:3">
-      <c r="C788" s="5"/>
+      <c r="C788" s="21"/>
     </row>
     <row r="789" spans="3:3">
-      <c r="C789" s="5"/>
+      <c r="C789" s="21"/>
     </row>
     <row r="790" spans="3:3">
-      <c r="C790" s="5"/>
+      <c r="C790" s="21"/>
     </row>
     <row r="791" spans="3:3">
-      <c r="C791" s="5"/>
+      <c r="C791" s="21"/>
     </row>
     <row r="792" spans="3:3">
-      <c r="C792" s="5"/>
+      <c r="C792" s="21"/>
     </row>
     <row r="793" spans="3:3">
-      <c r="C793" s="5"/>
+      <c r="C793" s="21"/>
     </row>
     <row r="794" spans="3:3">
-      <c r="C794" s="5"/>
+      <c r="C794" s="21"/>
     </row>
     <row r="795" spans="3:3">
-      <c r="C795" s="5"/>
+      <c r="C795" s="21"/>
     </row>
     <row r="796" spans="3:3">
-      <c r="C796" s="5"/>
+      <c r="C796" s="21"/>
     </row>
     <row r="797" spans="3:3">
-      <c r="C797" s="5"/>
+      <c r="C797" s="21"/>
     </row>
     <row r="798" spans="3:3">
-      <c r="C798" s="5"/>
+      <c r="C798" s="21"/>
     </row>
     <row r="799" spans="3:3">
-      <c r="C799" s="5"/>
+      <c r="C799" s="21"/>
     </row>
     <row r="800" spans="3:3">
-      <c r="C800" s="5"/>
+      <c r="C800" s="21"/>
     </row>
     <row r="801" spans="3:3">
-      <c r="C801" s="5"/>
+      <c r="C801" s="21"/>
     </row>
     <row r="802" spans="3:3">
-      <c r="C802" s="5"/>
+      <c r="C802" s="21"/>
     </row>
     <row r="803" spans="3:3">
-      <c r="C803" s="5"/>
+      <c r="C803" s="21"/>
     </row>
     <row r="804" spans="3:3">
-      <c r="C804" s="5"/>
+      <c r="C804" s="21"/>
     </row>
     <row r="805" spans="3:3">
-      <c r="C805" s="5"/>
+      <c r="C805" s="21"/>
     </row>
     <row r="806" spans="3:3">
-      <c r="C806" s="5"/>
+      <c r="C806" s="21"/>
     </row>
     <row r="807" spans="3:3">
-      <c r="C807" s="5"/>
+      <c r="C807" s="21"/>
     </row>
     <row r="808" spans="3:3">
-      <c r="C808" s="5"/>
+      <c r="C808" s="21"/>
     </row>
     <row r="809" spans="3:3">
-      <c r="C809" s="5"/>
+      <c r="C809" s="21"/>
     </row>
     <row r="810" spans="3:3">
-      <c r="C810" s="5"/>
+      <c r="C810" s="21"/>
     </row>
     <row r="811" spans="3:3">
-      <c r="C811" s="5"/>
+      <c r="C811" s="21"/>
     </row>
     <row r="812" spans="3:3">
-      <c r="C812" s="5"/>
+      <c r="C812" s="21"/>
     </row>
     <row r="813" spans="3:3">
-      <c r="C813" s="5"/>
+      <c r="C813" s="21"/>
     </row>
     <row r="814" spans="3:3">
-      <c r="C814" s="5"/>
+      <c r="C814" s="21"/>
     </row>
     <row r="815" spans="3:3">
-      <c r="C815" s="5"/>
+      <c r="C815" s="21"/>
     </row>
     <row r="816" spans="3:3">
-      <c r="C816" s="5"/>
+      <c r="C816" s="21"/>
     </row>
     <row r="817" spans="3:3">
-      <c r="C817" s="5"/>
+      <c r="C817" s="21"/>
     </row>
     <row r="818" spans="3:3">
-      <c r="C818" s="5"/>
+      <c r="C818" s="21"/>
     </row>
     <row r="819" spans="3:3">
-      <c r="C819" s="5"/>
+      <c r="C819" s="21"/>
     </row>
     <row r="820" spans="3:3">
-      <c r="C820" s="5"/>
+      <c r="C820" s="21"/>
     </row>
     <row r="821" spans="3:3">
-      <c r="C821" s="5"/>
+      <c r="C821" s="21"/>
     </row>
     <row r="822" spans="3:3">
-      <c r="C822" s="5"/>
+      <c r="C822" s="21"/>
     </row>
     <row r="823" spans="3:3">
-      <c r="C823" s="5"/>
+      <c r="C823" s="21"/>
     </row>
     <row r="824" spans="3:3">
-      <c r="C824" s="5"/>
+      <c r="C824" s="21"/>
     </row>
     <row r="825" spans="3:3">
-      <c r="C825" s="5"/>
+      <c r="C825" s="21"/>
     </row>
     <row r="826" spans="3:3">
-      <c r="C826" s="5"/>
+      <c r="C826" s="21"/>
     </row>
     <row r="827" spans="3:3">
-      <c r="C827" s="5"/>
+      <c r="C827" s="21"/>
     </row>
     <row r="828" spans="3:3">
-      <c r="C828" s="5"/>
+      <c r="C828" s="21"/>
     </row>
     <row r="829" spans="3:3">
-      <c r="C829" s="5"/>
+      <c r="C829" s="21"/>
     </row>
     <row r="830" spans="3:3">
-      <c r="C830" s="5"/>
+      <c r="C830" s="21"/>
     </row>
     <row r="831" spans="3:3">
-      <c r="C831" s="5"/>
+      <c r="C831" s="21"/>
     </row>
     <row r="832" spans="3:3">
-      <c r="C832" s="5"/>
+      <c r="C832" s="21"/>
     </row>
     <row r="833" spans="3:3">
-      <c r="C833" s="5"/>
+      <c r="C833" s="21"/>
     </row>
     <row r="834" spans="3:3">
-      <c r="C834" s="5"/>
+      <c r="C834" s="21"/>
     </row>
     <row r="835" spans="3:3">
-      <c r="C835" s="5"/>
+      <c r="C835" s="21"/>
     </row>
     <row r="836" spans="3:3">
-      <c r="C836" s="5"/>
+      <c r="C836" s="21"/>
     </row>
     <row r="837" spans="3:3">
-      <c r="C837" s="5"/>
+      <c r="C837" s="21"/>
     </row>
     <row r="838" spans="3:3">
-      <c r="C838" s="5"/>
+      <c r="C838" s="21"/>
     </row>
     <row r="839" spans="3:3">
-      <c r="C839" s="5"/>
+      <c r="C839" s="21"/>
     </row>
     <row r="840" spans="3:3">
-      <c r="C840" s="5"/>
+      <c r="C840" s="21"/>
     </row>
     <row r="841" spans="3:3">
-      <c r="C841" s="5"/>
+      <c r="C841" s="21"/>
     </row>
     <row r="842" spans="3:3">
-      <c r="C842" s="5"/>
+      <c r="C842" s="21"/>
     </row>
     <row r="843" spans="3:3">
-      <c r="C843" s="5"/>
+      <c r="C843" s="21"/>
     </row>
     <row r="844" spans="3:3">
-      <c r="C844" s="5"/>
+      <c r="C844" s="21"/>
     </row>
     <row r="845" spans="3:3">
-      <c r="C845" s="5"/>
+      <c r="C845" s="21"/>
     </row>
     <row r="846" spans="3:3">
-      <c r="C846" s="5"/>
+      <c r="C846" s="21"/>
     </row>
     <row r="847" spans="3:3">
-      <c r="C847" s="5"/>
+      <c r="C847" s="21"/>
     </row>
     <row r="848" spans="3:3">
-      <c r="C848" s="5"/>
+      <c r="C848" s="21"/>
     </row>
     <row r="849" spans="3:3">
-      <c r="C849" s="5"/>
+      <c r="C849" s="21"/>
     </row>
     <row r="850" spans="3:3">
-      <c r="C850" s="5"/>
+      <c r="C850" s="21"/>
     </row>
     <row r="851" spans="3:3">
-      <c r="C851" s="5"/>
+      <c r="C851" s="21"/>
     </row>
     <row r="852" spans="3:3">
-      <c r="C852" s="5"/>
+      <c r="C852" s="21"/>
     </row>
     <row r="853" spans="3:3">
-      <c r="C853" s="5"/>
+      <c r="C853" s="21"/>
     </row>
     <row r="854" spans="3:3">
-      <c r="C854" s="5"/>
+      <c r="C854" s="21"/>
     </row>
     <row r="855" spans="3:3">
-      <c r="C855" s="5"/>
+      <c r="C855" s="21"/>
     </row>
     <row r="856" spans="3:3">
-      <c r="C856" s="5"/>
+      <c r="C856" s="21"/>
     </row>
     <row r="857" spans="3:3">
-      <c r="C857" s="5"/>
+      <c r="C857" s="21"/>
     </row>
     <row r="858" spans="3:3">
-      <c r="C858" s="5"/>
+      <c r="C858" s="21"/>
     </row>
     <row r="859" spans="3:3">
-      <c r="C859" s="5"/>
+      <c r="C859" s="21"/>
     </row>
     <row r="860" spans="3:3">
-      <c r="C860" s="5"/>
+      <c r="C860" s="21"/>
     </row>
     <row r="861" spans="3:3">
-      <c r="C861" s="5"/>
+      <c r="C861" s="21"/>
     </row>
     <row r="862" spans="3:3">
-      <c r="C862" s="5"/>
+      <c r="C862" s="21"/>
     </row>
     <row r="863" spans="3:3">
-      <c r="C863" s="5"/>
+      <c r="C863" s="21"/>
     </row>
     <row r="864" spans="3:3">
-      <c r="C864" s="5"/>
+      <c r="C864" s="21"/>
     </row>
     <row r="865" spans="3:3">
-      <c r="C865" s="5"/>
+      <c r="C865" s="21"/>
     </row>
     <row r="866" spans="3:3">
-      <c r="C866" s="5"/>
+      <c r="C866" s="21"/>
     </row>
     <row r="867" spans="3:3">
-      <c r="C867" s="5"/>
+      <c r="C867" s="21"/>
     </row>
     <row r="868" spans="3:3">
-      <c r="C868" s="5"/>
+      <c r="C868" s="21"/>
     </row>
     <row r="869" spans="3:3">
-      <c r="C869" s="5"/>
+      <c r="C869" s="21"/>
     </row>
     <row r="870" spans="3:3">
-      <c r="C870" s="5"/>
+      <c r="C870" s="21"/>
     </row>
     <row r="871" spans="3:3">
-      <c r="C871" s="5"/>
+      <c r="C871" s="21"/>
     </row>
     <row r="872" spans="3:3">
-      <c r="C872" s="5"/>
+      <c r="C872" s="21"/>
     </row>
     <row r="873" spans="3:3">
-      <c r="C873" s="5"/>
+      <c r="C873" s="21"/>
     </row>
     <row r="874" spans="3:3">
-      <c r="C874" s="5"/>
+      <c r="C874" s="21"/>
     </row>
     <row r="875" spans="3:3">
-      <c r="C875" s="5"/>
+      <c r="C875" s="21"/>
     </row>
     <row r="876" spans="3:3">
-      <c r="C876" s="5"/>
+      <c r="C876" s="21"/>
     </row>
     <row r="877" spans="3:3">
-      <c r="C877" s="5"/>
+      <c r="C877" s="21"/>
     </row>
     <row r="878" spans="3:3">
-      <c r="C878" s="5"/>
+      <c r="C878" s="21"/>
     </row>
     <row r="879" spans="3:3">
-      <c r="C879" s="5"/>
+      <c r="C879" s="21"/>
     </row>
     <row r="880" spans="3:3">
-      <c r="C880" s="5"/>
+      <c r="C880" s="21"/>
     </row>
     <row r="881" spans="3:3">
-      <c r="C881" s="5"/>
+      <c r="C881" s="21"/>
     </row>
     <row r="882" spans="3:3">
-      <c r="C882" s="5"/>
+      <c r="C882" s="21"/>
     </row>
     <row r="883" spans="3:3">
-      <c r="C883" s="5"/>
+      <c r="C883" s="21"/>
     </row>
     <row r="884" spans="3:3">
-      <c r="C884" s="5"/>
+      <c r="C884" s="21"/>
     </row>
     <row r="885" spans="3:3">
-      <c r="C885" s="5"/>
+      <c r="C885" s="21"/>
     </row>
     <row r="886" spans="3:3">
-      <c r="C886" s="5"/>
+      <c r="C886" s="21"/>
     </row>
     <row r="887" spans="3:3">
-      <c r="C887" s="5"/>
+      <c r="C887" s="21"/>
     </row>
     <row r="888" spans="3:3">
-      <c r="C888" s="5"/>
+      <c r="C888" s="21"/>
     </row>
     <row r="889" spans="3:3">
-      <c r="C889" s="5"/>
+      <c r="C889" s="21"/>
     </row>
     <row r="890" spans="3:3">
-      <c r="C890" s="5"/>
+      <c r="C890" s="21"/>
     </row>
     <row r="891" spans="3:3">
-      <c r="C891" s="5"/>
+      <c r="C891" s="21"/>
     </row>
     <row r="892" spans="3:3">
-      <c r="C892" s="5"/>
+      <c r="C892" s="21"/>
     </row>
     <row r="893" spans="3:3">
-      <c r="C893" s="5"/>
+      <c r="C893" s="21"/>
     </row>
     <row r="894" spans="3:3">
-      <c r="C894" s="5"/>
+      <c r="C894" s="21"/>
     </row>
     <row r="895" spans="3:3">
-      <c r="C895" s="5"/>
+      <c r="C895" s="21"/>
     </row>
     <row r="896" spans="3:3">
-      <c r="C896" s="5"/>
+      <c r="C896" s="21"/>
     </row>
     <row r="897" spans="3:3">
-      <c r="C897" s="5"/>
+      <c r="C897" s="21"/>
     </row>
     <row r="898" spans="3:3">
-      <c r="C898" s="5"/>
+      <c r="C898" s="21"/>
     </row>
     <row r="899" spans="3:3">
-      <c r="C899" s="5"/>
+      <c r="C899" s="21"/>
     </row>
     <row r="900" spans="3:3">
-      <c r="C900" s="5"/>
+      <c r="C900" s="21"/>
     </row>
     <row r="901" spans="3:3">
-      <c r="C901" s="5"/>
+      <c r="C901" s="21"/>
     </row>
     <row r="902" spans="3:3">
-      <c r="C902" s="5"/>
+      <c r="C902" s="21"/>
     </row>
     <row r="903" spans="3:3">
-      <c r="C903" s="5"/>
+      <c r="C903" s="21"/>
     </row>
     <row r="904" spans="3:3">
-      <c r="C904" s="5"/>
+      <c r="C904" s="21"/>
     </row>
     <row r="905" spans="3:3">
-      <c r="C905" s="5"/>
+      <c r="C905" s="21"/>
     </row>
     <row r="906" spans="3:3">
-      <c r="C906" s="5"/>
+      <c r="C906" s="21"/>
     </row>
     <row r="907" spans="3:3">
-      <c r="C907" s="5"/>
+      <c r="C907" s="21"/>
     </row>
     <row r="908" spans="3:3">
-      <c r="C908" s="5"/>
+      <c r="C908" s="21"/>
     </row>
     <row r="909" spans="3:3">
-      <c r="C909" s="5"/>
+      <c r="C909" s="21"/>
     </row>
     <row r="910" spans="3:3">
-      <c r="C910" s="5"/>
+      <c r="C910" s="21"/>
     </row>
     <row r="911" spans="3:3">
-      <c r="C911" s="5"/>
+      <c r="C911" s="21"/>
     </row>
     <row r="912" spans="3:3">
-      <c r="C912" s="5"/>
+      <c r="C912" s="21"/>
     </row>
     <row r="913" spans="3:3">
-      <c r="C913" s="5"/>
+      <c r="C913" s="21"/>
     </row>
     <row r="914" spans="3:3">
-      <c r="C914" s="5"/>
+      <c r="C914" s="21"/>
     </row>
     <row r="915" spans="3:3">
-      <c r="C915" s="5"/>
+      <c r="C915" s="21"/>
     </row>
     <row r="916" spans="3:3">
-      <c r="C916" s="5"/>
+      <c r="C916" s="21"/>
     </row>
     <row r="917" spans="3:3">
-      <c r="C917" s="5"/>
+      <c r="C917" s="21"/>
     </row>
     <row r="918" spans="3:3">
-      <c r="C918" s="5"/>
+      <c r="C918" s="21"/>
     </row>
     <row r="919" spans="3:3">
-      <c r="C919" s="5"/>
+      <c r="C919" s="21"/>
     </row>
     <row r="920" spans="3:3">
-      <c r="C920" s="5"/>
+      <c r="C920" s="21"/>
     </row>
     <row r="921" spans="3:3">
-      <c r="C921" s="5"/>
+      <c r="C921" s="21"/>
     </row>
     <row r="922" spans="3:3">
-      <c r="C922" s="5"/>
+      <c r="C922" s="21"/>
     </row>
     <row r="923" spans="3:3">
-      <c r="C923" s="5"/>
+      <c r="C923" s="21"/>
     </row>
     <row r="924" spans="3:3">
-      <c r="C924" s="5"/>
+      <c r="C924" s="21"/>
     </row>
     <row r="925" spans="3:3">
-      <c r="C925" s="5"/>
+      <c r="C925" s="21"/>
     </row>
     <row r="926" spans="3:3">
-      <c r="C926" s="5"/>
+      <c r="C926" s="21"/>
     </row>
     <row r="927" spans="3:3">
-      <c r="C927" s="5"/>
+      <c r="C927" s="21"/>
     </row>
     <row r="928" spans="3:3">
-      <c r="C928" s="5"/>
+      <c r="C928" s="21"/>
     </row>
     <row r="929" spans="3:3">
-      <c r="C929" s="5"/>
+      <c r="C929" s="21"/>
     </row>
     <row r="930" spans="3:3">
-      <c r="C930" s="5"/>
+      <c r="C930" s="21"/>
     </row>
     <row r="931" spans="3:3">
-      <c r="C931" s="5"/>
+      <c r="C931" s="21"/>
     </row>
     <row r="932" spans="3:3">
-      <c r="C932" s="5"/>
+      <c r="C932" s="21"/>
     </row>
     <row r="933" spans="3:3">
-      <c r="C933" s="5"/>
+      <c r="C933" s="21"/>
     </row>
     <row r="934" spans="3:3">
-      <c r="C934" s="5"/>
+      <c r="C934" s="21"/>
     </row>
     <row r="935" spans="3:3">
-      <c r="C935" s="5"/>
+      <c r="C935" s="21"/>
     </row>
     <row r="936" spans="3:3">
-      <c r="C936" s="5"/>
+      <c r="C936" s="21"/>
     </row>
     <row r="937" spans="3:3">
-      <c r="C937" s="5"/>
+      <c r="C937" s="21"/>
     </row>
     <row r="938" spans="3:3">
-      <c r="C938" s="5"/>
+      <c r="C938" s="21"/>
     </row>
     <row r="939" spans="3:3">
-      <c r="C939" s="5"/>
+      <c r="C939" s="21"/>
     </row>
     <row r="940" spans="3:3">
-      <c r="C940" s="5"/>
+      <c r="C940" s="21"/>
     </row>
     <row r="941" spans="3:3">
-      <c r="C941" s="5"/>
+      <c r="C941" s="21"/>
     </row>
     <row r="942" spans="3:3">
-      <c r="C942" s="5"/>
+      <c r="C942" s="21"/>
     </row>
     <row r="943" spans="3:3">
-      <c r="C943" s="5"/>
+      <c r="C943" s="21"/>
     </row>
     <row r="944" spans="3:3">
-      <c r="C944" s="5"/>
+      <c r="C944" s="21"/>
     </row>
     <row r="945" spans="3:3">
-      <c r="C945" s="5"/>
+      <c r="C945" s="21"/>
     </row>
     <row r="946" spans="3:3">
-      <c r="C946" s="5"/>
+      <c r="C946" s="21"/>
     </row>
     <row r="947" spans="3:3">
-      <c r="C947" s="5"/>
+      <c r="C947" s="21"/>
     </row>
     <row r="948" spans="3:3">
-      <c r="C948" s="5"/>
+      <c r="C948" s="21"/>
     </row>
     <row r="949" spans="3:3">
-      <c r="C949" s="5"/>
+      <c r="C949" s="21"/>
     </row>
     <row r="950" spans="3:3">
-      <c r="C950" s="5"/>
+      <c r="C950" s="21"/>
     </row>
     <row r="951" spans="3:3">
-      <c r="C951" s="5"/>
+      <c r="C951" s="21"/>
     </row>
     <row r="952" spans="3:3">
-      <c r="C952" s="5"/>
+      <c r="C952" s="21"/>
     </row>
     <row r="953" spans="3:3">
-      <c r="C953" s="5"/>
+      <c r="C953" s="21"/>
     </row>
     <row r="954" spans="3:3">
-      <c r="C954" s="5"/>
+      <c r="C954" s="21"/>
     </row>
     <row r="955" spans="3:3">
-      <c r="C955" s="5"/>
+      <c r="C955" s="21"/>
     </row>
     <row r="956" spans="3:3">
-      <c r="C956" s="5"/>
+      <c r="C956" s="21"/>
     </row>
     <row r="957" spans="3:3">
-      <c r="C957" s="5"/>
+      <c r="C957" s="21"/>
     </row>
     <row r="958" spans="3:3">
-      <c r="C958" s="5"/>
+      <c r="C958" s="21"/>
     </row>
     <row r="959" spans="3:3">
-      <c r="C959" s="5"/>
+      <c r="C959" s="21"/>
     </row>
     <row r="960" spans="3:3">
-      <c r="C960" s="5"/>
+      <c r="C960" s="21"/>
     </row>
     <row r="961" spans="3:3">
-      <c r="C961" s="5"/>
+      <c r="C961" s="21"/>
     </row>
     <row r="962" spans="3:3">
-      <c r="C962" s="5"/>
+      <c r="C962" s="22"/>
     </row>
     <row r="963" spans="3:3">
-      <c r="C963" s="5"/>
+      <c r="C963" s="22"/>
     </row>
     <row r="964" spans="3:3">
-      <c r="C964" s="5"/>
+      <c r="C964" s="22"/>
     </row>
     <row r="965" spans="3:3">
-      <c r="C965" s="5"/>
+      <c r="C965" s="22"/>
     </row>
     <row r="966" spans="3:3">
-      <c r="C966" s="5"/>
-    </row>
-    <row r="967" spans="3:3">
-      <c r="C967" s="5"/>
-    </row>
-    <row r="968" spans="3:3">
-      <c r="C968" s="5"/>
-    </row>
-    <row r="969" spans="3:3">
-      <c r="C969" s="5"/>
-    </row>
-    <row r="970" spans="3:3">
-      <c r="C970" s="5"/>
-    </row>
-    <row r="971" spans="3:3">
-      <c r="C971" s="5"/>
-    </row>
-    <row r="972" spans="3:3">
-      <c r="C972" s="5"/>
-    </row>
-    <row r="973" spans="3:3">
-      <c r="C973" s="5"/>
-    </row>
-    <row r="974" spans="3:3">
-      <c r="C974" s="5"/>
-    </row>
-    <row r="975" spans="3:3">
-      <c r="C975" s="5"/>
-    </row>
-    <row r="976" spans="3:3">
-      <c r="C976" s="5"/>
-    </row>
-    <row r="977" spans="3:3">
-      <c r="C977" s="5"/>
-    </row>
-    <row r="978" spans="3:3">
-      <c r="C978" s="6"/>
-    </row>
-    <row r="979" spans="3:3">
-      <c r="C979" s="6"/>
-    </row>
-    <row r="980" spans="3:3">
-      <c r="C980" s="6"/>
-    </row>
-    <row r="981" spans="3:3">
-      <c r="C981" s="6"/>
-    </row>
-    <row r="982" spans="3:3">
-      <c r="C982" s="6"/>
+      <c r="C966" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="12">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L北京智芯微电子科技有限公司</oddHeader>
-  </headerFooter>
+  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.297916666666667" footer="0.297916666666667"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/template/实物ID箱签.xlsx
+++ b/template/实物ID箱签.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9930"/>
+    <workbookView windowWidth="19920" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="不含车间信息" sheetId="6" r:id="rId1"/>
@@ -17,13 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>变电站或馈线
-名称</t>
+    <t>变电站或
+馈线名称
+（设备类型）</t>
   </si>
   <si>
     <t>订单编号</t>
@@ -54,34 +52,31 @@
     <t>数量</t>
   </si>
   <si>
-    <t>物流公司</t>
+    <t>包装信息</t>
   </si>
   <si>
-    <t>A型标签</t>
+    <t>A型标签（401）</t>
   </si>
   <si>
-    <t>B型标签</t>
+    <t>B型标签（402）</t>
   </si>
   <si>
-    <t>物流单号</t>
+    <t>C型标签（403）</t>
+  </si>
+  <si>
+    <t>箱数/总箱数</t>
   </si>
   <si>
     <t>1/1</t>
   </si>
   <si>
-    <t>C型标签</t>
-  </si>
-  <si>
-    <t>箱数/总箱数</t>
-  </si>
-  <si>
-    <t>2019.8.20</t>
-  </si>
-  <si>
-    <t>D型标签</t>
+    <t>D型标签（404）</t>
   </si>
   <si>
     <t>包装日期</t>
+  </si>
+  <si>
+    <t>2020.3.5</t>
   </si>
   <si>
     <t>包装员</t>
@@ -95,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -145,31 +140,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +158,65 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -200,14 +232,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +254,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -230,55 +270,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,7 +304,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,19 +334,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,67 +370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +388,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,13 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,13 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,30 +478,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -519,15 +514,31 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -548,12 +559,69 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -566,6 +634,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,24 +670,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,11 +696,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,26 +727,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +755,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -821,7 +889,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,45 +900,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,3016 +1321,3010 @@
   <dimension ref="A1:D966"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.475" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.925" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.1333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="20" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:4">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1" spans="1:4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
+    <row r="5" ht="26" customHeight="1" spans="1:4">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:4">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:4">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:4">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:4">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:4">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="14" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:4">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="14" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:4">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="14" t="s">
+    <row r="11" ht="15" customHeight="1" spans="1:4">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="14" t="s">
+    <row r="12" ht="15" customHeight="1" spans="1:4">
+      <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="10" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="17"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="17"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="17"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="17"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="17"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="17"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="17"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="17"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="17"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="17"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="17"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="17"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="17"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="17"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="17"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="17"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="17"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="17"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="17"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="17"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="17"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="17"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="17"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="17"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="17"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="17"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="17"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="17"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="17"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="17"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="17"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="17"/>
+      <c r="C44" s="22"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="17"/>
+      <c r="C45" s="22"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="17"/>
+      <c r="C46" s="22"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="17"/>
+      <c r="C47" s="22"/>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="17"/>
+      <c r="C48" s="22"/>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="17"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="17"/>
+      <c r="C50" s="22"/>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="17"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="17"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="17"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="17"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="17"/>
+      <c r="C55" s="22"/>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="17"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" spans="3:3">
-      <c r="C57" s="17"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" spans="3:3">
-      <c r="C58" s="17"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="17"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="17"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="17"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="17"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="17"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="17"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="17"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="17"/>
+      <c r="C66" s="22"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="17"/>
+      <c r="C67" s="22"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="17"/>
+      <c r="C68" s="22"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="17"/>
+      <c r="C69" s="22"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="17"/>
+      <c r="C70" s="22"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="17"/>
+      <c r="C71" s="22"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="17"/>
+      <c r="C72" s="22"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="17"/>
+      <c r="C73" s="22"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="17"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="17"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="17"/>
+      <c r="C76" s="22"/>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="17"/>
+      <c r="C77" s="22"/>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="17"/>
+      <c r="C78" s="22"/>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="17"/>
+      <c r="C79" s="22"/>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="17"/>
+      <c r="C80" s="22"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="17"/>
+      <c r="C81" s="22"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="17"/>
+      <c r="C82" s="22"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="17"/>
+      <c r="C83" s="22"/>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="17"/>
+      <c r="C84" s="22"/>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="17"/>
+      <c r="C85" s="22"/>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="17"/>
+      <c r="C86" s="22"/>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="17"/>
+      <c r="C87" s="22"/>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="17"/>
+      <c r="C88" s="22"/>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="17"/>
+      <c r="C89" s="22"/>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="17"/>
+      <c r="C90" s="22"/>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="17"/>
+      <c r="C91" s="22"/>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="17"/>
+      <c r="C92" s="22"/>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="17"/>
+      <c r="C93" s="22"/>
     </row>
     <row r="94" spans="3:3">
-      <c r="C94" s="17"/>
+      <c r="C94" s="22"/>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="17"/>
+      <c r="C95" s="22"/>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="17"/>
+      <c r="C96" s="22"/>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="17"/>
+      <c r="C97" s="22"/>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="17"/>
+      <c r="C98" s="22"/>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="17"/>
+      <c r="C99" s="22"/>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="17"/>
+      <c r="C100" s="22"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="17"/>
+      <c r="C101" s="22"/>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="17"/>
+      <c r="C102" s="22"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="17"/>
+      <c r="C103" s="22"/>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="17"/>
+      <c r="C104" s="22"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="17"/>
+      <c r="C105" s="22"/>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="17"/>
+      <c r="C106" s="22"/>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="17"/>
+      <c r="C107" s="22"/>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="17"/>
+      <c r="C108" s="22"/>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="17"/>
+      <c r="C109" s="22"/>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="17"/>
+      <c r="C110" s="22"/>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="17"/>
+      <c r="C111" s="22"/>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="17"/>
+      <c r="C112" s="22"/>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="17"/>
+      <c r="C113" s="22"/>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="17"/>
+      <c r="C114" s="22"/>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="17"/>
+      <c r="C115" s="22"/>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="17"/>
+      <c r="C116" s="22"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="17"/>
+      <c r="C117" s="22"/>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="17"/>
+      <c r="C118" s="22"/>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="17"/>
+      <c r="C119" s="22"/>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="17"/>
+      <c r="C120" s="22"/>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="17"/>
+      <c r="C121" s="22"/>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="17"/>
+      <c r="C122" s="22"/>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="17"/>
+      <c r="C123" s="22"/>
     </row>
     <row r="124" spans="3:3">
-      <c r="C124" s="17"/>
+      <c r="C124" s="22"/>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="17"/>
+      <c r="C125" s="22"/>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="17"/>
+      <c r="C126" s="22"/>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="17"/>
+      <c r="C127" s="22"/>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="17"/>
+      <c r="C128" s="22"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="17"/>
+      <c r="C129" s="22"/>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="17"/>
+      <c r="C130" s="22"/>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="17"/>
+      <c r="C131" s="22"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="17"/>
+      <c r="C132" s="22"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="17"/>
+      <c r="C133" s="22"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="17"/>
+      <c r="C134" s="22"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="17"/>
+      <c r="C135" s="22"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="17"/>
+      <c r="C136" s="22"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="17"/>
+      <c r="C137" s="22"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="17"/>
+      <c r="C138" s="22"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="17"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="17"/>
+      <c r="C140" s="22"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="17"/>
+      <c r="C141" s="22"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="17"/>
+      <c r="C142" s="22"/>
     </row>
     <row r="143" spans="3:3">
-      <c r="C143" s="17"/>
+      <c r="C143" s="22"/>
     </row>
     <row r="144" spans="3:3">
-      <c r="C144" s="17"/>
+      <c r="C144" s="22"/>
     </row>
     <row r="145" spans="3:3">
-      <c r="C145" s="17"/>
+      <c r="C145" s="22"/>
     </row>
     <row r="146" spans="3:3">
-      <c r="C146" s="17"/>
+      <c r="C146" s="22"/>
     </row>
     <row r="147" spans="3:3">
-      <c r="C147" s="17"/>
+      <c r="C147" s="22"/>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="17"/>
+      <c r="C148" s="22"/>
     </row>
     <row r="149" spans="3:3">
-      <c r="C149" s="17"/>
+      <c r="C149" s="22"/>
     </row>
     <row r="150" spans="3:3">
-      <c r="C150" s="17"/>
+      <c r="C150" s="22"/>
     </row>
     <row r="151" spans="3:3">
-      <c r="C151" s="17"/>
+      <c r="C151" s="22"/>
     </row>
     <row r="152" spans="3:3">
-      <c r="C152" s="17"/>
+      <c r="C152" s="22"/>
     </row>
     <row r="153" spans="3:3">
-      <c r="C153" s="17"/>
+      <c r="C153" s="22"/>
     </row>
     <row r="154" spans="3:3">
-      <c r="C154" s="17"/>
+      <c r="C154" s="22"/>
     </row>
     <row r="155" spans="3:3">
-      <c r="C155" s="17"/>
+      <c r="C155" s="22"/>
     </row>
     <row r="156" spans="3:3">
-      <c r="C156" s="17"/>
+      <c r="C156" s="22"/>
     </row>
     <row r="157" spans="3:3">
-      <c r="C157" s="17"/>
+      <c r="C157" s="22"/>
     </row>
     <row r="158" spans="3:3">
-      <c r="C158" s="17"/>
+      <c r="C158" s="22"/>
     </row>
     <row r="159" spans="3:3">
-      <c r="C159" s="17"/>
+      <c r="C159" s="22"/>
     </row>
     <row r="160" spans="3:3">
-      <c r="C160" s="17"/>
+      <c r="C160" s="22"/>
     </row>
     <row r="161" spans="3:3">
-      <c r="C161" s="17"/>
+      <c r="C161" s="22"/>
     </row>
     <row r="162" spans="3:3">
-      <c r="C162" s="17"/>
+      <c r="C162" s="22"/>
     </row>
     <row r="163" spans="3:3">
-      <c r="C163" s="17"/>
+      <c r="C163" s="22"/>
     </row>
     <row r="164" spans="3:3">
-      <c r="C164" s="17"/>
+      <c r="C164" s="22"/>
     </row>
     <row r="165" spans="3:3">
-      <c r="C165" s="17"/>
+      <c r="C165" s="22"/>
     </row>
     <row r="166" spans="3:3">
-      <c r="C166" s="17"/>
+      <c r="C166" s="22"/>
     </row>
     <row r="167" spans="3:3">
-      <c r="C167" s="17"/>
+      <c r="C167" s="22"/>
     </row>
     <row r="168" spans="3:3">
-      <c r="C168" s="17"/>
+      <c r="C168" s="22"/>
     </row>
     <row r="169" spans="3:3">
-      <c r="C169" s="17"/>
+      <c r="C169" s="22"/>
     </row>
     <row r="170" spans="3:3">
-      <c r="C170" s="17"/>
+      <c r="C170" s="22"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="17"/>
+      <c r="C171" s="22"/>
     </row>
     <row r="172" spans="3:3">
-      <c r="C172" s="17"/>
+      <c r="C172" s="22"/>
     </row>
     <row r="173" spans="3:3">
-      <c r="C173" s="17"/>
+      <c r="C173" s="22"/>
     </row>
     <row r="174" spans="3:3">
-      <c r="C174" s="17"/>
+      <c r="C174" s="22"/>
     </row>
     <row r="175" spans="3:3">
-      <c r="C175" s="17"/>
+      <c r="C175" s="22"/>
     </row>
     <row r="176" spans="3:3">
-      <c r="C176" s="17"/>
+      <c r="C176" s="22"/>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177" s="17"/>
+      <c r="C177" s="22"/>
     </row>
     <row r="178" spans="3:3">
-      <c r="C178" s="17"/>
+      <c r="C178" s="22"/>
     </row>
     <row r="179" spans="3:3">
-      <c r="C179" s="17"/>
+      <c r="C179" s="22"/>
     </row>
     <row r="180" spans="3:3">
-      <c r="C180" s="17"/>
+      <c r="C180" s="22"/>
     </row>
     <row r="181" spans="3:3">
-      <c r="C181" s="17"/>
+      <c r="C181" s="22"/>
     </row>
     <row r="182" spans="3:3">
-      <c r="C182" s="17"/>
+      <c r="C182" s="22"/>
     </row>
     <row r="183" spans="3:3">
-      <c r="C183" s="17"/>
+      <c r="C183" s="22"/>
     </row>
     <row r="184" spans="3:3">
-      <c r="C184" s="17"/>
+      <c r="C184" s="22"/>
     </row>
     <row r="185" spans="3:3">
-      <c r="C185" s="17"/>
+      <c r="C185" s="22"/>
     </row>
     <row r="186" spans="3:3">
-      <c r="C186" s="17"/>
+      <c r="C186" s="22"/>
     </row>
     <row r="187" spans="3:3">
-      <c r="C187" s="17"/>
+      <c r="C187" s="22"/>
     </row>
     <row r="188" spans="3:3">
-      <c r="C188" s="17"/>
+      <c r="C188" s="22"/>
     </row>
     <row r="189" spans="3:3">
-      <c r="C189" s="17"/>
+      <c r="C189" s="22"/>
     </row>
     <row r="190" spans="3:3">
-      <c r="C190" s="17"/>
+      <c r="C190" s="22"/>
     </row>
     <row r="191" spans="3:3">
-      <c r="C191" s="17"/>
+      <c r="C191" s="22"/>
     </row>
     <row r="192" spans="3:3">
-      <c r="C192" s="17"/>
+      <c r="C192" s="22"/>
     </row>
     <row r="193" spans="3:3">
-      <c r="C193" s="17"/>
+      <c r="C193" s="22"/>
     </row>
     <row r="194" spans="3:3">
-      <c r="C194" s="17"/>
+      <c r="C194" s="22"/>
     </row>
     <row r="195" spans="3:3">
-      <c r="C195" s="17"/>
+      <c r="C195" s="22"/>
     </row>
     <row r="196" spans="3:3">
-      <c r="C196" s="17"/>
+      <c r="C196" s="22"/>
     </row>
     <row r="197" spans="3:3">
-      <c r="C197" s="17"/>
+      <c r="C197" s="22"/>
     </row>
     <row r="198" spans="3:3">
-      <c r="C198" s="17"/>
+      <c r="C198" s="22"/>
     </row>
     <row r="199" spans="3:3">
-      <c r="C199" s="17"/>
+      <c r="C199" s="22"/>
     </row>
     <row r="200" spans="3:3">
-      <c r="C200" s="17"/>
+      <c r="C200" s="22"/>
     </row>
     <row r="201" spans="3:3">
-      <c r="C201" s="17"/>
+      <c r="C201" s="22"/>
     </row>
     <row r="202" spans="3:3">
-      <c r="C202" s="17"/>
+      <c r="C202" s="22"/>
     </row>
     <row r="203" spans="3:3">
-      <c r="C203" s="17"/>
+      <c r="C203" s="22"/>
     </row>
     <row r="204" spans="3:3">
-      <c r="C204" s="17"/>
+      <c r="C204" s="22"/>
     </row>
     <row r="205" spans="3:3">
-      <c r="C205" s="17"/>
+      <c r="C205" s="22"/>
     </row>
     <row r="206" spans="3:3">
-      <c r="C206" s="17"/>
+      <c r="C206" s="22"/>
     </row>
     <row r="207" spans="3:3">
-      <c r="C207" s="17"/>
+      <c r="C207" s="22"/>
     </row>
     <row r="208" spans="3:3">
-      <c r="C208" s="17"/>
+      <c r="C208" s="22"/>
     </row>
     <row r="209" spans="3:3">
-      <c r="C209" s="17"/>
+      <c r="C209" s="22"/>
     </row>
     <row r="210" spans="3:3">
-      <c r="C210" s="17"/>
+      <c r="C210" s="22"/>
     </row>
     <row r="211" spans="3:3">
-      <c r="C211" s="17"/>
+      <c r="C211" s="22"/>
     </row>
     <row r="212" spans="3:3">
-      <c r="C212" s="17"/>
+      <c r="C212" s="22"/>
     </row>
     <row r="213" spans="3:3">
-      <c r="C213" s="17"/>
+      <c r="C213" s="22"/>
     </row>
     <row r="214" spans="3:3">
-      <c r="C214" s="17"/>
+      <c r="C214" s="22"/>
     </row>
     <row r="215" spans="3:3">
-      <c r="C215" s="17"/>
+      <c r="C215" s="22"/>
     </row>
     <row r="216" spans="3:3">
-      <c r="C216" s="17"/>
+      <c r="C216" s="22"/>
     </row>
     <row r="217" spans="3:3">
-      <c r="C217" s="17"/>
+      <c r="C217" s="22"/>
     </row>
     <row r="218" spans="3:3">
-      <c r="C218" s="17"/>
+      <c r="C218" s="22"/>
     </row>
     <row r="219" spans="3:3">
-      <c r="C219" s="17"/>
+      <c r="C219" s="22"/>
     </row>
     <row r="220" spans="3:3">
-      <c r="C220" s="17"/>
+      <c r="C220" s="22"/>
     </row>
     <row r="221" spans="3:3">
-      <c r="C221" s="17"/>
+      <c r="C221" s="22"/>
     </row>
     <row r="222" spans="3:3">
-      <c r="C222" s="17"/>
+      <c r="C222" s="22"/>
     </row>
     <row r="223" spans="3:3">
-      <c r="C223" s="17"/>
+      <c r="C223" s="22"/>
     </row>
     <row r="224" spans="3:3">
-      <c r="C224" s="17"/>
+      <c r="C224" s="22"/>
     </row>
     <row r="225" spans="3:3">
-      <c r="C225" s="17"/>
+      <c r="C225" s="22"/>
     </row>
     <row r="226" spans="3:3">
-      <c r="C226" s="17"/>
+      <c r="C226" s="22"/>
     </row>
     <row r="227" spans="3:3">
-      <c r="C227" s="17"/>
+      <c r="C227" s="22"/>
     </row>
     <row r="228" spans="3:3">
-      <c r="C228" s="17"/>
+      <c r="C228" s="22"/>
     </row>
     <row r="229" spans="3:3">
-      <c r="C229" s="17"/>
+      <c r="C229" s="22"/>
     </row>
     <row r="230" spans="3:3">
-      <c r="C230" s="17"/>
+      <c r="C230" s="22"/>
     </row>
     <row r="231" spans="3:3">
-      <c r="C231" s="17"/>
+      <c r="C231" s="22"/>
     </row>
     <row r="232" spans="3:3">
-      <c r="C232" s="17"/>
+      <c r="C232" s="22"/>
     </row>
     <row r="233" spans="3:3">
-      <c r="C233" s="17"/>
+      <c r="C233" s="22"/>
     </row>
     <row r="234" spans="3:3">
-      <c r="C234" s="17"/>
+      <c r="C234" s="22"/>
     </row>
     <row r="235" spans="3:3">
-      <c r="C235" s="17"/>
+      <c r="C235" s="22"/>
     </row>
     <row r="236" spans="3:3">
-      <c r="C236" s="17"/>
+      <c r="C236" s="22"/>
     </row>
     <row r="237" spans="3:3">
-      <c r="C237" s="17"/>
+      <c r="C237" s="22"/>
     </row>
     <row r="238" spans="3:3">
-      <c r="C238" s="17"/>
+      <c r="C238" s="22"/>
     </row>
     <row r="239" spans="3:3">
-      <c r="C239" s="17"/>
+      <c r="C239" s="22"/>
     </row>
     <row r="240" spans="3:3">
-      <c r="C240" s="17"/>
+      <c r="C240" s="22"/>
     </row>
     <row r="241" spans="3:3">
-      <c r="C241" s="17"/>
+      <c r="C241" s="22"/>
     </row>
     <row r="242" spans="3:3">
-      <c r="C242" s="17"/>
+      <c r="C242" s="22"/>
     </row>
     <row r="243" spans="3:3">
-      <c r="C243" s="17"/>
+      <c r="C243" s="22"/>
     </row>
     <row r="244" spans="3:3">
-      <c r="C244" s="17"/>
+      <c r="C244" s="22"/>
     </row>
     <row r="245" spans="3:3">
-      <c r="C245" s="17"/>
+      <c r="C245" s="22"/>
     </row>
     <row r="246" spans="3:3">
-      <c r="C246" s="17"/>
+      <c r="C246" s="22"/>
     </row>
     <row r="247" spans="3:3">
-      <c r="C247" s="17"/>
+      <c r="C247" s="22"/>
     </row>
     <row r="248" spans="3:3">
-      <c r="C248" s="17"/>
+      <c r="C248" s="22"/>
     </row>
     <row r="249" spans="3:3">
-      <c r="C249" s="17"/>
+      <c r="C249" s="22"/>
     </row>
     <row r="250" spans="3:3">
-      <c r="C250" s="17"/>
+      <c r="C250" s="22"/>
     </row>
     <row r="251" spans="3:3">
-      <c r="C251" s="17"/>
+      <c r="C251" s="22"/>
     </row>
     <row r="252" spans="3:3">
-      <c r="C252" s="17"/>
+      <c r="C252" s="22"/>
     </row>
     <row r="253" spans="3:3">
-      <c r="C253" s="17"/>
+      <c r="C253" s="22"/>
     </row>
     <row r="254" spans="3:3">
-      <c r="C254" s="17"/>
+      <c r="C254" s="22"/>
     </row>
     <row r="255" spans="3:3">
-      <c r="C255" s="17"/>
+      <c r="C255" s="22"/>
     </row>
     <row r="256" spans="3:3">
-      <c r="C256" s="17"/>
+      <c r="C256" s="22"/>
     </row>
     <row r="257" spans="3:3">
-      <c r="C257" s="17"/>
+      <c r="C257" s="22"/>
     </row>
     <row r="258" spans="3:3">
-      <c r="C258" s="17"/>
+      <c r="C258" s="22"/>
     </row>
     <row r="259" spans="3:3">
-      <c r="C259" s="17"/>
+      <c r="C259" s="22"/>
     </row>
     <row r="260" spans="3:3">
-      <c r="C260" s="17"/>
+      <c r="C260" s="22"/>
     </row>
     <row r="261" spans="3:3">
-      <c r="C261" s="17"/>
+      <c r="C261" s="22"/>
     </row>
     <row r="262" spans="3:3">
-      <c r="C262" s="17"/>
+      <c r="C262" s="22"/>
     </row>
     <row r="263" spans="3:3">
-      <c r="C263" s="17"/>
+      <c r="C263" s="22"/>
     </row>
     <row r="264" spans="3:3">
-      <c r="C264" s="17"/>
+      <c r="C264" s="22"/>
     </row>
     <row r="265" spans="3:3">
-      <c r="C265" s="17"/>
+      <c r="C265" s="22"/>
     </row>
     <row r="266" spans="3:3">
-      <c r="C266" s="17"/>
+      <c r="C266" s="22"/>
     </row>
     <row r="267" spans="3:3">
-      <c r="C267" s="17"/>
+      <c r="C267" s="22"/>
     </row>
     <row r="268" spans="3:3">
-      <c r="C268" s="17"/>
+      <c r="C268" s="22"/>
     </row>
     <row r="269" spans="3:3">
-      <c r="C269" s="17"/>
+      <c r="C269" s="22"/>
     </row>
     <row r="270" spans="3:3">
-      <c r="C270" s="17"/>
+      <c r="C270" s="22"/>
     </row>
     <row r="271" spans="3:3">
-      <c r="C271" s="17"/>
+      <c r="C271" s="22"/>
     </row>
     <row r="272" spans="3:3">
-      <c r="C272" s="17"/>
+      <c r="C272" s="22"/>
     </row>
     <row r="273" spans="3:3">
-      <c r="C273" s="17"/>
+      <c r="C273" s="22"/>
     </row>
     <row r="274" spans="3:3">
-      <c r="C274" s="17"/>
+      <c r="C274" s="22"/>
     </row>
     <row r="275" spans="3:3">
-      <c r="C275" s="17"/>
+      <c r="C275" s="22"/>
     </row>
     <row r="276" spans="3:3">
-      <c r="C276" s="17"/>
+      <c r="C276" s="22"/>
     </row>
     <row r="277" spans="3:3">
-      <c r="C277" s="17"/>
+      <c r="C277" s="22"/>
     </row>
     <row r="278" spans="3:3">
-      <c r="C278" s="17"/>
+      <c r="C278" s="22"/>
     </row>
     <row r="279" spans="3:3">
-      <c r="C279" s="17"/>
+      <c r="C279" s="22"/>
     </row>
     <row r="280" spans="3:3">
-      <c r="C280" s="17"/>
+      <c r="C280" s="22"/>
     </row>
     <row r="281" spans="3:3">
-      <c r="C281" s="17"/>
+      <c r="C281" s="22"/>
     </row>
     <row r="282" spans="3:3">
-      <c r="C282" s="17"/>
+      <c r="C282" s="22"/>
     </row>
     <row r="283" spans="3:3">
-      <c r="C283" s="17"/>
+      <c r="C283" s="22"/>
     </row>
     <row r="284" spans="3:3">
-      <c r="C284" s="17"/>
+      <c r="C284" s="22"/>
     </row>
     <row r="285" spans="3:3">
-      <c r="C285" s="17"/>
+      <c r="C285" s="22"/>
     </row>
     <row r="286" spans="3:3">
-      <c r="C286" s="17"/>
+      <c r="C286" s="22"/>
     </row>
     <row r="287" spans="3:3">
-      <c r="C287" s="17"/>
+      <c r="C287" s="22"/>
     </row>
     <row r="288" spans="3:3">
-      <c r="C288" s="17"/>
+      <c r="C288" s="22"/>
     </row>
     <row r="289" spans="3:3">
-      <c r="C289" s="17"/>
+      <c r="C289" s="22"/>
     </row>
     <row r="290" spans="3:3">
-      <c r="C290" s="17"/>
+      <c r="C290" s="22"/>
     </row>
     <row r="291" spans="3:3">
-      <c r="C291" s="17"/>
+      <c r="C291" s="22"/>
     </row>
     <row r="292" spans="3:3">
-      <c r="C292" s="17"/>
+      <c r="C292" s="22"/>
     </row>
     <row r="293" spans="3:3">
-      <c r="C293" s="17"/>
+      <c r="C293" s="22"/>
     </row>
     <row r="294" spans="3:3">
-      <c r="C294" s="17"/>
+      <c r="C294" s="22"/>
     </row>
     <row r="295" spans="3:3">
-      <c r="C295" s="17"/>
+      <c r="C295" s="22"/>
     </row>
     <row r="296" spans="3:3">
-      <c r="C296" s="17"/>
+      <c r="C296" s="22"/>
     </row>
     <row r="297" spans="3:3">
-      <c r="C297" s="17"/>
+      <c r="C297" s="22"/>
     </row>
     <row r="298" spans="3:3">
-      <c r="C298" s="17"/>
+      <c r="C298" s="22"/>
     </row>
     <row r="299" spans="3:3">
-      <c r="C299" s="17"/>
+      <c r="C299" s="22"/>
     </row>
     <row r="300" spans="3:3">
-      <c r="C300" s="17"/>
+      <c r="C300" s="22"/>
     </row>
     <row r="301" spans="3:3">
-      <c r="C301" s="17"/>
+      <c r="C301" s="22"/>
     </row>
     <row r="302" spans="3:3">
-      <c r="C302" s="17"/>
+      <c r="C302" s="22"/>
     </row>
     <row r="303" spans="3:3">
-      <c r="C303" s="17"/>
+      <c r="C303" s="22"/>
     </row>
     <row r="304" spans="3:3">
-      <c r="C304" s="17"/>
+      <c r="C304" s="22"/>
     </row>
     <row r="305" spans="3:3">
-      <c r="C305" s="17"/>
+      <c r="C305" s="22"/>
     </row>
     <row r="306" spans="3:3">
-      <c r="C306" s="17"/>
+      <c r="C306" s="22"/>
     </row>
     <row r="307" spans="3:3">
-      <c r="C307" s="17"/>
+      <c r="C307" s="22"/>
     </row>
     <row r="308" spans="3:3">
-      <c r="C308" s="17"/>
+      <c r="C308" s="22"/>
     </row>
     <row r="309" spans="3:3">
-      <c r="C309" s="17"/>
+      <c r="C309" s="22"/>
     </row>
     <row r="310" spans="3:3">
-      <c r="C310" s="17"/>
+      <c r="C310" s="22"/>
     </row>
     <row r="311" spans="3:3">
-      <c r="C311" s="17"/>
+      <c r="C311" s="22"/>
     </row>
     <row r="312" spans="3:3">
-      <c r="C312" s="17"/>
+      <c r="C312" s="22"/>
     </row>
     <row r="313" spans="3:3">
-      <c r="C313" s="17"/>
+      <c r="C313" s="22"/>
     </row>
     <row r="314" spans="3:3">
-      <c r="C314" s="17"/>
+      <c r="C314" s="22"/>
     </row>
     <row r="315" spans="3:3">
-      <c r="C315" s="17"/>
+      <c r="C315" s="22"/>
     </row>
     <row r="316" spans="3:3">
-      <c r="C316" s="17"/>
+      <c r="C316" s="22"/>
     </row>
     <row r="317" spans="3:3">
-      <c r="C317" s="17"/>
+      <c r="C317" s="22"/>
     </row>
     <row r="318" spans="3:3">
-      <c r="C318" s="17"/>
+      <c r="C318" s="22"/>
     </row>
     <row r="319" spans="3:3">
-      <c r="C319" s="17"/>
+      <c r="C319" s="22"/>
     </row>
     <row r="320" spans="3:3">
-      <c r="C320" s="17"/>
+      <c r="C320" s="22"/>
     </row>
     <row r="321" spans="3:3">
-      <c r="C321" s="17"/>
+      <c r="C321" s="22"/>
     </row>
     <row r="322" spans="3:3">
-      <c r="C322" s="17"/>
+      <c r="C322" s="22"/>
     </row>
     <row r="323" spans="3:3">
-      <c r="C323" s="17"/>
+      <c r="C323" s="22"/>
     </row>
     <row r="324" spans="3:3">
-      <c r="C324" s="17"/>
+      <c r="C324" s="22"/>
     </row>
     <row r="325" spans="3:3">
-      <c r="C325" s="17"/>
+      <c r="C325" s="22"/>
     </row>
     <row r="326" spans="3:3">
-      <c r="C326" s="17"/>
+      <c r="C326" s="22"/>
     </row>
     <row r="327" spans="3:3">
-      <c r="C327" s="17"/>
+      <c r="C327" s="22"/>
     </row>
     <row r="328" spans="3:3">
-      <c r="C328" s="17"/>
+      <c r="C328" s="22"/>
     </row>
     <row r="329" spans="3:3">
-      <c r="C329" s="17"/>
+      <c r="C329" s="22"/>
     </row>
     <row r="330" spans="3:3">
-      <c r="C330" s="17"/>
+      <c r="C330" s="22"/>
     </row>
     <row r="331" spans="3:3">
-      <c r="C331" s="17"/>
+      <c r="C331" s="22"/>
     </row>
     <row r="332" spans="3:3">
-      <c r="C332" s="17"/>
+      <c r="C332" s="22"/>
     </row>
     <row r="333" spans="3:3">
-      <c r="C333" s="17"/>
+      <c r="C333" s="22"/>
     </row>
     <row r="334" spans="3:3">
-      <c r="C334" s="17"/>
+      <c r="C334" s="22"/>
     </row>
     <row r="335" spans="3:3">
-      <c r="C335" s="17"/>
+      <c r="C335" s="22"/>
     </row>
     <row r="336" spans="3:3">
-      <c r="C336" s="17"/>
+      <c r="C336" s="22"/>
     </row>
     <row r="337" spans="3:3">
-      <c r="C337" s="17"/>
+      <c r="C337" s="22"/>
     </row>
     <row r="338" spans="3:3">
-      <c r="C338" s="17"/>
+      <c r="C338" s="22"/>
     </row>
     <row r="339" spans="3:3">
-      <c r="C339" s="17"/>
+      <c r="C339" s="22"/>
     </row>
     <row r="340" spans="3:3">
-      <c r="C340" s="17"/>
+      <c r="C340" s="22"/>
     </row>
     <row r="341" spans="3:3">
-      <c r="C341" s="17"/>
+      <c r="C341" s="22"/>
     </row>
     <row r="342" spans="3:3">
-      <c r="C342" s="17"/>
+      <c r="C342" s="22"/>
     </row>
     <row r="343" spans="3:3">
-      <c r="C343" s="17"/>
+      <c r="C343" s="22"/>
     </row>
     <row r="344" spans="3:3">
-      <c r="C344" s="17"/>
+      <c r="C344" s="22"/>
     </row>
     <row r="345" spans="3:3">
-      <c r="C345" s="17"/>
+      <c r="C345" s="22"/>
     </row>
     <row r="346" spans="3:3">
-      <c r="C346" s="17"/>
+      <c r="C346" s="22"/>
     </row>
     <row r="347" spans="3:3">
-      <c r="C347" s="17"/>
+      <c r="C347" s="22"/>
     </row>
     <row r="348" spans="3:3">
-      <c r="C348" s="17"/>
+      <c r="C348" s="22"/>
     </row>
     <row r="349" spans="3:3">
-      <c r="C349" s="17"/>
+      <c r="C349" s="22"/>
     </row>
     <row r="350" spans="3:3">
-      <c r="C350" s="17"/>
+      <c r="C350" s="22"/>
     </row>
     <row r="351" spans="3:3">
-      <c r="C351" s="17"/>
+      <c r="C351" s="22"/>
     </row>
     <row r="352" spans="3:3">
-      <c r="C352" s="17"/>
+      <c r="C352" s="22"/>
     </row>
     <row r="353" spans="3:3">
-      <c r="C353" s="17"/>
+      <c r="C353" s="22"/>
     </row>
     <row r="354" spans="3:3">
-      <c r="C354" s="17"/>
+      <c r="C354" s="22"/>
     </row>
     <row r="355" spans="3:3">
-      <c r="C355" s="17"/>
+      <c r="C355" s="22"/>
     </row>
     <row r="356" spans="3:3">
-      <c r="C356" s="17"/>
+      <c r="C356" s="22"/>
     </row>
     <row r="357" spans="3:3">
-      <c r="C357" s="17"/>
+      <c r="C357" s="22"/>
     </row>
     <row r="358" spans="3:3">
-      <c r="C358" s="17"/>
+      <c r="C358" s="22"/>
     </row>
     <row r="359" spans="3:3">
-      <c r="C359" s="17"/>
+      <c r="C359" s="22"/>
     </row>
     <row r="360" spans="3:3">
-      <c r="C360" s="17"/>
+      <c r="C360" s="22"/>
     </row>
     <row r="361" spans="3:3">
-      <c r="C361" s="17"/>
+      <c r="C361" s="22"/>
     </row>
     <row r="362" spans="3:3">
-      <c r="C362" s="17"/>
+      <c r="C362" s="22"/>
     </row>
     <row r="363" spans="3:3">
-      <c r="C363" s="17"/>
+      <c r="C363" s="22"/>
     </row>
     <row r="364" spans="3:3">
-      <c r="C364" s="17"/>
+      <c r="C364" s="22"/>
     </row>
     <row r="365" spans="3:3">
-      <c r="C365" s="17"/>
+      <c r="C365" s="22"/>
     </row>
     <row r="366" spans="3:3">
-      <c r="C366" s="17"/>
+      <c r="C366" s="22"/>
     </row>
     <row r="367" spans="3:3">
-      <c r="C367" s="17"/>
+      <c r="C367" s="22"/>
     </row>
     <row r="368" spans="3:3">
-      <c r="C368" s="17"/>
+      <c r="C368" s="22"/>
     </row>
     <row r="369" spans="3:3">
-      <c r="C369" s="17"/>
+      <c r="C369" s="22"/>
     </row>
     <row r="370" spans="3:3">
-      <c r="C370" s="17"/>
+      <c r="C370" s="22"/>
     </row>
     <row r="371" spans="3:3">
-      <c r="C371" s="17"/>
+      <c r="C371" s="22"/>
     </row>
     <row r="372" spans="3:3">
-      <c r="C372" s="17"/>
+      <c r="C372" s="22"/>
     </row>
     <row r="373" spans="3:3">
-      <c r="C373" s="17"/>
+      <c r="C373" s="22"/>
     </row>
     <row r="374" spans="3:3">
-      <c r="C374" s="17"/>
+      <c r="C374" s="22"/>
     </row>
     <row r="375" spans="3:3">
-      <c r="C375" s="17"/>
+      <c r="C375" s="22"/>
     </row>
     <row r="376" spans="3:3">
-      <c r="C376" s="17"/>
+      <c r="C376" s="22"/>
     </row>
     <row r="377" spans="3:3">
-      <c r="C377" s="17"/>
+      <c r="C377" s="22"/>
     </row>
     <row r="378" spans="3:3">
-      <c r="C378" s="17"/>
+      <c r="C378" s="22"/>
     </row>
     <row r="379" spans="3:3">
-      <c r="C379" s="17"/>
+      <c r="C379" s="22"/>
     </row>
     <row r="380" spans="3:3">
-      <c r="C380" s="17"/>
+      <c r="C380" s="22"/>
     </row>
     <row r="381" spans="3:3">
-      <c r="C381" s="17"/>
+      <c r="C381" s="22"/>
     </row>
     <row r="382" spans="3:3">
-      <c r="C382" s="17"/>
+      <c r="C382" s="22"/>
     </row>
     <row r="383" spans="3:3">
-      <c r="C383" s="17"/>
+      <c r="C383" s="22"/>
     </row>
     <row r="384" spans="3:3">
-      <c r="C384" s="17"/>
+      <c r="C384" s="22"/>
     </row>
     <row r="385" spans="3:3">
-      <c r="C385" s="17"/>
+      <c r="C385" s="22"/>
     </row>
     <row r="386" spans="3:3">
-      <c r="C386" s="17"/>
+      <c r="C386" s="22"/>
     </row>
     <row r="387" spans="3:3">
-      <c r="C387" s="17"/>
+      <c r="C387" s="22"/>
     </row>
     <row r="388" spans="3:3">
-      <c r="C388" s="17"/>
+      <c r="C388" s="22"/>
     </row>
     <row r="389" spans="3:3">
-      <c r="C389" s="17"/>
+      <c r="C389" s="22"/>
     </row>
     <row r="390" spans="3:3">
-      <c r="C390" s="17"/>
+      <c r="C390" s="22"/>
     </row>
     <row r="391" spans="3:3">
-      <c r="C391" s="17"/>
+      <c r="C391" s="22"/>
     </row>
     <row r="392" spans="3:3">
-      <c r="C392" s="17"/>
+      <c r="C392" s="22"/>
     </row>
     <row r="393" spans="3:3">
-      <c r="C393" s="17"/>
+      <c r="C393" s="22"/>
     </row>
     <row r="394" spans="3:3">
-      <c r="C394" s="17"/>
+      <c r="C394" s="22"/>
     </row>
     <row r="395" spans="3:3">
-      <c r="C395" s="17"/>
+      <c r="C395" s="22"/>
     </row>
     <row r="396" spans="3:3">
-      <c r="C396" s="17"/>
+      <c r="C396" s="22"/>
     </row>
     <row r="397" spans="3:3">
-      <c r="C397" s="17"/>
+      <c r="C397" s="22"/>
     </row>
     <row r="398" spans="3:3">
-      <c r="C398" s="17"/>
+      <c r="C398" s="22"/>
     </row>
     <row r="399" spans="3:3">
-      <c r="C399" s="17"/>
+      <c r="C399" s="22"/>
     </row>
     <row r="400" spans="3:3">
-      <c r="C400" s="17"/>
+      <c r="C400" s="22"/>
     </row>
     <row r="401" spans="3:3">
-      <c r="C401" s="17"/>
+      <c r="C401" s="22"/>
     </row>
     <row r="402" spans="3:3">
-      <c r="C402" s="17"/>
+      <c r="C402" s="22"/>
     </row>
     <row r="403" spans="3:3">
-      <c r="C403" s="17"/>
+      <c r="C403" s="22"/>
     </row>
     <row r="404" spans="3:3">
-      <c r="C404" s="17"/>
+      <c r="C404" s="22"/>
     </row>
     <row r="405" spans="3:3">
-      <c r="C405" s="17"/>
+      <c r="C405" s="22"/>
     </row>
     <row r="406" spans="3:3">
-      <c r="C406" s="17"/>
+      <c r="C406" s="22"/>
     </row>
     <row r="407" spans="3:3">
-      <c r="C407" s="17"/>
+      <c r="C407" s="22"/>
     </row>
     <row r="408" spans="3:3">
-      <c r="C408" s="17"/>
+      <c r="C408" s="22"/>
     </row>
     <row r="409" spans="3:3">
-      <c r="C409" s="17"/>
+      <c r="C409" s="22"/>
     </row>
     <row r="410" spans="3:3">
-      <c r="C410" s="17"/>
+      <c r="C410" s="22"/>
     </row>
     <row r="411" spans="3:3">
-      <c r="C411" s="17"/>
+      <c r="C411" s="22"/>
     </row>
     <row r="412" spans="3:3">
-      <c r="C412" s="17"/>
+      <c r="C412" s="22"/>
     </row>
     <row r="413" spans="3:3">
-      <c r="C413" s="17"/>
+      <c r="C413" s="22"/>
     </row>
     <row r="414" spans="3:3">
-      <c r="C414" s="17"/>
+      <c r="C414" s="22"/>
     </row>
     <row r="415" spans="3:3">
-      <c r="C415" s="17"/>
+      <c r="C415" s="22"/>
     </row>
     <row r="416" spans="3:3">
-      <c r="C416" s="17"/>
+      <c r="C416" s="22"/>
     </row>
     <row r="417" spans="3:3">
-      <c r="C417" s="17"/>
+      <c r="C417" s="22"/>
     </row>
     <row r="418" spans="3:3">
-      <c r="C418" s="17"/>
+      <c r="C418" s="22"/>
     </row>
     <row r="419" spans="3:3">
-      <c r="C419" s="17"/>
+      <c r="C419" s="22"/>
     </row>
     <row r="420" spans="3:3">
-      <c r="C420" s="17"/>
+      <c r="C420" s="22"/>
     </row>
     <row r="421" spans="3:3">
-      <c r="C421" s="17"/>
+      <c r="C421" s="22"/>
     </row>
     <row r="422" spans="3:3">
-      <c r="C422" s="17"/>
+      <c r="C422" s="22"/>
     </row>
     <row r="423" spans="3:3">
-      <c r="C423" s="17"/>
+      <c r="C423" s="22"/>
     </row>
     <row r="424" spans="3:3">
-      <c r="C424" s="17"/>
+      <c r="C424" s="22"/>
     </row>
     <row r="425" spans="3:3">
-      <c r="C425" s="17"/>
+      <c r="C425" s="22"/>
     </row>
     <row r="426" spans="3:3">
-      <c r="C426" s="17"/>
+      <c r="C426" s="22"/>
     </row>
     <row r="427" spans="3:3">
-      <c r="C427" s="17"/>
+      <c r="C427" s="22"/>
     </row>
     <row r="428" spans="3:3">
-      <c r="C428" s="17"/>
+      <c r="C428" s="22"/>
     </row>
     <row r="429" spans="3:3">
-      <c r="C429" s="17"/>
+      <c r="C429" s="22"/>
     </row>
     <row r="430" spans="3:3">
-      <c r="C430" s="17"/>
+      <c r="C430" s="22"/>
     </row>
     <row r="431" spans="3:3">
-      <c r="C431" s="17"/>
+      <c r="C431" s="22"/>
     </row>
     <row r="432" spans="3:3">
-      <c r="C432" s="17"/>
+      <c r="C432" s="22"/>
     </row>
     <row r="433" spans="3:3">
-      <c r="C433" s="17"/>
+      <c r="C433" s="22"/>
     </row>
     <row r="434" spans="3:3">
-      <c r="C434" s="17"/>
+      <c r="C434" s="22"/>
     </row>
     <row r="435" spans="3:3">
-      <c r="C435" s="17"/>
+      <c r="C435" s="22"/>
     </row>
     <row r="436" spans="3:3">
-      <c r="C436" s="17"/>
+      <c r="C436" s="22"/>
     </row>
     <row r="437" spans="3:3">
-      <c r="C437" s="17"/>
+      <c r="C437" s="22"/>
     </row>
     <row r="438" spans="3:3">
-      <c r="C438" s="17"/>
+      <c r="C438" s="22"/>
     </row>
     <row r="439" spans="3:3">
-      <c r="C439" s="17"/>
+      <c r="C439" s="22"/>
     </row>
     <row r="440" spans="3:3">
-      <c r="C440" s="17"/>
+      <c r="C440" s="22"/>
     </row>
     <row r="441" spans="3:3">
-      <c r="C441" s="17"/>
+      <c r="C441" s="22"/>
     </row>
     <row r="442" spans="3:3">
-      <c r="C442" s="17"/>
+      <c r="C442" s="22"/>
     </row>
     <row r="443" spans="3:3">
-      <c r="C443" s="17"/>
+      <c r="C443" s="22"/>
     </row>
     <row r="444" spans="3:3">
-      <c r="C444" s="17"/>
+      <c r="C444" s="22"/>
     </row>
     <row r="445" spans="3:3">
-      <c r="C445" s="17"/>
+      <c r="C445" s="22"/>
     </row>
     <row r="446" spans="3:3">
-      <c r="C446" s="17"/>
+      <c r="C446" s="22"/>
     </row>
     <row r="447" spans="3:3">
-      <c r="C447" s="17"/>
+      <c r="C447" s="22"/>
     </row>
     <row r="448" spans="3:3">
-      <c r="C448" s="17"/>
+      <c r="C448" s="22"/>
     </row>
     <row r="449" spans="3:3">
-      <c r="C449" s="17"/>
+      <c r="C449" s="22"/>
     </row>
     <row r="450" spans="3:3">
-      <c r="C450" s="17"/>
+      <c r="C450" s="22"/>
     </row>
     <row r="451" spans="3:3">
-      <c r="C451" s="17"/>
+      <c r="C451" s="22"/>
     </row>
     <row r="452" spans="3:3">
-      <c r="C452" s="17"/>
+      <c r="C452" s="22"/>
     </row>
     <row r="453" spans="3:3">
-      <c r="C453" s="17"/>
+      <c r="C453" s="22"/>
     </row>
     <row r="454" spans="3:3">
-      <c r="C454" s="17"/>
+      <c r="C454" s="22"/>
     </row>
     <row r="455" spans="3:3">
-      <c r="C455" s="17"/>
+      <c r="C455" s="22"/>
     </row>
     <row r="456" spans="3:3">
-      <c r="C456" s="17"/>
+      <c r="C456" s="22"/>
     </row>
     <row r="457" spans="3:3">
-      <c r="C457" s="17"/>
+      <c r="C457" s="22"/>
     </row>
     <row r="458" spans="3:3">
-      <c r="C458" s="17"/>
+      <c r="C458" s="22"/>
     </row>
     <row r="459" spans="3:3">
-      <c r="C459" s="17"/>
+      <c r="C459" s="22"/>
     </row>
     <row r="460" spans="3:3">
-      <c r="C460" s="17"/>
+      <c r="C460" s="22"/>
     </row>
     <row r="461" spans="3:3">
-      <c r="C461" s="17"/>
+      <c r="C461" s="22"/>
     </row>
     <row r="462" spans="3:3">
-      <c r="C462" s="17"/>
+      <c r="C462" s="22"/>
     </row>
     <row r="463" spans="3:3">
-      <c r="C463" s="17"/>
+      <c r="C463" s="22"/>
     </row>
     <row r="464" spans="3:3">
-      <c r="C464" s="17"/>
+      <c r="C464" s="22"/>
     </row>
     <row r="465" spans="3:3">
-      <c r="C465" s="17"/>
+      <c r="C465" s="22"/>
     </row>
     <row r="466" spans="3:3">
-      <c r="C466" s="17"/>
+      <c r="C466" s="22"/>
     </row>
     <row r="467" spans="3:3">
-      <c r="C467" s="17"/>
+      <c r="C467" s="22"/>
     </row>
     <row r="468" spans="3:3">
-      <c r="C468" s="17"/>
+      <c r="C468" s="22"/>
     </row>
     <row r="469" spans="3:3">
-      <c r="C469" s="17"/>
+      <c r="C469" s="22"/>
     </row>
     <row r="470" spans="3:3">
-      <c r="C470" s="17"/>
+      <c r="C470" s="22"/>
     </row>
     <row r="471" spans="3:3">
-      <c r="C471" s="17"/>
+      <c r="C471" s="22"/>
     </row>
     <row r="472" spans="3:3">
-      <c r="C472" s="17"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="3:3">
-      <c r="C473" s="17"/>
+      <c r="C473" s="22"/>
     </row>
     <row r="474" spans="3:3">
-      <c r="C474" s="17"/>
+      <c r="C474" s="22"/>
     </row>
     <row r="475" spans="3:3">
-      <c r="C475" s="17"/>
+      <c r="C475" s="22"/>
     </row>
     <row r="476" spans="3:3">
-      <c r="C476" s="17"/>
+      <c r="C476" s="22"/>
     </row>
     <row r="477" spans="3:3">
-      <c r="C477" s="17"/>
+      <c r="C477" s="22"/>
     </row>
     <row r="478" spans="3:3">
-      <c r="C478" s="17"/>
+      <c r="C478" s="22"/>
     </row>
     <row r="479" spans="3:3">
-      <c r="C479" s="17"/>
+      <c r="C479" s="22"/>
     </row>
     <row r="480" spans="3:3">
-      <c r="C480" s="17"/>
+      <c r="C480" s="22"/>
     </row>
     <row r="481" spans="3:3">
-      <c r="C481" s="17"/>
+      <c r="C481" s="22"/>
     </row>
     <row r="482" spans="3:3">
-      <c r="C482" s="17"/>
+      <c r="C482" s="22"/>
     </row>
     <row r="483" spans="3:3">
-      <c r="C483" s="17"/>
+      <c r="C483" s="22"/>
     </row>
     <row r="484" spans="3:3">
-      <c r="C484" s="17"/>
+      <c r="C484" s="22"/>
     </row>
     <row r="485" spans="3:3">
-      <c r="C485" s="17"/>
+      <c r="C485" s="22"/>
     </row>
     <row r="486" spans="3:3">
-      <c r="C486" s="17"/>
+      <c r="C486" s="22"/>
     </row>
     <row r="487" spans="3:3">
-      <c r="C487" s="17"/>
+      <c r="C487" s="22"/>
     </row>
     <row r="488" spans="3:3">
-      <c r="C488" s="17"/>
+      <c r="C488" s="22"/>
     </row>
     <row r="489" spans="3:3">
-      <c r="C489" s="17"/>
+      <c r="C489" s="22"/>
     </row>
     <row r="490" spans="3:3">
-      <c r="C490" s="17"/>
+      <c r="C490" s="22"/>
     </row>
     <row r="491" spans="3:3">
-      <c r="C491" s="17"/>
+      <c r="C491" s="22"/>
     </row>
     <row r="492" spans="3:3">
-      <c r="C492" s="17"/>
+      <c r="C492" s="22"/>
     </row>
     <row r="493" spans="3:3">
-      <c r="C493" s="17"/>
+      <c r="C493" s="22"/>
     </row>
     <row r="494" spans="3:3">
-      <c r="C494" s="17"/>
+      <c r="C494" s="22"/>
     </row>
     <row r="495" spans="3:3">
-      <c r="C495" s="17"/>
+      <c r="C495" s="22"/>
     </row>
     <row r="496" spans="3:3">
-      <c r="C496" s="17"/>
+      <c r="C496" s="22"/>
     </row>
     <row r="497" spans="3:3">
-      <c r="C497" s="17"/>
+      <c r="C497" s="22"/>
     </row>
     <row r="498" spans="3:3">
-      <c r="C498" s="17"/>
+      <c r="C498" s="22"/>
     </row>
     <row r="499" spans="3:3">
-      <c r="C499" s="17"/>
+      <c r="C499" s="22"/>
     </row>
     <row r="500" spans="3:3">
-      <c r="C500" s="17"/>
+      <c r="C500" s="22"/>
     </row>
     <row r="501" spans="3:3">
-      <c r="C501" s="17"/>
+      <c r="C501" s="22"/>
     </row>
     <row r="502" spans="3:3">
-      <c r="C502" s="17"/>
+      <c r="C502" s="22"/>
     </row>
     <row r="503" spans="3:3">
-      <c r="C503" s="17"/>
+      <c r="C503" s="22"/>
     </row>
     <row r="504" spans="3:3">
-      <c r="C504" s="17"/>
+      <c r="C504" s="22"/>
     </row>
     <row r="505" spans="3:3">
-      <c r="C505" s="17"/>
+      <c r="C505" s="22"/>
     </row>
     <row r="506" spans="3:3">
-      <c r="C506" s="17"/>
+      <c r="C506" s="22"/>
     </row>
     <row r="507" spans="3:3">
-      <c r="C507" s="17"/>
+      <c r="C507" s="22"/>
     </row>
     <row r="508" spans="3:3">
-      <c r="C508" s="17"/>
+      <c r="C508" s="22"/>
     </row>
     <row r="509" spans="3:3">
-      <c r="C509" s="17"/>
+      <c r="C509" s="22"/>
     </row>
     <row r="510" spans="3:3">
-      <c r="C510" s="17"/>
+      <c r="C510" s="22"/>
     </row>
     <row r="511" spans="3:3">
-      <c r="C511" s="17"/>
+      <c r="C511" s="22"/>
     </row>
     <row r="512" spans="3:3">
-      <c r="C512" s="17"/>
+      <c r="C512" s="22"/>
     </row>
     <row r="513" spans="3:3">
-      <c r="C513" s="17"/>
+      <c r="C513" s="22"/>
     </row>
     <row r="514" spans="3:3">
-      <c r="C514" s="17"/>
+      <c r="C514" s="22"/>
     </row>
     <row r="515" spans="3:3">
-      <c r="C515" s="17"/>
+      <c r="C515" s="22"/>
     </row>
     <row r="516" spans="3:3">
-      <c r="C516" s="17"/>
+      <c r="C516" s="22"/>
     </row>
     <row r="517" spans="3:3">
-      <c r="C517" s="17"/>
+      <c r="C517" s="22"/>
     </row>
     <row r="518" spans="3:3">
-      <c r="C518" s="17"/>
+      <c r="C518" s="22"/>
     </row>
     <row r="519" spans="3:3">
-      <c r="C519" s="17"/>
+      <c r="C519" s="22"/>
     </row>
     <row r="520" spans="3:3">
-      <c r="C520" s="17"/>
+      <c r="C520" s="22"/>
     </row>
     <row r="521" spans="3:3">
-      <c r="C521" s="17"/>
+      <c r="C521" s="22"/>
     </row>
     <row r="522" spans="3:3">
-      <c r="C522" s="17"/>
+      <c r="C522" s="22"/>
     </row>
     <row r="523" spans="3:3">
-      <c r="C523" s="17"/>
+      <c r="C523" s="22"/>
     </row>
     <row r="524" spans="3:3">
-      <c r="C524" s="17"/>
+      <c r="C524" s="22"/>
     </row>
     <row r="525" spans="3:3">
-      <c r="C525" s="17"/>
+      <c r="C525" s="22"/>
     </row>
     <row r="526" spans="3:3">
-      <c r="C526" s="17"/>
+      <c r="C526" s="22"/>
     </row>
     <row r="527" spans="3:3">
-      <c r="C527" s="17"/>
+      <c r="C527" s="22"/>
     </row>
     <row r="528" spans="3:3">
-      <c r="C528" s="17"/>
+      <c r="C528" s="22"/>
     </row>
     <row r="529" spans="3:3">
-      <c r="C529" s="17"/>
+      <c r="C529" s="22"/>
     </row>
     <row r="530" spans="3:3">
-      <c r="C530" s="17"/>
+      <c r="C530" s="22"/>
     </row>
     <row r="531" spans="3:3">
-      <c r="C531" s="17"/>
+      <c r="C531" s="22"/>
     </row>
     <row r="532" spans="3:3">
-      <c r="C532" s="17"/>
+      <c r="C532" s="22"/>
     </row>
     <row r="533" spans="3:3">
-      <c r="C533" s="17"/>
+      <c r="C533" s="22"/>
     </row>
     <row r="534" spans="3:3">
-      <c r="C534" s="17"/>
+      <c r="C534" s="22"/>
     </row>
     <row r="535" spans="3:3">
-      <c r="C535" s="17"/>
+      <c r="C535" s="22"/>
     </row>
     <row r="536" spans="3:3">
-      <c r="C536" s="17"/>
+      <c r="C536" s="22"/>
     </row>
     <row r="537" spans="3:3">
-      <c r="C537" s="17"/>
+      <c r="C537" s="22"/>
     </row>
     <row r="538" spans="3:3">
-      <c r="C538" s="17"/>
+      <c r="C538" s="22"/>
     </row>
     <row r="539" spans="3:3">
-      <c r="C539" s="17"/>
+      <c r="C539" s="22"/>
     </row>
     <row r="540" spans="3:3">
-      <c r="C540" s="17"/>
+      <c r="C540" s="22"/>
     </row>
     <row r="541" spans="3:3">
-      <c r="C541" s="17"/>
+      <c r="C541" s="22"/>
     </row>
     <row r="542" spans="3:3">
-      <c r="C542" s="17"/>
+      <c r="C542" s="22"/>
     </row>
     <row r="543" spans="3:3">
-      <c r="C543" s="17"/>
+      <c r="C543" s="22"/>
     </row>
     <row r="544" spans="3:3">
-      <c r="C544" s="17"/>
+      <c r="C544" s="22"/>
     </row>
     <row r="545" spans="3:3">
-      <c r="C545" s="17"/>
+      <c r="C545" s="22"/>
     </row>
     <row r="546" spans="3:3">
-      <c r="C546" s="17"/>
+      <c r="C546" s="22"/>
     </row>
     <row r="547" spans="3:3">
-      <c r="C547" s="17"/>
+      <c r="C547" s="22"/>
     </row>
     <row r="548" spans="3:3">
-      <c r="C548" s="17"/>
+      <c r="C548" s="22"/>
     </row>
     <row r="549" spans="3:3">
-      <c r="C549" s="17"/>
+      <c r="C549" s="22"/>
     </row>
     <row r="550" spans="3:3">
-      <c r="C550" s="17"/>
+      <c r="C550" s="22"/>
     </row>
     <row r="551" spans="3:3">
-      <c r="C551" s="17"/>
+      <c r="C551" s="22"/>
     </row>
     <row r="552" spans="3:3">
-      <c r="C552" s="17"/>
+      <c r="C552" s="22"/>
     </row>
     <row r="553" spans="3:3">
-      <c r="C553" s="17"/>
+      <c r="C553" s="22"/>
     </row>
     <row r="554" spans="3:3">
-      <c r="C554" s="17"/>
+      <c r="C554" s="22"/>
     </row>
     <row r="555" spans="3:3">
-      <c r="C555" s="17"/>
+      <c r="C555" s="22"/>
     </row>
     <row r="556" spans="3:3">
-      <c r="C556" s="17"/>
+      <c r="C556" s="22"/>
     </row>
     <row r="557" spans="3:3">
-      <c r="C557" s="17"/>
+      <c r="C557" s="22"/>
     </row>
     <row r="558" spans="3:3">
-      <c r="C558" s="17"/>
+      <c r="C558" s="22"/>
     </row>
     <row r="559" spans="3:3">
-      <c r="C559" s="17"/>
+      <c r="C559" s="22"/>
     </row>
     <row r="560" spans="3:3">
-      <c r="C560" s="17"/>
+      <c r="C560" s="22"/>
     </row>
     <row r="561" spans="3:3">
-      <c r="C561" s="17"/>
+      <c r="C561" s="22"/>
     </row>
     <row r="562" spans="3:3">
-      <c r="C562" s="17"/>
+      <c r="C562" s="22"/>
     </row>
     <row r="563" spans="3:3">
-      <c r="C563" s="18"/>
+      <c r="C563" s="23"/>
     </row>
     <row r="564" spans="3:3">
-      <c r="C564" s="18"/>
+      <c r="C564" s="23"/>
     </row>
     <row r="565" spans="3:3">
-      <c r="C565" s="19"/>
+      <c r="C565" s="24"/>
     </row>
     <row r="566" spans="3:3">
-      <c r="C566" s="19"/>
+      <c r="C566" s="24"/>
     </row>
     <row r="567" spans="3:3">
-      <c r="C567" s="19"/>
+      <c r="C567" s="24"/>
     </row>
     <row r="568" spans="3:3">
-      <c r="C568" s="19"/>
+      <c r="C568" s="24"/>
     </row>
     <row r="569" spans="3:3">
-      <c r="C569" s="19"/>
+      <c r="C569" s="24"/>
     </row>
     <row r="570" spans="3:3">
-      <c r="C570" s="19"/>
+      <c r="C570" s="24"/>
     </row>
     <row r="571" spans="3:3">
-      <c r="C571" s="19"/>
+      <c r="C571" s="24"/>
     </row>
     <row r="572" spans="3:3">
-      <c r="C572" s="19"/>
+      <c r="C572" s="24"/>
     </row>
     <row r="573" spans="3:3">
-      <c r="C573" s="19"/>
+      <c r="C573" s="24"/>
     </row>
     <row r="574" spans="3:3">
-      <c r="C574" s="19"/>
+      <c r="C574" s="24"/>
     </row>
     <row r="575" spans="3:3">
-      <c r="C575" s="19"/>
+      <c r="C575" s="24"/>
     </row>
     <row r="576" spans="3:3">
-      <c r="C576" s="19"/>
+      <c r="C576" s="24"/>
     </row>
     <row r="577" spans="3:3">
-      <c r="C577" s="19"/>
+      <c r="C577" s="24"/>
     </row>
     <row r="578" spans="3:3">
-      <c r="C578" s="19"/>
+      <c r="C578" s="24"/>
     </row>
     <row r="579" spans="3:3">
-      <c r="C579" s="19"/>
+      <c r="C579" s="24"/>
     </row>
     <row r="580" spans="3:3">
-      <c r="C580" s="19"/>
+      <c r="C580" s="24"/>
     </row>
     <row r="581" spans="3:3">
-      <c r="C581" s="19"/>
+      <c r="C581" s="24"/>
     </row>
     <row r="582" spans="3:3">
-      <c r="C582" s="19"/>
+      <c r="C582" s="24"/>
     </row>
     <row r="583" spans="3:3">
-      <c r="C583" s="19"/>
+      <c r="C583" s="24"/>
     </row>
     <row r="584" spans="3:3">
-      <c r="C584" s="19"/>
+      <c r="C584" s="24"/>
     </row>
     <row r="585" spans="3:3">
-      <c r="C585" s="19"/>
+      <c r="C585" s="24"/>
     </row>
     <row r="586" spans="3:3">
-      <c r="C586" s="19"/>
+      <c r="C586" s="24"/>
     </row>
     <row r="587" spans="3:3">
-      <c r="C587" s="19"/>
+      <c r="C587" s="24"/>
     </row>
     <row r="588" spans="3:3">
-      <c r="C588" s="19"/>
+      <c r="C588" s="24"/>
     </row>
     <row r="589" spans="3:3">
-      <c r="C589" s="19"/>
+      <c r="C589" s="24"/>
     </row>
     <row r="590" spans="3:3">
-      <c r="C590" s="19"/>
+      <c r="C590" s="24"/>
     </row>
     <row r="591" spans="3:3">
-      <c r="C591" s="19"/>
+      <c r="C591" s="24"/>
     </row>
     <row r="592" spans="3:3">
-      <c r="C592" s="19"/>
+      <c r="C592" s="24"/>
     </row>
     <row r="593" spans="3:3">
-      <c r="C593" s="19"/>
+      <c r="C593" s="24"/>
     </row>
     <row r="594" spans="3:3">
-      <c r="C594" s="19"/>
+      <c r="C594" s="24"/>
     </row>
     <row r="595" spans="3:3">
-      <c r="C595" s="19"/>
+      <c r="C595" s="24"/>
     </row>
     <row r="596" spans="3:3">
-      <c r="C596" s="19"/>
+      <c r="C596" s="24"/>
     </row>
     <row r="597" spans="3:3">
-      <c r="C597" s="19"/>
+      <c r="C597" s="24"/>
     </row>
     <row r="598" spans="3:3">
-      <c r="C598" s="19"/>
+      <c r="C598" s="24"/>
     </row>
     <row r="599" spans="3:3">
-      <c r="C599" s="19"/>
+      <c r="C599" s="24"/>
     </row>
     <row r="600" spans="3:3">
-      <c r="C600" s="19"/>
+      <c r="C600" s="24"/>
     </row>
     <row r="601" spans="3:3">
-      <c r="C601" s="19"/>
+      <c r="C601" s="24"/>
     </row>
     <row r="602" spans="3:3">
-      <c r="C602" s="19"/>
+      <c r="C602" s="24"/>
     </row>
     <row r="603" spans="3:3">
-      <c r="C603" s="19"/>
+      <c r="C603" s="24"/>
     </row>
     <row r="604" spans="3:3">
-      <c r="C604" s="19"/>
+      <c r="C604" s="24"/>
     </row>
     <row r="605" spans="3:3">
-      <c r="C605" s="19"/>
+      <c r="C605" s="24"/>
     </row>
     <row r="606" spans="3:3">
-      <c r="C606" s="19"/>
+      <c r="C606" s="24"/>
     </row>
     <row r="607" spans="3:3">
-      <c r="C607" s="19"/>
+      <c r="C607" s="24"/>
     </row>
     <row r="608" spans="3:3">
-      <c r="C608" s="19"/>
+      <c r="C608" s="24"/>
     </row>
     <row r="609" spans="3:3">
-      <c r="C609" s="19"/>
+      <c r="C609" s="24"/>
     </row>
     <row r="610" spans="3:3">
-      <c r="C610" s="19"/>
+      <c r="C610" s="24"/>
     </row>
     <row r="611" spans="3:3">
-      <c r="C611" s="19"/>
+      <c r="C611" s="24"/>
     </row>
     <row r="612" spans="3:3">
-      <c r="C612" s="19"/>
+      <c r="C612" s="24"/>
     </row>
     <row r="613" spans="3:3">
-      <c r="C613" s="19"/>
+      <c r="C613" s="24"/>
     </row>
     <row r="614" spans="3:3">
-      <c r="C614" s="19"/>
+      <c r="C614" s="24"/>
     </row>
     <row r="615" spans="3:3">
-      <c r="C615" s="19"/>
+      <c r="C615" s="24"/>
     </row>
     <row r="616" spans="3:3">
-      <c r="C616" s="19"/>
+      <c r="C616" s="24"/>
     </row>
     <row r="617" spans="3:3">
-      <c r="C617" s="19"/>
+      <c r="C617" s="24"/>
     </row>
     <row r="618" spans="3:3">
-      <c r="C618" s="19"/>
+      <c r="C618" s="24"/>
     </row>
     <row r="619" spans="3:3">
-      <c r="C619" s="19"/>
+      <c r="C619" s="24"/>
     </row>
     <row r="620" spans="3:3">
-      <c r="C620" s="19"/>
+      <c r="C620" s="24"/>
     </row>
     <row r="621" spans="3:3">
-      <c r="C621" s="19"/>
+      <c r="C621" s="24"/>
     </row>
     <row r="622" spans="3:3">
-      <c r="C622" s="19"/>
+      <c r="C622" s="24"/>
     </row>
     <row r="623" spans="3:3">
-      <c r="C623" s="19"/>
+      <c r="C623" s="24"/>
     </row>
     <row r="624" spans="3:3">
-      <c r="C624" s="19"/>
+      <c r="C624" s="24"/>
     </row>
     <row r="625" spans="3:3">
-      <c r="C625" s="19"/>
+      <c r="C625" s="24"/>
     </row>
     <row r="626" spans="3:3">
-      <c r="C626" s="19"/>
+      <c r="C626" s="24"/>
     </row>
     <row r="627" spans="3:3">
-      <c r="C627" s="19"/>
+      <c r="C627" s="24"/>
     </row>
     <row r="628" spans="3:3">
-      <c r="C628" s="19"/>
+      <c r="C628" s="24"/>
     </row>
     <row r="629" spans="3:3">
-      <c r="C629" s="19"/>
+      <c r="C629" s="24"/>
     </row>
     <row r="630" spans="3:3">
-      <c r="C630" s="19"/>
+      <c r="C630" s="24"/>
     </row>
     <row r="631" spans="3:3">
-      <c r="C631" s="19"/>
+      <c r="C631" s="24"/>
     </row>
     <row r="632" spans="3:3">
-      <c r="C632" s="19"/>
+      <c r="C632" s="24"/>
     </row>
     <row r="633" spans="3:3">
-      <c r="C633" s="19"/>
+      <c r="C633" s="24"/>
     </row>
     <row r="634" spans="3:3">
-      <c r="C634" s="19"/>
+      <c r="C634" s="24"/>
     </row>
     <row r="635" spans="3:3">
-      <c r="C635" s="19"/>
+      <c r="C635" s="24"/>
     </row>
     <row r="636" spans="3:3">
-      <c r="C636" s="19"/>
+      <c r="C636" s="24"/>
     </row>
     <row r="637" spans="3:3">
-      <c r="C637" s="19"/>
+      <c r="C637" s="24"/>
     </row>
     <row r="638" spans="3:3">
-      <c r="C638" s="19"/>
+      <c r="C638" s="24"/>
     </row>
     <row r="639" spans="3:3">
-      <c r="C639" s="19"/>
+      <c r="C639" s="24"/>
     </row>
     <row r="640" spans="3:3">
-      <c r="C640" s="19"/>
+      <c r="C640" s="24"/>
     </row>
     <row r="641" spans="3:3">
-      <c r="C641" s="19"/>
+      <c r="C641" s="24"/>
     </row>
     <row r="642" spans="3:3">
-      <c r="C642" s="19"/>
+      <c r="C642" s="24"/>
     </row>
     <row r="643" spans="3:3">
-      <c r="C643" s="19"/>
+      <c r="C643" s="24"/>
     </row>
     <row r="644" spans="3:3">
-      <c r="C644" s="19"/>
+      <c r="C644" s="24"/>
     </row>
     <row r="645" spans="3:3">
-      <c r="C645" s="19"/>
+      <c r="C645" s="24"/>
     </row>
     <row r="646" spans="3:3">
-      <c r="C646" s="19"/>
+      <c r="C646" s="24"/>
     </row>
     <row r="647" spans="3:3">
-      <c r="C647" s="19"/>
+      <c r="C647" s="24"/>
     </row>
     <row r="648" spans="3:3">
-      <c r="C648" s="19"/>
+      <c r="C648" s="24"/>
     </row>
     <row r="649" spans="3:3">
-      <c r="C649" s="19"/>
+      <c r="C649" s="24"/>
     </row>
     <row r="650" spans="3:3">
-      <c r="C650" s="19"/>
+      <c r="C650" s="24"/>
     </row>
     <row r="651" spans="3:3">
-      <c r="C651" s="19"/>
+      <c r="C651" s="24"/>
     </row>
     <row r="652" spans="3:3">
-      <c r="C652" s="19"/>
+      <c r="C652" s="24"/>
     </row>
     <row r="653" spans="3:3">
-      <c r="C653" s="19"/>
+      <c r="C653" s="24"/>
     </row>
     <row r="654" spans="3:3">
-      <c r="C654" s="19"/>
+      <c r="C654" s="24"/>
     </row>
     <row r="655" spans="3:3">
-      <c r="C655" s="19"/>
+      <c r="C655" s="24"/>
     </row>
     <row r="656" spans="3:3">
-      <c r="C656" s="19"/>
+      <c r="C656" s="24"/>
     </row>
     <row r="657" spans="3:3">
-      <c r="C657" s="19"/>
+      <c r="C657" s="24"/>
     </row>
     <row r="658" spans="3:3">
-      <c r="C658" s="19"/>
+      <c r="C658" s="24"/>
     </row>
     <row r="659" spans="3:3">
-      <c r="C659" s="19"/>
+      <c r="C659" s="24"/>
     </row>
     <row r="660" spans="3:3">
-      <c r="C660" s="19"/>
+      <c r="C660" s="24"/>
     </row>
     <row r="661" spans="3:3">
-      <c r="C661" s="19"/>
+      <c r="C661" s="24"/>
     </row>
     <row r="662" spans="3:3">
-      <c r="C662" s="19"/>
+      <c r="C662" s="24"/>
     </row>
     <row r="663" spans="3:3">
-      <c r="C663" s="19"/>
+      <c r="C663" s="24"/>
     </row>
     <row r="664" spans="3:3">
-      <c r="C664" s="19"/>
+      <c r="C664" s="24"/>
     </row>
     <row r="665" spans="3:3">
-      <c r="C665" s="19"/>
+      <c r="C665" s="24"/>
     </row>
     <row r="666" spans="3:3">
-      <c r="C666" s="19"/>
+      <c r="C666" s="24"/>
     </row>
     <row r="667" spans="3:3">
-      <c r="C667" s="19"/>
+      <c r="C667" s="24"/>
     </row>
     <row r="668" spans="3:3">
-      <c r="C668" s="19"/>
+      <c r="C668" s="24"/>
     </row>
     <row r="669" spans="3:3">
-      <c r="C669" s="19"/>
+      <c r="C669" s="24"/>
     </row>
     <row r="670" spans="3:3">
-      <c r="C670" s="19"/>
+      <c r="C670" s="24"/>
     </row>
     <row r="671" spans="3:3">
-      <c r="C671" s="19"/>
+      <c r="C671" s="24"/>
     </row>
     <row r="672" spans="3:3">
-      <c r="C672" s="19"/>
+      <c r="C672" s="24"/>
     </row>
     <row r="673" spans="3:3">
-      <c r="C673" s="19"/>
+      <c r="C673" s="24"/>
     </row>
     <row r="674" spans="3:3">
-      <c r="C674" s="19"/>
+      <c r="C674" s="24"/>
     </row>
     <row r="675" spans="3:3">
-      <c r="C675" s="19"/>
+      <c r="C675" s="24"/>
     </row>
     <row r="676" spans="3:3">
-      <c r="C676" s="19"/>
+      <c r="C676" s="24"/>
     </row>
     <row r="677" spans="3:3">
-      <c r="C677" s="19"/>
+      <c r="C677" s="24"/>
     </row>
     <row r="678" spans="3:3">
-      <c r="C678" s="19"/>
+      <c r="C678" s="24"/>
     </row>
     <row r="679" spans="3:3">
-      <c r="C679" s="19"/>
+      <c r="C679" s="24"/>
     </row>
     <row r="680" spans="3:3">
-      <c r="C680" s="19"/>
+      <c r="C680" s="24"/>
     </row>
     <row r="681" spans="3:3">
-      <c r="C681" s="19"/>
+      <c r="C681" s="24"/>
     </row>
     <row r="682" spans="3:3">
-      <c r="C682" s="19"/>
+      <c r="C682" s="24"/>
     </row>
     <row r="683" spans="3:3">
-      <c r="C683" s="19"/>
+      <c r="C683" s="24"/>
     </row>
     <row r="684" spans="3:3">
-      <c r="C684" s="19"/>
+      <c r="C684" s="24"/>
     </row>
     <row r="685" spans="3:3">
-      <c r="C685" s="19"/>
+      <c r="C685" s="24"/>
     </row>
     <row r="686" spans="3:3">
-      <c r="C686" s="19"/>
+      <c r="C686" s="24"/>
     </row>
     <row r="687" spans="3:3">
-      <c r="C687" s="19"/>
+      <c r="C687" s="24"/>
     </row>
     <row r="688" spans="3:3">
-      <c r="C688" s="19"/>
+      <c r="C688" s="24"/>
     </row>
     <row r="689" spans="3:3">
-      <c r="C689" s="19"/>
+      <c r="C689" s="24"/>
     </row>
     <row r="690" spans="3:3">
-      <c r="C690" s="19"/>
+      <c r="C690" s="24"/>
     </row>
     <row r="691" spans="3:3">
-      <c r="C691" s="19"/>
+      <c r="C691" s="24"/>
     </row>
     <row r="692" spans="3:3">
-      <c r="C692" s="19"/>
+      <c r="C692" s="24"/>
     </row>
     <row r="693" spans="3:3">
-      <c r="C693" s="19"/>
+      <c r="C693" s="24"/>
     </row>
     <row r="694" spans="3:3">
-      <c r="C694" s="19"/>
+      <c r="C694" s="24"/>
     </row>
     <row r="695" spans="3:3">
-      <c r="C695" s="19"/>
+      <c r="C695" s="24"/>
     </row>
     <row r="696" spans="3:3">
-      <c r="C696" s="19"/>
+      <c r="C696" s="24"/>
     </row>
     <row r="697" spans="3:3">
-      <c r="C697" s="19"/>
+      <c r="C697" s="24"/>
     </row>
     <row r="698" spans="3:3">
-      <c r="C698" s="19"/>
+      <c r="C698" s="24"/>
     </row>
     <row r="699" spans="3:3">
-      <c r="C699" s="19"/>
+      <c r="C699" s="24"/>
     </row>
     <row r="700" spans="3:3">
-      <c r="C700" s="19"/>
+      <c r="C700" s="24"/>
     </row>
     <row r="701" spans="3:3">
-      <c r="C701" s="19"/>
+      <c r="C701" s="24"/>
     </row>
     <row r="702" spans="3:3">
-      <c r="C702" s="19"/>
+      <c r="C702" s="24"/>
     </row>
     <row r="703" spans="3:3">
-      <c r="C703" s="19"/>
+      <c r="C703" s="24"/>
     </row>
     <row r="704" spans="3:3">
-      <c r="C704" s="19"/>
+      <c r="C704" s="24"/>
     </row>
     <row r="705" spans="3:3">
-      <c r="C705" s="19"/>
+      <c r="C705" s="24"/>
     </row>
     <row r="706" spans="3:3">
-      <c r="C706" s="19"/>
+      <c r="C706" s="24"/>
     </row>
     <row r="707" spans="3:3">
-      <c r="C707" s="19"/>
+      <c r="C707" s="24"/>
     </row>
     <row r="708" spans="3:3">
-      <c r="C708" s="19"/>
+      <c r="C708" s="24"/>
     </row>
     <row r="709" spans="3:3">
-      <c r="C709" s="19"/>
+      <c r="C709" s="24"/>
     </row>
     <row r="710" spans="3:3">
-      <c r="C710" s="19"/>
+      <c r="C710" s="24"/>
     </row>
     <row r="711" spans="3:3">
-      <c r="C711" s="19"/>
+      <c r="C711" s="24"/>
     </row>
     <row r="712" spans="3:3">
-      <c r="C712" s="19"/>
+      <c r="C712" s="24"/>
     </row>
     <row r="713" spans="3:3">
-      <c r="C713" s="19"/>
+      <c r="C713" s="24"/>
     </row>
     <row r="714" spans="3:3">
-      <c r="C714" s="19"/>
+      <c r="C714" s="24"/>
     </row>
     <row r="715" spans="3:3">
-      <c r="C715" s="19"/>
+      <c r="C715" s="24"/>
     </row>
     <row r="716" spans="3:3">
-      <c r="C716" s="19"/>
+      <c r="C716" s="24"/>
     </row>
     <row r="717" spans="3:3">
-      <c r="C717" s="19"/>
+      <c r="C717" s="24"/>
     </row>
     <row r="718" spans="3:3">
-      <c r="C718" s="19"/>
+      <c r="C718" s="24"/>
     </row>
     <row r="719" spans="3:3">
-      <c r="C719" s="19"/>
+      <c r="C719" s="24"/>
     </row>
     <row r="720" spans="3:3">
-      <c r="C720" s="19"/>
+      <c r="C720" s="24"/>
     </row>
     <row r="721" spans="3:3">
-      <c r="C721" s="19"/>
+      <c r="C721" s="24"/>
     </row>
     <row r="722" spans="3:3">
-      <c r="C722" s="19"/>
+      <c r="C722" s="24"/>
     </row>
     <row r="723" spans="3:3">
-      <c r="C723" s="19"/>
+      <c r="C723" s="24"/>
     </row>
     <row r="724" spans="3:3">
-      <c r="C724" s="19"/>
+      <c r="C724" s="24"/>
     </row>
     <row r="725" spans="3:3">
-      <c r="C725" s="19"/>
+      <c r="C725" s="24"/>
     </row>
     <row r="726" spans="3:3">
-      <c r="C726" s="19"/>
+      <c r="C726" s="24"/>
     </row>
     <row r="727" spans="3:3">
-      <c r="C727" s="19"/>
+      <c r="C727" s="24"/>
     </row>
     <row r="728" spans="3:3">
-      <c r="C728" s="19"/>
+      <c r="C728" s="24"/>
     </row>
     <row r="729" spans="3:3">
-      <c r="C729" s="19"/>
+      <c r="C729" s="24"/>
     </row>
     <row r="730" spans="3:3">
-      <c r="C730" s="19"/>
+      <c r="C730" s="24"/>
     </row>
     <row r="731" spans="3:3">
-      <c r="C731" s="19"/>
+      <c r="C731" s="24"/>
     </row>
     <row r="732" spans="3:3">
-      <c r="C732" s="19"/>
+      <c r="C732" s="24"/>
     </row>
     <row r="733" spans="3:3">
-      <c r="C733" s="19"/>
+      <c r="C733" s="24"/>
     </row>
     <row r="734" spans="3:3">
-      <c r="C734" s="19"/>
+      <c r="C734" s="24"/>
     </row>
     <row r="735" spans="3:3">
-      <c r="C735" s="19"/>
+      <c r="C735" s="24"/>
     </row>
     <row r="736" spans="3:3">
-      <c r="C736" s="19"/>
+      <c r="C736" s="24"/>
     </row>
     <row r="737" spans="3:3">
-      <c r="C737" s="19"/>
+      <c r="C737" s="24"/>
     </row>
     <row r="738" spans="3:3">
-      <c r="C738" s="19"/>
+      <c r="C738" s="24"/>
     </row>
     <row r="739" spans="3:3">
-      <c r="C739" s="19"/>
+      <c r="C739" s="24"/>
     </row>
     <row r="740" spans="3:3">
-      <c r="C740" s="19"/>
+      <c r="C740" s="24"/>
     </row>
     <row r="741" spans="3:3">
-      <c r="C741" s="19"/>
+      <c r="C741" s="24"/>
     </row>
     <row r="742" spans="3:3">
-      <c r="C742" s="19"/>
+      <c r="C742" s="24"/>
     </row>
     <row r="743" spans="3:3">
-      <c r="C743" s="19"/>
+      <c r="C743" s="24"/>
     </row>
     <row r="744" spans="3:3">
-      <c r="C744" s="19"/>
+      <c r="C744" s="24"/>
     </row>
     <row r="745" spans="3:3">
-      <c r="C745" s="19"/>
+      <c r="C745" s="24"/>
     </row>
     <row r="746" spans="3:3">
-      <c r="C746" s="19"/>
+      <c r="C746" s="24"/>
     </row>
     <row r="747" spans="3:3">
-      <c r="C747" s="19"/>
+      <c r="C747" s="24"/>
     </row>
     <row r="748" spans="3:3">
-      <c r="C748" s="19"/>
+      <c r="C748" s="24"/>
     </row>
     <row r="749" spans="3:3">
-      <c r="C749" s="19"/>
+      <c r="C749" s="24"/>
     </row>
     <row r="750" spans="3:3">
-      <c r="C750" s="19"/>
+      <c r="C750" s="24"/>
     </row>
     <row r="751" spans="3:3">
-      <c r="C751" s="19"/>
+      <c r="C751" s="24"/>
     </row>
     <row r="752" spans="3:3">
-      <c r="C752" s="19"/>
+      <c r="C752" s="24"/>
     </row>
     <row r="753" spans="3:3">
-      <c r="C753" s="19"/>
+      <c r="C753" s="24"/>
     </row>
     <row r="754" spans="3:3">
-      <c r="C754" s="19"/>
+      <c r="C754" s="24"/>
     </row>
     <row r="755" spans="3:3">
-      <c r="C755" s="19"/>
+      <c r="C755" s="24"/>
     </row>
     <row r="756" spans="3:3">
-      <c r="C756" s="19"/>
+      <c r="C756" s="24"/>
     </row>
     <row r="757" spans="3:3">
-      <c r="C757" s="19"/>
+      <c r="C757" s="24"/>
     </row>
     <row r="758" spans="3:3">
-      <c r="C758" s="19"/>
+      <c r="C758" s="24"/>
     </row>
     <row r="759" spans="3:3">
-      <c r="C759" s="19"/>
+      <c r="C759" s="24"/>
     </row>
     <row r="760" spans="3:3">
-      <c r="C760" s="19"/>
+      <c r="C760" s="24"/>
     </row>
     <row r="761" spans="3:3">
-      <c r="C761" s="19"/>
+      <c r="C761" s="24"/>
     </row>
     <row r="762" spans="3:3">
-      <c r="C762" s="19"/>
+      <c r="C762" s="24"/>
     </row>
     <row r="763" spans="3:3">
-      <c r="C763" s="19"/>
+      <c r="C763" s="24"/>
     </row>
     <row r="764" spans="3:3">
-      <c r="C764" s="19"/>
+      <c r="C764" s="24"/>
     </row>
     <row r="765" spans="3:3">
-      <c r="C765" s="19"/>
+      <c r="C765" s="24"/>
     </row>
     <row r="766" spans="3:3">
-      <c r="C766" s="19"/>
+      <c r="C766" s="24"/>
     </row>
     <row r="767" spans="3:3">
-      <c r="C767" s="19"/>
+      <c r="C767" s="24"/>
     </row>
     <row r="768" spans="3:3">
-      <c r="C768" s="19"/>
+      <c r="C768" s="24"/>
     </row>
     <row r="769" spans="3:3">
-      <c r="C769" s="19"/>
+      <c r="C769" s="24"/>
     </row>
     <row r="770" spans="3:3">
-      <c r="C770" s="19"/>
+      <c r="C770" s="24"/>
     </row>
     <row r="771" spans="3:3">
-      <c r="C771" s="19"/>
+      <c r="C771" s="24"/>
     </row>
     <row r="772" spans="3:3">
-      <c r="C772" s="19"/>
+      <c r="C772" s="24"/>
     </row>
     <row r="773" spans="3:3">
-      <c r="C773" s="19"/>
+      <c r="C773" s="24"/>
     </row>
     <row r="774" spans="3:3">
-      <c r="C774" s="19"/>
+      <c r="C774" s="24"/>
     </row>
     <row r="775" spans="3:3">
-      <c r="C775" s="19"/>
+      <c r="C775" s="24"/>
     </row>
     <row r="776" spans="3:3">
-      <c r="C776" s="19"/>
+      <c r="C776" s="24"/>
     </row>
     <row r="777" spans="3:3">
-      <c r="C777" s="19"/>
+      <c r="C777" s="24"/>
     </row>
     <row r="778" spans="3:3">
-      <c r="C778" s="19"/>
+      <c r="C778" s="24"/>
     </row>
     <row r="779" spans="3:3">
-      <c r="C779" s="19"/>
+      <c r="C779" s="24"/>
     </row>
     <row r="780" spans="3:3">
-      <c r="C780" s="19"/>
+      <c r="C780" s="24"/>
     </row>
     <row r="781" spans="3:3">
-      <c r="C781" s="19"/>
+      <c r="C781" s="24"/>
     </row>
     <row r="782" spans="3:3">
-      <c r="C782" s="19"/>
+      <c r="C782" s="24"/>
     </row>
     <row r="783" spans="3:3">
-      <c r="C783" s="19"/>
+      <c r="C783" s="24"/>
     </row>
     <row r="784" spans="3:3">
-      <c r="C784" s="19"/>
+      <c r="C784" s="24"/>
     </row>
     <row r="785" spans="3:3">
-      <c r="C785" s="19"/>
+      <c r="C785" s="24"/>
     </row>
     <row r="786" spans="3:3">
-      <c r="C786" s="19"/>
+      <c r="C786" s="24"/>
     </row>
     <row r="787" spans="3:3">
-      <c r="C787" s="19"/>
+      <c r="C787" s="24"/>
     </row>
     <row r="788" spans="3:3">
-      <c r="C788" s="19"/>
+      <c r="C788" s="24"/>
     </row>
     <row r="789" spans="3:3">
-      <c r="C789" s="19"/>
+      <c r="C789" s="24"/>
     </row>
     <row r="790" spans="3:3">
-      <c r="C790" s="19"/>
+      <c r="C790" s="24"/>
     </row>
     <row r="791" spans="3:3">
-      <c r="C791" s="19"/>
+      <c r="C791" s="24"/>
     </row>
     <row r="792" spans="3:3">
-      <c r="C792" s="19"/>
+      <c r="C792" s="24"/>
     </row>
     <row r="793" spans="3:3">
-      <c r="C793" s="19"/>
+      <c r="C793" s="24"/>
     </row>
     <row r="794" spans="3:3">
-      <c r="C794" s="19"/>
+      <c r="C794" s="24"/>
     </row>
     <row r="795" spans="3:3">
-      <c r="C795" s="19"/>
+      <c r="C795" s="24"/>
     </row>
     <row r="796" spans="3:3">
-      <c r="C796" s="19"/>
+      <c r="C796" s="24"/>
     </row>
     <row r="797" spans="3:3">
-      <c r="C797" s="19"/>
+      <c r="C797" s="24"/>
     </row>
     <row r="798" spans="3:3">
-      <c r="C798" s="19"/>
+      <c r="C798" s="24"/>
     </row>
     <row r="799" spans="3:3">
-      <c r="C799" s="19"/>
+      <c r="C799" s="24"/>
     </row>
     <row r="800" spans="3:3">
-      <c r="C800" s="19"/>
+      <c r="C800" s="24"/>
     </row>
     <row r="801" spans="3:3">
-      <c r="C801" s="19"/>
+      <c r="C801" s="24"/>
     </row>
     <row r="802" spans="3:3">
-      <c r="C802" s="19"/>
+      <c r="C802" s="24"/>
     </row>
     <row r="803" spans="3:3">
-      <c r="C803" s="19"/>
+      <c r="C803" s="24"/>
     </row>
     <row r="804" spans="3:3">
-      <c r="C804" s="19"/>
+      <c r="C804" s="24"/>
     </row>
     <row r="805" spans="3:3">
-      <c r="C805" s="19"/>
+      <c r="C805" s="24"/>
     </row>
     <row r="806" spans="3:3">
-      <c r="C806" s="19"/>
+      <c r="C806" s="24"/>
     </row>
     <row r="807" spans="3:3">
-      <c r="C807" s="19"/>
+      <c r="C807" s="24"/>
     </row>
     <row r="808" spans="3:3">
-      <c r="C808" s="19"/>
+      <c r="C808" s="24"/>
     </row>
     <row r="809" spans="3:3">
-      <c r="C809" s="19"/>
+      <c r="C809" s="24"/>
     </row>
     <row r="810" spans="3:3">
-      <c r="C810" s="19"/>
+      <c r="C810" s="24"/>
     </row>
     <row r="811" spans="3:3">
-      <c r="C811" s="19"/>
+      <c r="C811" s="24"/>
     </row>
     <row r="812" spans="3:3">
-      <c r="C812" s="19"/>
+      <c r="C812" s="24"/>
     </row>
     <row r="813" spans="3:3">
-      <c r="C813" s="19"/>
+      <c r="C813" s="24"/>
     </row>
     <row r="814" spans="3:3">
-      <c r="C814" s="19"/>
+      <c r="C814" s="24"/>
     </row>
     <row r="815" spans="3:3">
-      <c r="C815" s="19"/>
+      <c r="C815" s="24"/>
     </row>
     <row r="816" spans="3:3">
-      <c r="C816" s="19"/>
+      <c r="C816" s="24"/>
     </row>
     <row r="817" spans="3:3">
-      <c r="C817" s="19"/>
+      <c r="C817" s="24"/>
     </row>
     <row r="818" spans="3:3">
-      <c r="C818" s="19"/>
+      <c r="C818" s="24"/>
     </row>
     <row r="819" spans="3:3">
-      <c r="C819" s="19"/>
+      <c r="C819" s="24"/>
     </row>
     <row r="820" spans="3:3">
-      <c r="C820" s="19"/>
+      <c r="C820" s="24"/>
     </row>
     <row r="821" spans="3:3">
-      <c r="C821" s="19"/>
+      <c r="C821" s="24"/>
     </row>
     <row r="822" spans="3:3">
-      <c r="C822" s="19"/>
+      <c r="C822" s="24"/>
     </row>
     <row r="823" spans="3:3">
-      <c r="C823" s="19"/>
+      <c r="C823" s="24"/>
     </row>
     <row r="824" spans="3:3">
-      <c r="C824" s="19"/>
+      <c r="C824" s="24"/>
     </row>
     <row r="825" spans="3:3">
-      <c r="C825" s="19"/>
+      <c r="C825" s="24"/>
     </row>
     <row r="826" spans="3:3">
-      <c r="C826" s="19"/>
+      <c r="C826" s="24"/>
     </row>
     <row r="827" spans="3:3">
-      <c r="C827" s="19"/>
+      <c r="C827" s="24"/>
     </row>
     <row r="828" spans="3:3">
-      <c r="C828" s="19"/>
+      <c r="C828" s="24"/>
     </row>
     <row r="829" spans="3:3">
-      <c r="C829" s="19"/>
+      <c r="C829" s="24"/>
     </row>
     <row r="830" spans="3:3">
-      <c r="C830" s="19"/>
+      <c r="C830" s="24"/>
     </row>
     <row r="831" spans="3:3">
-      <c r="C831" s="19"/>
+      <c r="C831" s="24"/>
     </row>
     <row r="832" spans="3:3">
-      <c r="C832" s="19"/>
+      <c r="C832" s="24"/>
     </row>
     <row r="833" spans="3:3">
-      <c r="C833" s="19"/>
+      <c r="C833" s="24"/>
     </row>
     <row r="834" spans="3:3">
-      <c r="C834" s="19"/>
+      <c r="C834" s="24"/>
     </row>
     <row r="835" spans="3:3">
-      <c r="C835" s="19"/>
+      <c r="C835" s="24"/>
     </row>
     <row r="836" spans="3:3">
-      <c r="C836" s="19"/>
+      <c r="C836" s="24"/>
     </row>
     <row r="837" spans="3:3">
-      <c r="C837" s="19"/>
+      <c r="C837" s="24"/>
     </row>
     <row r="838" spans="3:3">
-      <c r="C838" s="19"/>
+      <c r="C838" s="24"/>
     </row>
     <row r="839" spans="3:3">
-      <c r="C839" s="19"/>
+      <c r="C839" s="24"/>
     </row>
     <row r="840" spans="3:3">
-      <c r="C840" s="19"/>
+      <c r="C840" s="24"/>
     </row>
     <row r="841" spans="3:3">
-      <c r="C841" s="19"/>
+      <c r="C841" s="24"/>
     </row>
     <row r="842" spans="3:3">
-      <c r="C842" s="19"/>
+      <c r="C842" s="24"/>
     </row>
     <row r="843" spans="3:3">
-      <c r="C843" s="19"/>
+      <c r="C843" s="24"/>
     </row>
     <row r="844" spans="3:3">
-      <c r="C844" s="19"/>
+      <c r="C844" s="24"/>
     </row>
     <row r="845" spans="3:3">
-      <c r="C845" s="19"/>
+      <c r="C845" s="24"/>
     </row>
     <row r="846" spans="3:3">
-      <c r="C846" s="19"/>
+      <c r="C846" s="24"/>
     </row>
     <row r="847" spans="3:3">
-      <c r="C847" s="19"/>
+      <c r="C847" s="24"/>
     </row>
     <row r="848" spans="3:3">
-      <c r="C848" s="19"/>
+      <c r="C848" s="24"/>
     </row>
     <row r="849" spans="3:3">
-      <c r="C849" s="19"/>
+      <c r="C849" s="24"/>
     </row>
     <row r="850" spans="3:3">
-      <c r="C850" s="19"/>
+      <c r="C850" s="24"/>
     </row>
     <row r="851" spans="3:3">
-      <c r="C851" s="19"/>
+      <c r="C851" s="24"/>
     </row>
     <row r="852" spans="3:3">
-      <c r="C852" s="19"/>
+      <c r="C852" s="24"/>
     </row>
     <row r="853" spans="3:3">
-      <c r="C853" s="19"/>
+      <c r="C853" s="24"/>
     </row>
     <row r="854" spans="3:3">
-      <c r="C854" s="19"/>
+      <c r="C854" s="24"/>
     </row>
     <row r="855" spans="3:3">
-      <c r="C855" s="19"/>
+      <c r="C855" s="24"/>
     </row>
     <row r="856" spans="3:3">
-      <c r="C856" s="19"/>
+      <c r="C856" s="24"/>
     </row>
     <row r="857" spans="3:3">
-      <c r="C857" s="19"/>
+      <c r="C857" s="24"/>
     </row>
     <row r="858" spans="3:3">
-      <c r="C858" s="19"/>
+      <c r="C858" s="24"/>
     </row>
     <row r="859" spans="3:3">
-      <c r="C859" s="19"/>
+      <c r="C859" s="24"/>
     </row>
     <row r="860" spans="3:3">
-      <c r="C860" s="19"/>
+      <c r="C860" s="24"/>
     </row>
     <row r="861" spans="3:3">
-      <c r="C861" s="19"/>
+      <c r="C861" s="24"/>
     </row>
     <row r="862" spans="3:3">
-      <c r="C862" s="19"/>
+      <c r="C862" s="24"/>
     </row>
     <row r="863" spans="3:3">
-      <c r="C863" s="19"/>
+      <c r="C863" s="24"/>
     </row>
     <row r="864" spans="3:3">
-      <c r="C864" s="19"/>
+      <c r="C864" s="24"/>
     </row>
     <row r="865" spans="3:3">
-      <c r="C865" s="19"/>
+      <c r="C865" s="24"/>
     </row>
     <row r="866" spans="3:3">
-      <c r="C866" s="19"/>
+      <c r="C866" s="24"/>
     </row>
     <row r="867" spans="3:3">
-      <c r="C867" s="19"/>
+      <c r="C867" s="24"/>
     </row>
     <row r="868" spans="3:3">
-      <c r="C868" s="19"/>
+      <c r="C868" s="24"/>
     </row>
     <row r="869" spans="3:3">
-      <c r="C869" s="19"/>
+      <c r="C869" s="24"/>
     </row>
     <row r="870" spans="3:3">
-      <c r="C870" s="19"/>
+      <c r="C870" s="24"/>
     </row>
     <row r="871" spans="3:3">
-      <c r="C871" s="19"/>
+      <c r="C871" s="24"/>
     </row>
     <row r="872" spans="3:3">
-      <c r="C872" s="19"/>
+      <c r="C872" s="24"/>
     </row>
     <row r="873" spans="3:3">
-      <c r="C873" s="19"/>
+      <c r="C873" s="24"/>
     </row>
     <row r="874" spans="3:3">
-      <c r="C874" s="19"/>
+      <c r="C874" s="24"/>
     </row>
     <row r="875" spans="3:3">
-      <c r="C875" s="19"/>
+      <c r="C875" s="24"/>
     </row>
     <row r="876" spans="3:3">
-      <c r="C876" s="19"/>
+      <c r="C876" s="24"/>
     </row>
     <row r="877" spans="3:3">
-      <c r="C877" s="19"/>
+      <c r="C877" s="24"/>
     </row>
     <row r="878" spans="3:3">
-      <c r="C878" s="19"/>
+      <c r="C878" s="24"/>
     </row>
     <row r="879" spans="3:3">
-      <c r="C879" s="19"/>
+      <c r="C879" s="24"/>
     </row>
     <row r="880" spans="3:3">
-      <c r="C880" s="19"/>
+      <c r="C880" s="24"/>
     </row>
     <row r="881" spans="3:3">
-      <c r="C881" s="19"/>
+      <c r="C881" s="24"/>
     </row>
     <row r="882" spans="3:3">
-      <c r="C882" s="19"/>
+      <c r="C882" s="24"/>
     </row>
     <row r="883" spans="3:3">
-      <c r="C883" s="19"/>
+      <c r="C883" s="24"/>
     </row>
     <row r="884" spans="3:3">
-      <c r="C884" s="19"/>
+      <c r="C884" s="24"/>
     </row>
     <row r="885" spans="3:3">
-      <c r="C885" s="19"/>
+      <c r="C885" s="24"/>
     </row>
     <row r="886" spans="3:3">
-      <c r="C886" s="19"/>
+      <c r="C886" s="24"/>
     </row>
     <row r="887" spans="3:3">
-      <c r="C887" s="19"/>
+      <c r="C887" s="24"/>
     </row>
     <row r="888" spans="3:3">
-      <c r="C888" s="19"/>
+      <c r="C888" s="24"/>
     </row>
     <row r="889" spans="3:3">
-      <c r="C889" s="19"/>
+      <c r="C889" s="24"/>
     </row>
     <row r="890" spans="3:3">
-      <c r="C890" s="19"/>
+      <c r="C890" s="24"/>
     </row>
     <row r="891" spans="3:3">
-      <c r="C891" s="19"/>
+      <c r="C891" s="24"/>
     </row>
     <row r="892" spans="3:3">
-      <c r="C892" s="19"/>
+      <c r="C892" s="24"/>
     </row>
     <row r="893" spans="3:3">
-      <c r="C893" s="19"/>
+      <c r="C893" s="24"/>
     </row>
     <row r="894" spans="3:3">
-      <c r="C894" s="19"/>
+      <c r="C894" s="24"/>
     </row>
     <row r="895" spans="3:3">
-      <c r="C895" s="19"/>
+      <c r="C895" s="24"/>
     </row>
     <row r="896" spans="3:3">
-      <c r="C896" s="19"/>
+      <c r="C896" s="24"/>
     </row>
     <row r="897" spans="3:3">
-      <c r="C897" s="19"/>
+      <c r="C897" s="24"/>
     </row>
     <row r="898" spans="3:3">
-      <c r="C898" s="19"/>
+      <c r="C898" s="24"/>
     </row>
     <row r="899" spans="3:3">
-      <c r="C899" s="19"/>
+      <c r="C899" s="24"/>
     </row>
     <row r="900" spans="3:3">
-      <c r="C900" s="19"/>
+      <c r="C900" s="24"/>
     </row>
     <row r="901" spans="3:3">
-      <c r="C901" s="19"/>
+      <c r="C901" s="24"/>
     </row>
     <row r="902" spans="3:3">
-      <c r="C902" s="19"/>
+      <c r="C902" s="24"/>
     </row>
     <row r="903" spans="3:3">
-      <c r="C903" s="19"/>
+      <c r="C903" s="24"/>
     </row>
     <row r="904" spans="3:3">
-      <c r="C904" s="19"/>
+      <c r="C904" s="24"/>
     </row>
     <row r="905" spans="3:3">
-      <c r="C905" s="19"/>
+      <c r="C905" s="24"/>
     </row>
     <row r="906" spans="3:3">
-      <c r="C906" s="19"/>
+      <c r="C906" s="24"/>
     </row>
     <row r="907" spans="3:3">
-      <c r="C907" s="19"/>
+      <c r="C907" s="24"/>
     </row>
     <row r="908" spans="3:3">
-      <c r="C908" s="19"/>
+      <c r="C908" s="24"/>
     </row>
     <row r="909" spans="3:3">
-      <c r="C909" s="19"/>
+      <c r="C909" s="24"/>
     </row>
     <row r="910" spans="3:3">
-      <c r="C910" s="19"/>
+      <c r="C910" s="24"/>
     </row>
     <row r="911" spans="3:3">
-      <c r="C911" s="19"/>
+      <c r="C911" s="24"/>
     </row>
     <row r="912" spans="3:3">
-      <c r="C912" s="19"/>
+      <c r="C912" s="24"/>
     </row>
     <row r="913" spans="3:3">
-      <c r="C913" s="19"/>
+      <c r="C913" s="24"/>
     </row>
     <row r="914" spans="3:3">
-      <c r="C914" s="19"/>
+      <c r="C914" s="24"/>
     </row>
     <row r="915" spans="3:3">
-      <c r="C915" s="19"/>
+      <c r="C915" s="24"/>
     </row>
     <row r="916" spans="3:3">
-      <c r="C916" s="19"/>
+      <c r="C916" s="24"/>
     </row>
     <row r="917" spans="3:3">
-      <c r="C917" s="19"/>
+      <c r="C917" s="24"/>
     </row>
     <row r="918" spans="3:3">
-      <c r="C918" s="19"/>
+      <c r="C918" s="24"/>
     </row>
     <row r="919" spans="3:3">
-      <c r="C919" s="19"/>
+      <c r="C919" s="24"/>
     </row>
     <row r="920" spans="3:3">
-      <c r="C920" s="19"/>
+      <c r="C920" s="24"/>
     </row>
     <row r="921" spans="3:3">
-      <c r="C921" s="19"/>
+      <c r="C921" s="24"/>
     </row>
     <row r="922" spans="3:3">
-      <c r="C922" s="19"/>
+      <c r="C922" s="24"/>
     </row>
     <row r="923" spans="3:3">
-      <c r="C923" s="19"/>
+      <c r="C923" s="24"/>
     </row>
     <row r="924" spans="3:3">
-      <c r="C924" s="19"/>
+      <c r="C924" s="24"/>
     </row>
     <row r="925" spans="3:3">
-      <c r="C925" s="19"/>
+      <c r="C925" s="24"/>
     </row>
     <row r="926" spans="3:3">
-      <c r="C926" s="19"/>
+      <c r="C926" s="24"/>
     </row>
     <row r="927" spans="3:3">
-      <c r="C927" s="19"/>
+      <c r="C927" s="24"/>
     </row>
     <row r="928" spans="3:3">
-      <c r="C928" s="19"/>
+      <c r="C928" s="24"/>
     </row>
     <row r="929" spans="3:3">
-      <c r="C929" s="19"/>
+      <c r="C929" s="24"/>
     </row>
     <row r="930" spans="3:3">
-      <c r="C930" s="19"/>
+      <c r="C930" s="24"/>
     </row>
     <row r="931" spans="3:3">
-      <c r="C931" s="19"/>
+      <c r="C931" s="24"/>
     </row>
     <row r="932" spans="3:3">
-      <c r="C932" s="19"/>
+      <c r="C932" s="24"/>
     </row>
     <row r="933" spans="3:3">
-      <c r="C933" s="19"/>
+      <c r="C933" s="24"/>
     </row>
     <row r="934" spans="3:3">
-      <c r="C934" s="19"/>
+      <c r="C934" s="24"/>
     </row>
     <row r="935" spans="3:3">
-      <c r="C935" s="19"/>
+      <c r="C935" s="24"/>
     </row>
     <row r="936" spans="3:3">
-      <c r="C936" s="19"/>
+      <c r="C936" s="24"/>
     </row>
     <row r="937" spans="3:3">
-      <c r="C937" s="19"/>
+      <c r="C937" s="24"/>
     </row>
     <row r="938" spans="3:3">
-      <c r="C938" s="19"/>
+      <c r="C938" s="24"/>
     </row>
     <row r="939" spans="3:3">
-      <c r="C939" s="19"/>
+      <c r="C939" s="24"/>
     </row>
     <row r="940" spans="3:3">
-      <c r="C940" s="19"/>
+      <c r="C940" s="24"/>
     </row>
     <row r="941" spans="3:3">
-      <c r="C941" s="19"/>
+      <c r="C941" s="24"/>
     </row>
     <row r="942" spans="3:3">
-      <c r="C942" s="19"/>
+      <c r="C942" s="24"/>
     </row>
     <row r="943" spans="3:3">
-      <c r="C943" s="19"/>
+      <c r="C943" s="24"/>
     </row>
     <row r="944" spans="3:3">
-      <c r="C944" s="19"/>
+      <c r="C944" s="24"/>
     </row>
     <row r="945" spans="3:3">
-      <c r="C945" s="19"/>
+      <c r="C945" s="24"/>
     </row>
     <row r="946" spans="3:3">
-      <c r="C946" s="19"/>
+      <c r="C946" s="24"/>
     </row>
     <row r="947" spans="3:3">
-      <c r="C947" s="19"/>
+      <c r="C947" s="24"/>
     </row>
     <row r="948" spans="3:3">
-      <c r="C948" s="19"/>
+      <c r="C948" s="24"/>
     </row>
     <row r="949" spans="3:3">
-      <c r="C949" s="19"/>
+      <c r="C949" s="24"/>
     </row>
     <row r="950" spans="3:3">
-      <c r="C950" s="19"/>
+      <c r="C950" s="24"/>
     </row>
     <row r="951" spans="3:3">
-      <c r="C951" s="19"/>
+      <c r="C951" s="24"/>
     </row>
     <row r="952" spans="3:3">
-      <c r="C952" s="19"/>
+      <c r="C952" s="24"/>
     </row>
     <row r="953" spans="3:3">
-      <c r="C953" s="19"/>
+      <c r="C953" s="24"/>
     </row>
     <row r="954" spans="3:3">
-      <c r="C954" s="19"/>
+      <c r="C954" s="24"/>
     </row>
     <row r="955" spans="3:3">
-      <c r="C955" s="19"/>
+      <c r="C955" s="24"/>
     </row>
     <row r="956" spans="3:3">
-      <c r="C956" s="19"/>
+      <c r="C956" s="24"/>
     </row>
     <row r="957" spans="3:3">
-      <c r="C957" s="19"/>
+      <c r="C957" s="24"/>
     </row>
     <row r="958" spans="3:3">
-      <c r="C958" s="19"/>
+      <c r="C958" s="24"/>
     </row>
     <row r="959" spans="3:3">
-      <c r="C959" s="19"/>
+      <c r="C959" s="24"/>
     </row>
     <row r="960" spans="3:3">
-      <c r="C960" s="19"/>
+      <c r="C960" s="24"/>
     </row>
     <row r="961" spans="3:3">
-      <c r="C961" s="19"/>
+      <c r="C961" s="24"/>
     </row>
     <row r="962" spans="3:3">
-      <c r="C962" s="20"/>
+      <c r="C962" s="25"/>
     </row>
     <row r="963" spans="3:3">
-      <c r="C963" s="20"/>
+      <c r="C963" s="25"/>
     </row>
     <row r="964" spans="3:3">
-      <c r="C964" s="20"/>
+      <c r="C964" s="25"/>
     </row>
     <row r="965" spans="3:3">
-      <c r="C965" s="20"/>
+      <c r="C965" s="25"/>
     </row>
     <row r="966" spans="3:3">
-      <c r="C966" s="20"/>
+      <c r="C966" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B1:D2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.196527777777778" right="0.393055555555556" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
